--- a/jogos_2025-05-23.xlsx
+++ b/jogos_2025-05-23.xlsx
@@ -253,7 +253,7 @@
     <t>17:00</t>
   </si>
   <si>
-    <t>18:00</t>
+    <t>17:30</t>
   </si>
   <si>
     <t>19:00</t>
@@ -307,22 +307,22 @@
     <t>Uzbekistan Uzbekistan Super League</t>
   </si>
   <si>
+    <t>Serbia Prva Liga</t>
+  </si>
+  <si>
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
-    <t>Serbia Prva Liga</t>
+    <t>Slovenia PrvaLiga</t>
   </si>
   <si>
     <t>Belarus Vysheyshaya Liga</t>
   </si>
   <si>
-    <t>Slovenia PrvaLiga</t>
-  </si>
-  <si>
     <t>UAE Arabian Gulf League</t>
   </si>
   <si>
-    <t>Croatia Prva HNL</t>
+    <t>Slovakia Super Liga</t>
   </si>
   <si>
     <t>Serbia SuperLiga</t>
@@ -397,10 +397,16 @@
     <t>Hoang Anh Gia Lai</t>
   </si>
   <si>
+    <t>Anyang</t>
+  </si>
+  <si>
     <t>Jeju United</t>
   </si>
   <si>
-    <t>Anyang</t>
+    <t>Persija</t>
+  </si>
+  <si>
+    <t>PSM</t>
   </si>
   <si>
     <t>Dewa United</t>
@@ -409,24 +415,18 @@
     <t>Persebaya Surabaya</t>
   </si>
   <si>
-    <t>PSM</t>
-  </si>
-  <si>
-    <t>Persija</t>
-  </si>
-  <si>
     <t>Ho Chi Minh City</t>
   </si>
   <si>
     <t>Viettel</t>
   </si>
   <si>
+    <t>Obolon-Brovar</t>
+  </si>
+  <si>
     <t>Inhulets</t>
   </si>
   <si>
-    <t>Obolon-Brovar</t>
-  </si>
-  <si>
     <t>Bandırmaspor</t>
   </si>
   <si>
@@ -436,55 +436,58 @@
     <t>Andijan</t>
   </si>
   <si>
+    <t>Radnik Surdulica</t>
+  </si>
+  <si>
+    <t>Nasaf</t>
+  </si>
+  <si>
     <t>KTP</t>
   </si>
   <si>
-    <t>Radnik Surdulica</t>
-  </si>
-  <si>
-    <t>Nasaf</t>
+    <t>Radomlje</t>
   </si>
   <si>
     <t>Isloch</t>
   </si>
   <si>
-    <t>Radomlje</t>
-  </si>
-  <si>
     <t>Al Nasr</t>
   </si>
   <si>
-    <t>Osijek</t>
+    <t>DAC</t>
   </si>
   <si>
     <t>Čukarički</t>
   </si>
   <si>
+    <t>LASK Linz</t>
+  </si>
+  <si>
+    <t>Wattens</t>
+  </si>
+  <si>
+    <t>Vitebsk</t>
+  </si>
+  <si>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
     <t>Austria Klagenfurt</t>
   </si>
   <si>
-    <t>CFR Cluj</t>
-  </si>
-  <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
-    <t>Wattens</t>
-  </si>
-  <si>
-    <t>Vitebsk</t>
-  </si>
-  <si>
     <t>Sloboda Tuzla</t>
   </si>
   <si>
     <t>Thun</t>
   </si>
   <si>
+    <t>FC Schaffhausen</t>
+  </si>
+  <si>
     <t>Paksi SE</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
+    <t>Aarau</t>
   </si>
   <si>
     <t>Neuchâtel Xamax</t>
@@ -493,48 +496,45 @@
     <t>Stade Lausanne-Ouchy</t>
   </si>
   <si>
-    <t>Aarau</t>
-  </si>
-  <si>
     <t>Almirante Brown</t>
   </si>
   <si>
+    <t>Drogheda United</t>
+  </si>
+  <si>
+    <t>Bray Wanderers</t>
+  </si>
+  <si>
+    <t>Athlone Town</t>
+  </si>
+  <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
     <t>St Patrick's Athl.</t>
   </si>
   <si>
-    <t>Shelbourne</t>
+    <t>Finn Harps</t>
+  </si>
+  <si>
+    <t>Como</t>
+  </si>
+  <si>
+    <t>Galway United</t>
   </si>
   <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Athlone Town</t>
-  </si>
-  <si>
-    <t>Bray Wanderers</t>
+    <t>Napoli</t>
   </si>
   <si>
     <t>Treaty United</t>
   </si>
   <si>
-    <t>Finn Harps</t>
-  </si>
-  <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Galway United</t>
-  </si>
-  <si>
     <t>Dundalk</t>
   </si>
   <si>
-    <t>Drogheda United</t>
-  </si>
-  <si>
-    <t>Napoli</t>
-  </si>
-  <si>
     <t>Real Betis</t>
   </si>
   <si>
@@ -568,12 +568,12 @@
     <t>St. Louis City II</t>
   </si>
   <si>
+    <t>San Marcos</t>
+  </si>
+  <si>
     <t>Austin II</t>
   </si>
   <si>
-    <t>San Marcos</t>
-  </si>
-  <si>
     <t>Goiás</t>
   </si>
   <si>
@@ -595,10 +595,16 @@
     <t>Da Nang</t>
   </si>
   <si>
+    <t>Pohang Steelers</t>
+  </si>
+  <si>
     <t>Jeonbuk Motors</t>
   </si>
   <si>
-    <t>Pohang Steelers</t>
+    <t>Malut United</t>
+  </si>
+  <si>
+    <t>Persita</t>
   </si>
   <si>
     <t>PSBS Biak Numfor</t>
@@ -607,24 +613,18 @@
     <t>Bali United</t>
   </si>
   <si>
-    <t>Persita</t>
-  </si>
-  <si>
-    <t>Malut United</t>
-  </si>
-  <si>
     <t>Binh Duong</t>
   </si>
   <si>
     <t>Hai Phong</t>
   </si>
   <si>
+    <t>Livyi Bereh</t>
+  </si>
+  <si>
     <t>Vorskla</t>
   </si>
   <si>
-    <t>Livyi Bereh</t>
-  </si>
-  <si>
     <t>Boluspor</t>
   </si>
   <si>
@@ -634,55 +634,58 @@
     <t>Termez Surkhon</t>
   </si>
   <si>
+    <t>Borac Čačak</t>
+  </si>
+  <si>
+    <t>AGMK</t>
+  </si>
+  <si>
     <t>Haka</t>
   </si>
   <si>
-    <t>Borac Čačak</t>
-  </si>
-  <si>
-    <t>AGMK</t>
+    <t>Primorje</t>
   </si>
   <si>
     <t>Arsenal Dzyarzhynsk</t>
   </si>
   <si>
-    <t>Primorje</t>
-  </si>
-  <si>
     <t>Al Ain</t>
   </si>
   <si>
-    <t>Istra 1961</t>
+    <t>Podbrezová</t>
   </si>
   <si>
     <t>Železničar Pančevo</t>
   </si>
   <si>
+    <t>Rheindorf Altach</t>
+  </si>
+  <si>
+    <t>Grazer AK</t>
+  </si>
+  <si>
+    <t>Dinamo Brest</t>
+  </si>
+  <si>
+    <t>FCSB</t>
+  </si>
+  <si>
     <t>Hartberg</t>
   </si>
   <si>
-    <t>FCSB</t>
-  </si>
-  <si>
-    <t>Rheindorf Altach</t>
-  </si>
-  <si>
-    <t>Grazer AK</t>
-  </si>
-  <si>
-    <t>Dinamo Brest</t>
-  </si>
-  <si>
     <t>GOŠK Gabela</t>
   </si>
   <si>
     <t>Étoile Carouge</t>
   </si>
   <si>
+    <t>Bellinzona</t>
+  </si>
+  <si>
     <t>Kecskeméti TE</t>
   </si>
   <si>
-    <t>Bellinzona</t>
+    <t>Stade Nyonnais</t>
   </si>
   <si>
     <t>Wil</t>
@@ -691,48 +694,45 @@
     <t>Vaduz</t>
   </si>
   <si>
-    <t>Stade Nyonnais</t>
-  </si>
-  <si>
     <t>Estudiantes Río Cuarto</t>
   </si>
   <si>
+    <t>Bohemians</t>
+  </si>
+  <si>
+    <t>Wexford</t>
+  </si>
+  <si>
+    <t>Cobh Ramblers</t>
+  </si>
+  <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
     <t>Waterford</t>
   </si>
   <si>
-    <t>Sligo Rovers</t>
+    <t>UCD</t>
+  </si>
+  <si>
+    <t>Inter Milan</t>
+  </si>
+  <si>
+    <t>Cork City</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Cobh Ramblers</t>
-  </si>
-  <si>
-    <t>Wexford</t>
+    <t>Cagliari</t>
   </si>
   <si>
     <t>Longford Town</t>
   </si>
   <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Inter Milan</t>
-  </si>
-  <si>
-    <t>Cork City</t>
-  </si>
-  <si>
     <t>Kerry</t>
   </si>
   <si>
-    <t>Bohemians</t>
-  </si>
-  <si>
-    <t>Cagliari</t>
-  </si>
-  <si>
     <t>Valencia CF</t>
   </si>
   <si>
@@ -766,10 +766,10 @@
     <t>Portland Timbers II</t>
   </si>
   <si>
+    <t>San Luis</t>
+  </si>
+  <si>
     <t>Minnesota United II</t>
-  </si>
-  <si>
-    <t>San Luis</t>
   </si>
   <si>
     <t>Ferroviária</t>
@@ -1374,40 +1374,40 @@
         <v>2.38</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="Q2">
         <v>1.67</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U2">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W2">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z2">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AA2">
-        <v>0</v>
+        <v>3.68</v>
       </c>
       <c r="AB2">
         <v>1.73</v>
@@ -1416,22 +1416,22 @@
         <v>1.98</v>
       </c>
       <c r="AD2">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AE2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AF2">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG2">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH2">
-        <v>0</v>
+        <v>4.95</v>
       </c>
       <c r="AI2">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AJ2" t="s">
         <v>257</v>
@@ -1440,13 +1440,13 @@
         <v>257</v>
       </c>
       <c r="AL2">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AM2">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN2">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AO2">
         <v>-1</v>
@@ -1532,76 +1532,76 @@
         <v>256</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>16.75</v>
       </c>
       <c r="Q3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="R3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="U3">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="V3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W3">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="X3">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Z3">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AA3">
-        <v>0</v>
+        <v>4.45</v>
       </c>
       <c r="AB3">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AC3">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AD3">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AG3">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH3">
-        <v>0</v>
+        <v>3.95</v>
       </c>
       <c r="AI3">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ3" t="s">
         <v>257</v>
@@ -1610,13 +1610,13 @@
         <v>257</v>
       </c>
       <c r="AL3">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM3">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AN3">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AO3">
         <v>-1</v>
@@ -1658,10 +1658,10 @@
         <v>0</v>
       </c>
       <c r="BB3">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BC3">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="BD3" s="3">
         <v>45800.27083333334</v>
@@ -1872,22 +1872,22 @@
         <v>256</v>
       </c>
       <c r="L5">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="M5">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="N5">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="O5">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P5">
         <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R5">
         <v>1.4</v>
@@ -1896,16 +1896,16 @@
         <v>2.75</v>
       </c>
       <c r="T5">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="U5">
         <v>1.36</v>
       </c>
       <c r="V5">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W5">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="X5">
         <v>1.06</v>
@@ -1914,34 +1914,34 @@
         <v>8.5</v>
       </c>
       <c r="Z5">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AA5">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB5">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AC5">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AD5">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="AE5">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF5">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AG5">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI5">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AJ5" t="s">
         <v>257</v>
@@ -1950,46 +1950,46 @@
         <v>257</v>
       </c>
       <c r="AL5">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AM5">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AN5">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AO5">
         <v>-1</v>
       </c>
       <c r="AP5">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AR5">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AS5">
-        <v>2.63</v>
+        <v>3.45</v>
       </c>
       <c r="AT5">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="AU5">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="AV5">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="AW5">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="AX5">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AY5">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AZ5">
         <v>0</v>
@@ -1998,10 +1998,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BC5">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BD5" s="3">
         <v>45800.3125</v>
@@ -2042,22 +2042,22 @@
         <v>256</v>
       </c>
       <c r="L6">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="M6">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="N6">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="O6">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P6">
         <v>8.5</v>
       </c>
       <c r="Q6">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R6">
         <v>1.4</v>
@@ -2066,16 +2066,16 @@
         <v>2.75</v>
       </c>
       <c r="T6">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U6">
         <v>1.36</v>
       </c>
       <c r="V6">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="W6">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="X6">
         <v>1.06</v>
@@ -2084,34 +2084,34 @@
         <v>8.5</v>
       </c>
       <c r="Z6">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AA6">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB6">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AC6">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AD6">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AE6">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF6">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AG6">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH6">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI6">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AJ6" t="s">
         <v>257</v>
@@ -2120,47 +2120,47 @@
         <v>257</v>
       </c>
       <c r="AL6">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AM6">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AN6">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AO6">
         <v>-1</v>
       </c>
       <c r="AP6">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AR6">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AS6">
-        <v>3.45</v>
+        <v>2.63</v>
       </c>
       <c r="AT6">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="AU6">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="AV6">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="AW6">
+        <v>1.68</v>
+      </c>
+      <c r="AX6">
         <v>1.43</v>
       </c>
-      <c r="AX6">
+      <c r="AY6">
         <v>1.25</v>
       </c>
-      <c r="AY6">
-        <v>1.15</v>
-      </c>
       <c r="AZ6">
         <v>0</v>
       </c>
@@ -2168,10 +2168,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BC6">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="BD6" s="3">
         <v>45800.3125</v>
@@ -2212,22 +2212,22 @@
         <v>256</v>
       </c>
       <c r="L7">
-        <v>1.45</v>
+        <v>2.75</v>
       </c>
       <c r="M7">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>4.9</v>
+        <v>2.19</v>
       </c>
       <c r="O7">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="R7">
         <v>0</v>
@@ -2260,16 +2260,16 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.49</v>
+        <v>1.73</v>
       </c>
       <c r="AC7">
-        <v>2.43</v>
+        <v>2.03</v>
       </c>
       <c r="AD7">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AF7">
         <v>0</v>
@@ -2338,10 +2338,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>1.33</v>
+        <v>2.1</v>
       </c>
       <c r="BC7">
-        <v>3.25</v>
+        <v>1.8</v>
       </c>
       <c r="BD7" s="3">
         <v>45800.375</v>
@@ -2382,76 +2382,76 @@
         <v>256</v>
       </c>
       <c r="L8">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="M8">
-        <v>3.76</v>
+        <v>3.99</v>
       </c>
       <c r="N8">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="O8">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="R8">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T8">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U8">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W8">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X8">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y8">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z8">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AA8">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AB8">
-        <v>1.69</v>
+        <v>1.78</v>
       </c>
       <c r="AC8">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AD8">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE8">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF8">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG8">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH8">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="AI8">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ8" t="s">
         <v>257</v>
@@ -2460,13 +2460,13 @@
         <v>257</v>
       </c>
       <c r="AL8">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AM8">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN8">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AO8">
         <v>-1</v>
@@ -2508,10 +2508,10 @@
         <v>0</v>
       </c>
       <c r="BB8">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="BC8">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="BD8" s="3">
         <v>45800.375</v>
@@ -2552,76 +2552,76 @@
         <v>256</v>
       </c>
       <c r="L9">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="M9">
-        <v>3.99</v>
+        <v>4.5</v>
       </c>
       <c r="N9">
-        <v>5.7</v>
+        <v>4.9</v>
       </c>
       <c r="O9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>19.75</v>
       </c>
       <c r="Q9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>4.75</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>5.05</v>
       </c>
       <c r="AB9">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="AC9">
-        <v>1.92</v>
+        <v>2.43</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>3.82</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AJ9" t="s">
         <v>257</v>
@@ -2630,13 +2630,13 @@
         <v>257</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.14</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AO9">
         <v>-1</v>
@@ -2678,10 +2678,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="BC9">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="BD9" s="3">
         <v>45800.375</v>
@@ -2722,76 +2722,76 @@
         <v>256</v>
       </c>
       <c r="L10">
-        <v>2.75</v>
+        <v>1.57</v>
       </c>
       <c r="M10">
-        <v>3.5</v>
+        <v>3.76</v>
       </c>
       <c r="N10">
-        <v>2.19</v>
+        <v>4.7</v>
       </c>
       <c r="O10">
+        <v>1.4</v>
+      </c>
+      <c r="P10">
+        <v>15</v>
+      </c>
+      <c r="Q10">
+        <v>3</v>
+      </c>
+      <c r="R10">
+        <v>1.3</v>
+      </c>
+      <c r="S10">
+        <v>3.4</v>
+      </c>
+      <c r="T10">
+        <v>2.4</v>
+      </c>
+      <c r="U10">
+        <v>1.53</v>
+      </c>
+      <c r="V10">
+        <v>5.8</v>
+      </c>
+      <c r="W10">
+        <v>1.12</v>
+      </c>
+      <c r="X10">
+        <v>1.01</v>
+      </c>
+      <c r="Y10">
+        <v>11</v>
+      </c>
+      <c r="Z10">
+        <v>1.16</v>
+      </c>
+      <c r="AA10">
+        <v>4.1</v>
+      </c>
+      <c r="AB10">
+        <v>1.69</v>
+      </c>
+      <c r="AC10">
         <v>2.1</v>
       </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>1.8</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
+      <c r="AD10">
+        <v>2.7</v>
+      </c>
+      <c r="AE10">
+        <v>1.36</v>
+      </c>
+      <c r="AF10">
         <v>1.73</v>
       </c>
-      <c r="AC10">
-        <v>2.03</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
       <c r="AG10">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="AI10">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AJ10" t="s">
         <v>257</v>
@@ -2800,13 +2800,13 @@
         <v>257</v>
       </c>
       <c r="AL10">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AM10">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO10">
         <v>-1</v>
@@ -2848,10 +2848,10 @@
         <v>0</v>
       </c>
       <c r="BB10">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="BC10">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="BD10" s="3">
         <v>45800.375</v>
@@ -3232,76 +3232,76 @@
         <v>256</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="N13">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>7.2</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AI13">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AJ13" t="s">
         <v>257</v>
@@ -3310,13 +3310,13 @@
         <v>257</v>
       </c>
       <c r="AL13">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AM13">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AN13">
-        <v>0</v>
+        <v>1.59</v>
       </c>
       <c r="AO13">
         <v>-1</v>
@@ -3358,10 +3358,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BC13">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="BD13" s="3">
         <v>45800.39583333334</v>
@@ -3402,76 +3402,76 @@
         <v>256</v>
       </c>
       <c r="L14">
+        <v>3.3</v>
+      </c>
+      <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
         <v>2.18</v>
       </c>
-      <c r="M14">
-        <v>3.16</v>
-      </c>
-      <c r="N14">
-        <v>3.4</v>
-      </c>
       <c r="O14">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="T14">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="V14">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W14">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="Y14">
-        <v>0</v>
+        <v>6.1</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="AB14">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AC14">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD14">
-        <v>0</v>
+        <v>4.8</v>
       </c>
       <c r="AE14">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="AF14">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AG14">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AH14">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AJ14" t="s">
         <v>257</v>
@@ -3480,13 +3480,13 @@
         <v>257</v>
       </c>
       <c r="AL14">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AM14">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AN14">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AO14">
         <v>-1</v>
@@ -3528,10 +3528,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="BC14">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BD14" s="3">
         <v>45800.39583333334</v>
@@ -4058,7 +4058,7 @@
         <v>97</v>
       </c>
       <c r="D18" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E18" t="s">
         <v>140</v>
@@ -4082,76 +4082,76 @@
         <v>256</v>
       </c>
       <c r="L18">
-        <v>2.24</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>3.41</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>18.5</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>1.55</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>5.2</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>1.12</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>1.15</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>4.5</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>2.2</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AH18">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AI18">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AJ18" t="s">
         <v>257</v>
@@ -4160,46 +4160,46 @@
         <v>257</v>
       </c>
       <c r="AL18">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM18">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AN18">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AO18">
         <v>-1</v>
       </c>
       <c r="AP18">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AQ18">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AR18">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AS18">
-        <v>1.98</v>
+        <v>0</v>
       </c>
       <c r="AT18">
-        <v>2.48</v>
+        <v>0</v>
       </c>
       <c r="AU18">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AV18">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AW18">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AX18">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AY18">
-        <v>1.48</v>
+        <v>0</v>
       </c>
       <c r="AZ18">
         <v>0</v>
@@ -4208,10 +4208,10 @@
         <v>0</v>
       </c>
       <c r="BB18">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BC18">
-        <v>1.86</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="3">
         <v>45800.5</v>
@@ -4225,10 +4225,10 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E19" t="s">
         <v>141</v>
@@ -4395,7 +4395,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D20" t="s">
         <v>123</v>
@@ -4422,76 +4422,76 @@
         <v>256</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.41</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1.12</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AB20">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>4.42</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AJ20" t="s">
         <v>257</v>
@@ -4500,46 +4500,46 @@
         <v>257</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4548,10 +4548,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BD20" s="3">
         <v>45800.5</v>
@@ -4568,7 +4568,7 @@
         <v>99</v>
       </c>
       <c r="D21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
         <v>143</v>
@@ -4592,13 +4592,13 @@
         <v>256</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>2.14</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.38</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>2.81</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -4640,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="AB21">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AD21">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E22" t="s">
         <v>144</v>
@@ -4762,76 +4762,76 @@
         <v>256</v>
       </c>
       <c r="L22">
-        <v>2.14</v>
+        <v>1.65</v>
       </c>
       <c r="M22">
-        <v>3.38</v>
+        <v>3.52</v>
       </c>
       <c r="N22">
-        <v>2.81</v>
+        <v>6.17</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="R22">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>2.42</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="U22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V22">
-        <v>0</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="W22">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X22">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="Y22">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z22">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AA22">
-        <v>0</v>
+        <v>2.92</v>
       </c>
       <c r="AB22">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
       <c r="AC22">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AE22">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF22">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>1.7</v>
       </c>
       <c r="AH22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI22">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ22" t="s">
         <v>257</v>
@@ -4840,13 +4840,13 @@
         <v>257</v>
       </c>
       <c r="AL22">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AM22">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>0</v>
+        <v>2.27</v>
       </c>
       <c r="AO22">
         <v>-1</v>
@@ -4888,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BC22">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="BD22" s="3">
         <v>45800.52083333334</v>
@@ -5102,76 +5102,76 @@
         <v>256</v>
       </c>
       <c r="L24">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>2.8</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>2.92</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>6.9</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>3.3</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AD24">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>2.05</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AI24">
-        <v>1.09</v>
+        <v>0</v>
       </c>
       <c r="AJ24" t="s">
         <v>257</v>
@@ -5180,13 +5180,13 @@
         <v>257</v>
       </c>
       <c r="AL24">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AM24">
-        <v>1.39</v>
+        <v>0</v>
       </c>
       <c r="AN24">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AO24">
         <v>-1</v>
@@ -5228,10 +5228,10 @@
         <v>0</v>
       </c>
       <c r="BB24">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="BC24">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="3">
         <v>45800.54166666666</v>
@@ -5442,91 +5442,91 @@
         <v>256</v>
       </c>
       <c r="L26">
-        <v>2.47</v>
+        <v>1.82</v>
       </c>
       <c r="M26">
-        <v>3.19</v>
+        <v>3.26</v>
       </c>
       <c r="N26">
-        <v>2.49</v>
+        <v>3.79</v>
       </c>
       <c r="O26">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="P26">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Q26">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="R26">
+        <v>1.38</v>
+      </c>
+      <c r="S26">
+        <v>2.8</v>
+      </c>
+      <c r="T26">
+        <v>2.8</v>
+      </c>
+      <c r="U26">
+        <v>1.38</v>
+      </c>
+      <c r="V26">
+        <v>7.4</v>
+      </c>
+      <c r="W26">
+        <v>1.03</v>
+      </c>
+      <c r="X26">
+        <v>1.05</v>
+      </c>
+      <c r="Y26">
+        <v>9.5</v>
+      </c>
+      <c r="Z26">
+        <v>1.28</v>
+      </c>
+      <c r="AA26">
+        <v>3.55</v>
+      </c>
+      <c r="AB26">
+        <v>1.9</v>
+      </c>
+      <c r="AC26">
+        <v>1.8</v>
+      </c>
+      <c r="AD26">
+        <v>3.35</v>
+      </c>
+      <c r="AE26">
         <v>1.3</v>
       </c>
-      <c r="S26">
-        <v>3.2</v>
-      </c>
-      <c r="T26">
-        <v>2.45</v>
-      </c>
-      <c r="U26">
+      <c r="AF26">
+        <v>1.7</v>
+      </c>
+      <c r="AG26">
+        <v>2</v>
+      </c>
+      <c r="AH26">
+        <v>6.5</v>
+      </c>
+      <c r="AI26">
+        <v>1.1</v>
+      </c>
+      <c r="AJ26" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL26">
+        <v>1.53</v>
+      </c>
+      <c r="AM26">
+        <v>1.22</v>
+      </c>
+      <c r="AN26">
         <v>1.48</v>
-      </c>
-      <c r="V26">
-        <v>5.55</v>
-      </c>
-      <c r="W26">
-        <v>1.08</v>
-      </c>
-      <c r="X26">
-        <v>1.04</v>
-      </c>
-      <c r="Y26">
-        <v>10</v>
-      </c>
-      <c r="Z26">
-        <v>1.22</v>
-      </c>
-      <c r="AA26">
-        <v>4.2</v>
-      </c>
-      <c r="AB26">
-        <v>1.87</v>
-      </c>
-      <c r="AC26">
-        <v>1.83</v>
-      </c>
-      <c r="AD26">
-        <v>2.8</v>
-      </c>
-      <c r="AE26">
-        <v>1.42</v>
-      </c>
-      <c r="AF26">
-        <v>1.73</v>
-      </c>
-      <c r="AG26">
-        <v>1.95</v>
-      </c>
-      <c r="AH26">
-        <v>5.25</v>
-      </c>
-      <c r="AI26">
-        <v>1.15</v>
-      </c>
-      <c r="AJ26" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK26" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL26">
-        <v>1.17</v>
-      </c>
-      <c r="AM26">
-        <v>1.17</v>
-      </c>
-      <c r="AN26">
-        <v>2.25</v>
       </c>
       <c r="AO26">
         <v>-1</v>
@@ -5538,7 +5538,7 @@
         <v>1.58</v>
       </c>
       <c r="AR26">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="AS26">
         <v>2.43</v>
@@ -5550,7 +5550,7 @@
         <v>2.9</v>
       </c>
       <c r="AV26">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="AW26">
         <v>1.76</v>
@@ -5568,10 +5568,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>1.5</v>
+        <v>2.05</v>
       </c>
       <c r="BC26">
-        <v>2.85</v>
+        <v>1.95</v>
       </c>
       <c r="BD26" s="3">
         <v>45800.60416666666</v>
@@ -5585,7 +5585,7 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
         <v>122</v>
@@ -5612,28 +5612,28 @@
         <v>256</v>
       </c>
       <c r="L27">
-        <v>1.8</v>
+        <v>2.61</v>
       </c>
       <c r="M27">
-        <v>3.06</v>
+        <v>2.94</v>
       </c>
       <c r="N27">
-        <v>4.2</v>
+        <v>2.52</v>
       </c>
       <c r="O27">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="P27">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Q27">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="R27">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="S27">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="T27">
         <v>2.75</v>
@@ -5645,25 +5645,25 @@
         <v>6.15</v>
       </c>
       <c r="W27">
-        <v>1.09</v>
+        <v>1.06</v>
       </c>
       <c r="X27">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="Y27">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z27">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AA27">
         <v>3.25</v>
       </c>
       <c r="AB27">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="AC27">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AD27">
         <v>3.35</v>
@@ -5672,16 +5672,16 @@
         <v>1.3</v>
       </c>
       <c r="AF27">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AG27">
-        <v>1.9</v>
+        <v>2.05</v>
       </c>
       <c r="AH27">
-        <v>5.85</v>
+        <v>6.5</v>
       </c>
       <c r="AI27">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AJ27" t="s">
         <v>257</v>
@@ -5690,46 +5690,46 @@
         <v>257</v>
       </c>
       <c r="AL27">
-        <v>1.15</v>
+        <v>1.35</v>
       </c>
       <c r="AM27">
-        <v>1.28</v>
+        <v>1.38</v>
       </c>
       <c r="AN27">
-        <v>1.8</v>
+        <v>1.45</v>
       </c>
       <c r="AO27">
         <v>-1</v>
       </c>
       <c r="AP27">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AQ27">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AR27">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AS27">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AT27">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AU27">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AV27">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AW27">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AX27">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AY27">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -5738,10 +5738,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="BC27">
-        <v>2.65</v>
+        <v>2.2</v>
       </c>
       <c r="BD27" s="3">
         <v>45800.60416666666</v>
@@ -5755,10 +5755,10 @@
         <v>71</v>
       </c>
       <c r="C28" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E28" t="s">
         <v>150</v>
@@ -5782,61 +5782,61 @@
         <v>256</v>
       </c>
       <c r="L28">
-        <v>1.82</v>
+        <v>3.09</v>
       </c>
       <c r="M28">
-        <v>3.26</v>
+        <v>3.34</v>
       </c>
       <c r="N28">
-        <v>3.79</v>
+        <v>2.33</v>
       </c>
       <c r="O28">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="P28">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="Q28">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="R28">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="S28">
-        <v>2.8</v>
+        <v>2.78</v>
       </c>
       <c r="T28">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="U28">
-        <v>1.38</v>
+        <v>1.37</v>
       </c>
       <c r="V28">
-        <v>7.4</v>
+        <v>7.1</v>
       </c>
       <c r="W28">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="X28">
-        <v>1.05</v>
+        <v>1.01</v>
       </c>
       <c r="Y28">
-        <v>9.5</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="Z28">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AA28">
-        <v>3.55</v>
+        <v>3.5</v>
       </c>
       <c r="AB28">
         <v>1.9</v>
       </c>
       <c r="AC28">
-        <v>1.8</v>
+        <v>1.81</v>
       </c>
       <c r="AD28">
-        <v>3.35</v>
+        <v>3.2</v>
       </c>
       <c r="AE28">
         <v>1.3</v>
@@ -5845,13 +5845,13 @@
         <v>1.7</v>
       </c>
       <c r="AG28">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AH28">
-        <v>6.5</v>
+        <v>6.2</v>
       </c>
       <c r="AI28">
-        <v>1.1</v>
+        <v>1.06</v>
       </c>
       <c r="AJ28" t="s">
         <v>257</v>
@@ -5860,58 +5860,58 @@
         <v>257</v>
       </c>
       <c r="AL28">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="AM28">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="AN28">
-        <v>1.48</v>
+        <v>1.36</v>
       </c>
       <c r="AO28">
         <v>-1</v>
       </c>
       <c r="AP28">
-        <v>1.34</v>
+        <v>0</v>
       </c>
       <c r="AQ28">
-        <v>1.58</v>
+        <v>0</v>
       </c>
       <c r="AR28">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AS28">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="AT28">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AU28">
-        <v>2.9</v>
+        <v>0</v>
       </c>
       <c r="AV28">
+        <v>0</v>
+      </c>
+      <c r="AW28">
+        <v>0</v>
+      </c>
+      <c r="AX28">
+        <v>0</v>
+      </c>
+      <c r="AY28">
+        <v>0</v>
+      </c>
+      <c r="AZ28">
+        <v>0</v>
+      </c>
+      <c r="BA28">
+        <v>0</v>
+      </c>
+      <c r="BB28">
         <v>2.2</v>
       </c>
-      <c r="AW28">
-        <v>1.76</v>
-      </c>
-      <c r="AX28">
-        <v>1.48</v>
-      </c>
-      <c r="AY28">
-        <v>1.29</v>
-      </c>
-      <c r="AZ28">
-        <v>0</v>
-      </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>2.05</v>
-      </c>
       <c r="BC28">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="BD28" s="3">
         <v>45800.60416666666</v>
@@ -5925,7 +5925,7 @@
         <v>71</v>
       </c>
       <c r="C29" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D29" t="s">
         <v>122</v>
@@ -5952,28 +5952,28 @@
         <v>256</v>
       </c>
       <c r="L29">
-        <v>2.61</v>
+        <v>1.8</v>
       </c>
       <c r="M29">
-        <v>2.94</v>
+        <v>3.06</v>
       </c>
       <c r="N29">
-        <v>2.52</v>
+        <v>4.2</v>
       </c>
       <c r="O29">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="P29">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Q29">
-        <v>2.2</v>
+        <v>2.65</v>
       </c>
       <c r="R29">
-        <v>1.38</v>
+        <v>1.4</v>
       </c>
       <c r="S29">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="T29">
         <v>2.75</v>
@@ -5985,25 +5985,25 @@
         <v>6.15</v>
       </c>
       <c r="W29">
+        <v>1.09</v>
+      </c>
+      <c r="X29">
         <v>1.06</v>
       </c>
-      <c r="X29">
-        <v>1.08</v>
-      </c>
       <c r="Y29">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z29">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AA29">
         <v>3.25</v>
       </c>
       <c r="AB29">
-        <v>2.02</v>
+        <v>1.95</v>
       </c>
       <c r="AC29">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AD29">
         <v>3.35</v>
@@ -6012,16 +6012,16 @@
         <v>1.3</v>
       </c>
       <c r="AF29">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AG29">
-        <v>2.05</v>
+        <v>1.9</v>
       </c>
       <c r="AH29">
-        <v>6.5</v>
+        <v>5.85</v>
       </c>
       <c r="AI29">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="AJ29" t="s">
         <v>257</v>
@@ -6030,58 +6030,58 @@
         <v>257</v>
       </c>
       <c r="AL29">
-        <v>1.35</v>
+        <v>1.15</v>
       </c>
       <c r="AM29">
-        <v>1.38</v>
+        <v>1.28</v>
       </c>
       <c r="AN29">
-        <v>1.45</v>
+        <v>1.8</v>
       </c>
       <c r="AO29">
         <v>-1</v>
       </c>
       <c r="AP29">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AQ29">
-        <v>1.65</v>
+        <v>1.53</v>
       </c>
       <c r="AR29">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="AS29">
+        <v>2.38</v>
+      </c>
+      <c r="AT29">
+        <v>3.1</v>
+      </c>
+      <c r="AU29">
+        <v>3.05</v>
+      </c>
+      <c r="AV29">
+        <v>2.28</v>
+      </c>
+      <c r="AW29">
+        <v>1.78</v>
+      </c>
+      <c r="AX29">
+        <v>1.48</v>
+      </c>
+      <c r="AY29">
+        <v>1.3</v>
+      </c>
+      <c r="AZ29">
+        <v>0</v>
+      </c>
+      <c r="BA29">
+        <v>0</v>
+      </c>
+      <c r="BB29">
+        <v>1.67</v>
+      </c>
+      <c r="BC29">
         <v>2.65</v>
-      </c>
-      <c r="AT29">
-        <v>3.45</v>
-      </c>
-      <c r="AU29">
-        <v>2.7</v>
-      </c>
-      <c r="AV29">
-        <v>2.07</v>
-      </c>
-      <c r="AW29">
-        <v>1.66</v>
-      </c>
-      <c r="AX29">
-        <v>1.41</v>
-      </c>
-      <c r="AY29">
-        <v>1.25</v>
-      </c>
-      <c r="AZ29">
-        <v>0</v>
-      </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>2</v>
-      </c>
-      <c r="BC29">
-        <v>2.2</v>
       </c>
       <c r="BD29" s="3">
         <v>45800.60416666666</v>
@@ -6095,10 +6095,10 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E30" t="s">
         <v>152</v>
@@ -6122,76 +6122,76 @@
         <v>256</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>3.19</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>2.49</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>5.55</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>4.2</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>1.87</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>5.25</v>
       </c>
       <c r="AI30">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AJ30" t="s">
         <v>257</v>
@@ -6200,46 +6200,46 @@
         <v>257</v>
       </c>
       <c r="AL30">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AM30">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AN30">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="AO30">
         <v>-1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>1.94</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>2.43</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>2.18</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1.48</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6248,10 +6248,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC30">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="BD30" s="3">
         <v>45800.60416666666</v>
@@ -6480,19 +6480,19 @@
         <v>2.45</v>
       </c>
       <c r="R32">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="S32">
         <v>3.3</v>
       </c>
       <c r="T32">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="U32">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V32">
-        <v>4.8</v>
+        <v>5.35</v>
       </c>
       <c r="W32">
         <v>1.15</v>
@@ -6501,13 +6501,13 @@
         <v>1.03</v>
       </c>
       <c r="Y32">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z32">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AA32">
-        <v>4.33</v>
+        <v>4.65</v>
       </c>
       <c r="AB32">
         <v>1.58</v>
@@ -6516,10 +6516,10 @@
         <v>2.24</v>
       </c>
       <c r="AD32">
-        <v>2.42</v>
+        <v>2.4</v>
       </c>
       <c r="AE32">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AF32">
         <v>1.5</v>
@@ -6528,10 +6528,10 @@
         <v>2.4</v>
       </c>
       <c r="AH32">
-        <v>4.23</v>
+        <v>4.2</v>
       </c>
       <c r="AI32">
-        <v>1.14</v>
+        <v>1.22</v>
       </c>
       <c r="AJ32" t="s">
         <v>257</v>
@@ -6540,13 +6540,13 @@
         <v>257</v>
       </c>
       <c r="AL32">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM32">
         <v>1.21</v>
       </c>
       <c r="AN32">
-        <v>1.97</v>
+        <v>2</v>
       </c>
       <c r="AO32">
         <v>-1</v>
@@ -6605,7 +6605,7 @@
         <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D33" t="s">
         <v>122</v>
@@ -6632,76 +6632,76 @@
         <v>256</v>
       </c>
       <c r="L33">
-        <v>1.54</v>
+        <v>3.26</v>
       </c>
       <c r="M33">
-        <v>3.98</v>
+        <v>3.32</v>
       </c>
       <c r="N33">
-        <v>4.5</v>
+        <v>1.95</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>3.9</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1.76</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>1.96</v>
       </c>
       <c r="AD33">
-        <v>2.38</v>
+        <v>2.66</v>
       </c>
       <c r="AE33">
+        <v>1.44</v>
+      </c>
+      <c r="AF33">
         <v>1.55</v>
       </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
       <c r="AG33">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AI33">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AJ33" t="s">
         <v>257</v>
@@ -6710,13 +6710,13 @@
         <v>257</v>
       </c>
       <c r="AL33">
-        <v>0</v>
+        <v>1.6</v>
       </c>
       <c r="AM33">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AN33">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AO33">
         <v>-1</v>
@@ -6758,10 +6758,10 @@
         <v>0</v>
       </c>
       <c r="BB33">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="BC33">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="BD33" s="3">
         <v>45800.63541666666</v>
@@ -6775,7 +6775,7 @@
         <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D34" t="s">
         <v>122</v>
@@ -6802,124 +6802,124 @@
         <v>256</v>
       </c>
       <c r="L34">
-        <v>3.26</v>
+        <v>1.54</v>
       </c>
       <c r="M34">
-        <v>3.32</v>
+        <v>3.98</v>
       </c>
       <c r="N34">
-        <v>1.95</v>
+        <v>4.5</v>
       </c>
       <c r="O34">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="P34">
         <v>13.5</v>
       </c>
       <c r="Q34">
-        <v>1.69</v>
+        <v>2.88</v>
       </c>
       <c r="R34">
-        <v>1.32</v>
+        <v>1.25</v>
       </c>
       <c r="S34">
-        <v>3.1</v>
+        <v>3.75</v>
       </c>
       <c r="T34">
-        <v>2.58</v>
+        <v>2.2</v>
       </c>
       <c r="U34">
-        <v>1.45</v>
+        <v>1.62</v>
       </c>
       <c r="V34">
-        <v>5.75</v>
+        <v>5</v>
       </c>
       <c r="W34">
-        <v>1.06</v>
+        <v>1.17</v>
       </c>
       <c r="X34">
         <v>1.01</v>
       </c>
       <c r="Y34">
-        <v>10.5</v>
+        <v>15</v>
       </c>
       <c r="Z34">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AA34">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="AB34">
-        <v>1.76</v>
+        <v>1.53</v>
       </c>
       <c r="AC34">
-        <v>1.96</v>
+        <v>2.4</v>
       </c>
       <c r="AD34">
-        <v>2.78</v>
+        <v>2.2</v>
       </c>
       <c r="AE34">
-        <v>1.42</v>
+        <v>1.55</v>
       </c>
       <c r="AF34">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AG34">
+        <v>2.2</v>
+      </c>
+      <c r="AH34">
+        <v>3.85</v>
+      </c>
+      <c r="AI34">
+        <v>1.22</v>
+      </c>
+      <c r="AJ34" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK34" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL34">
+        <v>1.17</v>
+      </c>
+      <c r="AM34">
+        <v>1.22</v>
+      </c>
+      <c r="AN34">
         <v>2.25</v>
-      </c>
-      <c r="AH34">
-        <v>4.5</v>
-      </c>
-      <c r="AI34">
-        <v>1.14</v>
-      </c>
-      <c r="AJ34" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK34" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL34">
-        <v>1.3</v>
-      </c>
-      <c r="AM34">
-        <v>1.25</v>
-      </c>
-      <c r="AN34">
-        <v>1.33</v>
       </c>
       <c r="AO34">
         <v>-1</v>
       </c>
       <c r="AP34">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AQ34">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR34">
-        <v>0</v>
+        <v>1.82</v>
       </c>
       <c r="AS34">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AT34">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AU34">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AV34">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AW34">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="AX34">
-        <v>0</v>
+        <v>1.54</v>
       </c>
       <c r="AY34">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AZ34">
         <v>0</v>
@@ -6928,10 +6928,10 @@
         <v>0</v>
       </c>
       <c r="BB34">
-        <v>2.22</v>
+        <v>1.4</v>
       </c>
       <c r="BC34">
-        <v>1.69</v>
+        <v>2.88</v>
       </c>
       <c r="BD34" s="3">
         <v>45800.63541666666</v>
@@ -6972,91 +6972,91 @@
         <v>256</v>
       </c>
       <c r="L35">
-        <v>2.35</v>
+        <v>1.44</v>
       </c>
       <c r="M35">
-        <v>3.41</v>
+        <v>4.4</v>
       </c>
       <c r="N35">
-        <v>2.49</v>
+        <v>5</v>
       </c>
       <c r="O35">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="P35">
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
       <c r="Q35">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="R35">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="S35">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T35">
-        <v>2.18</v>
+        <v>2</v>
       </c>
       <c r="U35">
-        <v>1.64</v>
+        <v>1.72</v>
       </c>
       <c r="V35">
-        <v>4.5</v>
+        <v>4.15</v>
       </c>
       <c r="W35">
+        <v>1.2</v>
+      </c>
+      <c r="X35">
+        <v>1</v>
+      </c>
+      <c r="Y35">
+        <v>17</v>
+      </c>
+      <c r="Z35">
+        <v>1.13</v>
+      </c>
+      <c r="AA35">
+        <v>6.2</v>
+      </c>
+      <c r="AB35">
+        <v>1.44</v>
+      </c>
+      <c r="AC35">
+        <v>2.75</v>
+      </c>
+      <c r="AD35">
+        <v>2.08</v>
+      </c>
+      <c r="AE35">
+        <v>1.67</v>
+      </c>
+      <c r="AF35">
+        <v>1.55</v>
+      </c>
+      <c r="AG35">
+        <v>2.3</v>
+      </c>
+      <c r="AH35">
+        <v>3.3</v>
+      </c>
+      <c r="AI35">
+        <v>1.3</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>257</v>
+      </c>
+      <c r="AK35" t="s">
+        <v>257</v>
+      </c>
+      <c r="AL35">
         <v>1.17</v>
       </c>
-      <c r="X35">
-        <v>1.02</v>
-      </c>
-      <c r="Y35">
-        <v>13.9</v>
-      </c>
-      <c r="Z35">
-        <v>1.14</v>
-      </c>
-      <c r="AA35">
-        <v>5</v>
-      </c>
-      <c r="AB35">
-        <v>1.45</v>
-      </c>
-      <c r="AC35">
-        <v>2.4</v>
-      </c>
-      <c r="AD35">
-        <v>2.18</v>
-      </c>
-      <c r="AE35">
-        <v>1.61</v>
-      </c>
-      <c r="AF35">
-        <v>1.4</v>
-      </c>
-      <c r="AG35">
+      <c r="AM35">
+        <v>1.15</v>
+      </c>
+      <c r="AN35">
         <v>2.7</v>
-      </c>
-      <c r="AH35">
-        <v>3.7</v>
-      </c>
-      <c r="AI35">
-        <v>1.26</v>
-      </c>
-      <c r="AJ35" t="s">
-        <v>257</v>
-      </c>
-      <c r="AK35" t="s">
-        <v>257</v>
-      </c>
-      <c r="AL35">
-        <v>1.29</v>
-      </c>
-      <c r="AM35">
-        <v>1.24</v>
-      </c>
-      <c r="AN35">
-        <v>1.53</v>
       </c>
       <c r="AO35">
         <v>-1</v>
@@ -7098,10 +7098,10 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>1.86</v>
+        <v>1.39</v>
       </c>
       <c r="BC35">
-        <v>1.91</v>
+        <v>2.88</v>
       </c>
       <c r="BD35" s="3">
         <v>45800.63541666666</v>
@@ -7142,22 +7142,22 @@
         <v>256</v>
       </c>
       <c r="L36">
-        <v>1.82</v>
+        <v>2.35</v>
       </c>
       <c r="M36">
-        <v>3.69</v>
+        <v>3.41</v>
       </c>
       <c r="N36">
-        <v>3.35</v>
+        <v>2.49</v>
       </c>
       <c r="O36">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="P36">
-        <v>21</v>
+        <v>18.5</v>
       </c>
       <c r="Q36">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="R36">
         <v>1.22</v>
@@ -7166,49 +7166,49 @@
         <v>3.6</v>
       </c>
       <c r="T36">
-        <v>2.09</v>
+        <v>2.05</v>
       </c>
       <c r="U36">
         <v>1.67</v>
       </c>
       <c r="V36">
-        <v>4.33</v>
+        <v>4.3</v>
       </c>
       <c r="W36">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="X36">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y36">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="Z36">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="AA36">
-        <v>5.7</v>
+        <v>5</v>
       </c>
       <c r="AB36">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="AC36">
-        <v>2.7</v>
+        <v>2.5</v>
       </c>
       <c r="AD36">
-        <v>2.05</v>
+        <v>2.18</v>
       </c>
       <c r="AE36">
-        <v>1.69</v>
+        <v>1.61</v>
       </c>
       <c r="AF36">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AG36">
-        <v>2.5</v>
+        <v>2.94</v>
       </c>
       <c r="AH36">
-        <v>3.3</v>
+        <v>3.7</v>
       </c>
       <c r="AI36">
         <v>1.25</v>
@@ -7220,13 +7220,13 @@
         <v>257</v>
       </c>
       <c r="AL36">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AM36">
-        <v>1.18</v>
+        <v>1.24</v>
       </c>
       <c r="AN36">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="AO36">
         <v>-1</v>
@@ -7268,10 +7268,10 @@
         <v>0</v>
       </c>
       <c r="BB36">
-        <v>1.52</v>
+        <v>1.86</v>
       </c>
       <c r="BC36">
-        <v>2.43</v>
+        <v>1.91</v>
       </c>
       <c r="BD36" s="3">
         <v>45800.63541666666</v>
@@ -7312,46 +7312,46 @@
         <v>256</v>
       </c>
       <c r="L37">
-        <v>1.44</v>
+        <v>1.82</v>
       </c>
       <c r="M37">
-        <v>4.4</v>
+        <v>3.69</v>
       </c>
       <c r="N37">
-        <v>5</v>
+        <v>3.35</v>
       </c>
       <c r="O37">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="P37">
-        <v>20.5</v>
+        <v>21</v>
       </c>
       <c r="Q37">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="R37">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="S37">
         <v>3.8</v>
       </c>
       <c r="T37">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="U37">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="V37">
-        <v>4.4</v>
+        <v>4.2</v>
       </c>
       <c r="W37">
         <v>1.2</v>
       </c>
       <c r="X37">
-        <v>1.01</v>
+        <v>1</v>
       </c>
       <c r="Y37">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="Z37">
         <v>1.09</v>
@@ -7360,28 +7360,28 @@
         <v>5.5</v>
       </c>
       <c r="AB37">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AC37">
         <v>2.62</v>
       </c>
       <c r="AD37">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="AE37">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AF37">
-        <v>1.52</v>
+        <v>1.4</v>
       </c>
       <c r="AG37">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AH37">
-        <v>3.2</v>
+        <v>3.08</v>
       </c>
       <c r="AI37">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AJ37" t="s">
         <v>257</v>
@@ -7390,13 +7390,13 @@
         <v>257</v>
       </c>
       <c r="AL37">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AM37">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AO37">
         <v>-1</v>
@@ -7438,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>1.39</v>
+        <v>1.52</v>
       </c>
       <c r="BC37">
-        <v>2.88</v>
+        <v>2.43</v>
       </c>
       <c r="BD37" s="3">
         <v>45800.63541666666</v>
@@ -7482,46 +7482,46 @@
         <v>256</v>
       </c>
       <c r="L38">
-        <v>3.01</v>
+        <v>3.1</v>
       </c>
       <c r="M38">
-        <v>2.92</v>
+        <v>3</v>
       </c>
       <c r="N38">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>4.7</v>
       </c>
       <c r="Z38">
         <v>1.6</v>
@@ -7536,22 +7536,22 @@
         <v>1.39</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>13.5</v>
       </c>
       <c r="AI38">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="AJ38" t="s">
         <v>257</v>
@@ -7560,13 +7560,13 @@
         <v>257</v>
       </c>
       <c r="AL38">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AM38">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AN38">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AO38">
         <v>-1</v>
@@ -7608,10 +7608,10 @@
         <v>0</v>
       </c>
       <c r="BB38">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="BC38">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="BD38" s="3">
         <v>45800.64583333334</v>
@@ -7652,76 +7652,76 @@
         <v>256</v>
       </c>
       <c r="L39">
-        <v>1.43</v>
+        <v>2.75</v>
       </c>
       <c r="M39">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="N39">
-        <v>5.8</v>
+        <v>2.26</v>
       </c>
       <c r="O39">
+        <v>2.3</v>
+      </c>
+      <c r="P39">
+        <v>7.75</v>
+      </c>
+      <c r="Q39">
+        <v>1.8</v>
+      </c>
+      <c r="R39">
+        <v>1.42</v>
+      </c>
+      <c r="S39">
+        <v>2.6</v>
+      </c>
+      <c r="T39">
+        <v>3</v>
+      </c>
+      <c r="U39">
         <v>1.33</v>
       </c>
-      <c r="P39">
-        <v>10</v>
-      </c>
-      <c r="Q39">
-        <v>3.75</v>
-      </c>
-      <c r="R39">
-        <v>1.35</v>
-      </c>
-      <c r="S39">
-        <v>2.9</v>
-      </c>
-      <c r="T39">
-        <v>2.6</v>
-      </c>
-      <c r="U39">
-        <v>1.45</v>
-      </c>
       <c r="V39">
-        <v>6.05</v>
+        <v>8.25</v>
       </c>
       <c r="W39">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="X39">
-        <v>1.02</v>
+        <v>1.06</v>
       </c>
       <c r="Y39">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="Z39">
-        <v>1.25</v>
+        <v>1.37</v>
       </c>
       <c r="AA39">
-        <v>3.6</v>
+        <v>2.85</v>
       </c>
       <c r="AB39">
-        <v>1.75</v>
+        <v>2.05</v>
       </c>
       <c r="AC39">
+        <v>1.61</v>
+      </c>
+      <c r="AD39">
+        <v>3.8</v>
+      </c>
+      <c r="AE39">
+        <v>1.22</v>
+      </c>
+      <c r="AF39">
+        <v>1.88</v>
+      </c>
+      <c r="AG39">
         <v>1.85</v>
       </c>
-      <c r="AD39">
-        <v>3.1</v>
-      </c>
-      <c r="AE39">
-        <v>1.35</v>
-      </c>
-      <c r="AF39">
-        <v>1.91</v>
-      </c>
-      <c r="AG39">
-        <v>1.8</v>
-      </c>
       <c r="AH39">
-        <v>5.35</v>
+        <v>7</v>
       </c>
       <c r="AI39">
-        <v>1.13</v>
+        <v>1.06</v>
       </c>
       <c r="AJ39" t="s">
         <v>257</v>
@@ -7730,46 +7730,46 @@
         <v>257</v>
       </c>
       <c r="AL39">
-        <v>1.22</v>
+        <v>1.36</v>
       </c>
       <c r="AM39">
-        <v>1.21</v>
+        <v>1.32</v>
       </c>
       <c r="AN39">
-        <v>2.5</v>
+        <v>1.32</v>
       </c>
       <c r="AO39">
         <v>-1</v>
       </c>
       <c r="AP39">
-        <v>1.29</v>
+        <v>1.21</v>
       </c>
       <c r="AQ39">
-        <v>1.5</v>
+        <v>1.38</v>
       </c>
       <c r="AR39">
+        <v>1.82</v>
+      </c>
+      <c r="AS39">
         <v>2</v>
       </c>
-      <c r="AS39">
-        <v>2.28</v>
-      </c>
       <c r="AT39">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="AU39">
-        <v>3.15</v>
+        <v>3.7</v>
       </c>
       <c r="AV39">
-        <v>2.35</v>
+        <v>2.7</v>
       </c>
       <c r="AW39">
-        <v>1.84</v>
+        <v>2.08</v>
       </c>
       <c r="AX39">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="AY39">
-        <v>1.34</v>
+        <v>1.43</v>
       </c>
       <c r="AZ39">
         <v>0</v>
@@ -7778,10 +7778,10 @@
         <v>0</v>
       </c>
       <c r="BB39">
-        <v>1.33</v>
+        <v>2.3</v>
       </c>
       <c r="BC39">
-        <v>3.75</v>
+        <v>1.8</v>
       </c>
       <c r="BD39" s="3">
         <v>45800.65625</v>
@@ -7795,7 +7795,7 @@
         <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
         <v>123</v>
@@ -7822,76 +7822,76 @@
         <v>256</v>
       </c>
       <c r="L40">
-        <v>1.55</v>
+        <v>2.06</v>
       </c>
       <c r="M40">
-        <v>3.65</v>
+        <v>3.35</v>
       </c>
       <c r="N40">
-        <v>5.4</v>
+        <v>3.05</v>
       </c>
       <c r="O40">
-        <v>1.4</v>
+        <v>1.73</v>
       </c>
       <c r="P40">
-        <v>9.25</v>
+        <v>10</v>
       </c>
       <c r="Q40">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="R40">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="S40">
         <v>3</v>
       </c>
       <c r="T40">
-        <v>2.71</v>
+        <v>2.6</v>
       </c>
       <c r="U40">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V40">
-        <v>6</v>
+        <v>6.4</v>
       </c>
       <c r="W40">
         <v>1.1</v>
       </c>
       <c r="X40">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="Y40">
-        <v>8.699999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z40">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AA40">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB40">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AC40">
-        <v>1.8</v>
+        <v>1.94</v>
       </c>
       <c r="AD40">
-        <v>3.16</v>
+        <v>3.08</v>
       </c>
       <c r="AE40">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AF40">
-        <v>1.95</v>
+        <v>1.67</v>
       </c>
       <c r="AG40">
-        <v>1.73</v>
+        <v>2.15</v>
       </c>
       <c r="AH40">
-        <v>5.95</v>
+        <v>6</v>
       </c>
       <c r="AI40">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="AJ40" t="s">
         <v>257</v>
@@ -7903,55 +7903,55 @@
         <v>1.25</v>
       </c>
       <c r="AM40">
-        <v>1.24</v>
+        <v>1.28</v>
       </c>
       <c r="AN40">
-        <v>2.45</v>
+        <v>1.62</v>
       </c>
       <c r="AO40">
         <v>-1</v>
       </c>
       <c r="AP40">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AQ40">
+        <v>0</v>
+      </c>
+      <c r="AR40">
+        <v>0</v>
+      </c>
+      <c r="AS40">
+        <v>0</v>
+      </c>
+      <c r="AT40">
+        <v>0</v>
+      </c>
+      <c r="AU40">
+        <v>0</v>
+      </c>
+      <c r="AV40">
+        <v>0</v>
+      </c>
+      <c r="AW40">
+        <v>0</v>
+      </c>
+      <c r="AX40">
+        <v>0</v>
+      </c>
+      <c r="AY40">
+        <v>0</v>
+      </c>
+      <c r="AZ40">
+        <v>0</v>
+      </c>
+      <c r="BA40">
+        <v>0</v>
+      </c>
+      <c r="BB40">
         <v>1.73</v>
       </c>
-      <c r="AR40">
-        <v>2.18</v>
-      </c>
-      <c r="AS40">
-        <v>2.8</v>
-      </c>
-      <c r="AT40">
-        <v>3.7</v>
-      </c>
-      <c r="AU40">
-        <v>2.55</v>
-      </c>
-      <c r="AV40">
-        <v>1.94</v>
-      </c>
-      <c r="AW40">
-        <v>1.58</v>
-      </c>
-      <c r="AX40">
-        <v>1.36</v>
-      </c>
-      <c r="AY40">
-        <v>1.21</v>
-      </c>
-      <c r="AZ40">
-        <v>0</v>
-      </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>1.4</v>
-      </c>
       <c r="BC40">
-        <v>3.4</v>
+        <v>2.25</v>
       </c>
       <c r="BD40" s="3">
         <v>45800.65625</v>
@@ -7965,7 +7965,7 @@
         <v>75</v>
       </c>
       <c r="C41" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
         <v>123</v>
@@ -7992,76 +7992,76 @@
         <v>256</v>
       </c>
       <c r="L41">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="M41">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="N41">
-        <v>2.7</v>
+        <v>2.11</v>
       </c>
       <c r="O41">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="P41">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q41">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="R41">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="S41">
-        <v>2.35</v>
+        <v>3</v>
       </c>
       <c r="T41">
-        <v>3.3</v>
+        <v>2.69</v>
       </c>
       <c r="U41">
-        <v>1.27</v>
+        <v>1.42</v>
       </c>
       <c r="V41">
-        <v>8.5</v>
+        <v>6.6</v>
       </c>
       <c r="W41">
-        <v>1.03</v>
+        <v>1.1</v>
       </c>
       <c r="X41">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="Y41">
-        <v>7</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z41">
-        <v>1.4</v>
+        <v>1.26</v>
       </c>
       <c r="AA41">
-        <v>2.7</v>
+        <v>3.7</v>
       </c>
       <c r="AB41">
-        <v>2.1</v>
+        <v>1.84</v>
       </c>
       <c r="AC41">
-        <v>1.6</v>
+        <v>1.87</v>
       </c>
       <c r="AD41">
-        <v>4.45</v>
+        <v>3.05</v>
       </c>
       <c r="AE41">
-        <v>1.2</v>
+        <v>1.33</v>
       </c>
       <c r="AF41">
-        <v>1.93</v>
+        <v>1.65</v>
       </c>
       <c r="AG41">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="AH41">
-        <v>10</v>
+        <v>5.45</v>
       </c>
       <c r="AI41">
-        <v>1.06</v>
+        <v>1.11</v>
       </c>
       <c r="AJ41" t="s">
         <v>257</v>
@@ -8070,46 +8070,46 @@
         <v>257</v>
       </c>
       <c r="AL41">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="AM41">
-        <v>1.35</v>
+        <v>1.26</v>
       </c>
       <c r="AN41">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AO41">
         <v>-1</v>
       </c>
       <c r="AP41">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AQ41">
-        <v>1.56</v>
+        <v>0</v>
       </c>
       <c r="AR41">
-        <v>1.89</v>
+        <v>0</v>
       </c>
       <c r="AS41">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AT41">
-        <v>3.05</v>
+        <v>0</v>
       </c>
       <c r="AU41">
-        <v>2.95</v>
+        <v>0</v>
       </c>
       <c r="AV41">
-        <v>2.23</v>
+        <v>0</v>
       </c>
       <c r="AW41">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AX41">
-        <v>1.49</v>
+        <v>0</v>
       </c>
       <c r="AY41">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AZ41">
         <v>0</v>
@@ -8118,10 +8118,10 @@
         <v>0</v>
       </c>
       <c r="BB41">
-        <v>1.91</v>
+        <v>2.33</v>
       </c>
       <c r="BC41">
-        <v>2.2</v>
+        <v>1.74</v>
       </c>
       <c r="BD41" s="3">
         <v>45800.65625</v>
@@ -8135,7 +8135,7 @@
         <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -8162,58 +8162,58 @@
         <v>256</v>
       </c>
       <c r="L42">
-        <v>3.1</v>
+        <v>1.55</v>
       </c>
       <c r="M42">
-        <v>3.2</v>
+        <v>3.65</v>
       </c>
       <c r="N42">
-        <v>2.11</v>
+        <v>5.4</v>
       </c>
       <c r="O42">
-        <v>2.33</v>
+        <v>1.4</v>
       </c>
       <c r="P42">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="Q42">
-        <v>1.74</v>
+        <v>3.4</v>
       </c>
       <c r="R42">
         <v>1.35</v>
       </c>
       <c r="S42">
-        <v>3.07</v>
+        <v>2.9</v>
       </c>
       <c r="T42">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="U42">
         <v>1.4</v>
       </c>
       <c r="V42">
-        <v>5.5</v>
+        <v>6.75</v>
       </c>
       <c r="W42">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X42">
         <v>1.01</v>
       </c>
       <c r="Y42">
-        <v>9</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="Z42">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="AA42">
         <v>3.4</v>
       </c>
       <c r="AB42">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="AC42">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="AD42">
         <v>3.2</v>
@@ -8222,16 +8222,16 @@
         <v>1.3</v>
       </c>
       <c r="AF42">
-        <v>1.67</v>
+        <v>1.95</v>
       </c>
       <c r="AG42">
-        <v>2</v>
+        <v>1.73</v>
       </c>
       <c r="AH42">
-        <v>5.8</v>
+        <v>6.05</v>
       </c>
       <c r="AI42">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="AJ42" t="s">
         <v>257</v>
@@ -8240,46 +8240,46 @@
         <v>257</v>
       </c>
       <c r="AL42">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="AM42">
-        <v>1.26</v>
+        <v>1.24</v>
       </c>
       <c r="AN42">
-        <v>1.18</v>
+        <v>2.55</v>
       </c>
       <c r="AO42">
         <v>-1</v>
       </c>
       <c r="AP42">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AQ42">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AR42">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AS42">
-        <v>0</v>
+        <v>2.48</v>
       </c>
       <c r="AT42">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AU42">
-        <v>0</v>
+        <v>2.85</v>
       </c>
       <c r="AV42">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AW42">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AX42">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AY42">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AZ42">
         <v>0</v>
@@ -8288,10 +8288,10 @@
         <v>0</v>
       </c>
       <c r="BB42">
-        <v>2.33</v>
+        <v>1.4</v>
       </c>
       <c r="BC42">
-        <v>1.74</v>
+        <v>3.4</v>
       </c>
       <c r="BD42" s="3">
         <v>45800.65625</v>
@@ -8305,7 +8305,7 @@
         <v>75</v>
       </c>
       <c r="C43" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D43" t="s">
         <v>123</v>
@@ -8332,76 +8332,76 @@
         <v>256</v>
       </c>
       <c r="L43">
-        <v>2.06</v>
+        <v>1.43</v>
       </c>
       <c r="M43">
-        <v>3.35</v>
+        <v>4.2</v>
       </c>
       <c r="N43">
-        <v>3.05</v>
+        <v>5.8</v>
       </c>
       <c r="O43">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q43">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="R43">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S43">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="T43">
-        <v>2.65</v>
+        <v>2.6</v>
       </c>
       <c r="U43">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V43">
-        <v>5.5</v>
+        <v>6.4</v>
       </c>
       <c r="W43">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="X43">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y43">
-        <v>9.199999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z43">
         <v>1.22</v>
       </c>
       <c r="AA43">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB43">
-        <v>1.82</v>
+        <v>1.75</v>
       </c>
       <c r="AC43">
-        <v>1.94</v>
+        <v>1.85</v>
       </c>
       <c r="AD43">
-        <v>3.09</v>
+        <v>3.1</v>
       </c>
       <c r="AE43">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="AF43">
-        <v>1.64</v>
+        <v>1.95</v>
       </c>
       <c r="AG43">
-        <v>2.2</v>
+        <v>1.77</v>
       </c>
       <c r="AH43">
-        <v>5.6</v>
+        <v>5.35</v>
       </c>
       <c r="AI43">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="AJ43" t="s">
         <v>257</v>
@@ -8410,46 +8410,46 @@
         <v>257</v>
       </c>
       <c r="AL43">
-        <v>1.28</v>
+        <v>1.13</v>
       </c>
       <c r="AM43">
-        <v>0</v>
+        <v>1.21</v>
       </c>
       <c r="AN43">
-        <v>1.6</v>
+        <v>2.55</v>
       </c>
       <c r="AO43">
         <v>-1</v>
       </c>
       <c r="AP43">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AR43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS43">
-        <v>0</v>
+        <v>2.28</v>
       </c>
       <c r="AT43">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="AU43">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AV43">
-        <v>0</v>
+        <v>2.35</v>
       </c>
       <c r="AW43">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="AX43">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AY43">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="AZ43">
         <v>0</v>
@@ -8458,10 +8458,10 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>1.73</v>
+        <v>1.33</v>
       </c>
       <c r="BC43">
-        <v>2.25</v>
+        <v>3.75</v>
       </c>
       <c r="BD43" s="3">
         <v>45800.65625</v>
@@ -8502,76 +8502,76 @@
         <v>256</v>
       </c>
       <c r="L44">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="M44">
-        <v>3.95</v>
+        <v>3.1</v>
       </c>
       <c r="N44">
-        <v>5.4</v>
+        <v>2.55</v>
       </c>
       <c r="O44">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="P44">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q44">
-        <v>2.74</v>
+        <v>1.93</v>
       </c>
       <c r="R44">
-        <v>1.31</v>
+        <v>1.4</v>
       </c>
       <c r="S44">
-        <v>3.27</v>
+        <v>2.8</v>
       </c>
       <c r="T44">
-        <v>2.52</v>
+        <v>2.84</v>
       </c>
       <c r="U44">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="V44">
-        <v>6.1</v>
+        <v>7.25</v>
       </c>
       <c r="W44">
-        <v>1.12</v>
+        <v>1.08</v>
       </c>
       <c r="X44">
-        <v>1.02</v>
+        <v>1</v>
       </c>
       <c r="Y44">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z44">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="AA44">
-        <v>4.2</v>
+        <v>3.3</v>
       </c>
       <c r="AB44">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="AC44">
-        <v>1.95</v>
+        <v>1.81</v>
       </c>
       <c r="AD44">
-        <v>2.8</v>
+        <v>3.5</v>
       </c>
       <c r="AE44">
-        <v>1.42</v>
+        <v>1.25</v>
       </c>
       <c r="AF44">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AG44">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AH44">
-        <v>4.9</v>
+        <v>7</v>
       </c>
       <c r="AI44">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AJ44" t="s">
         <v>257</v>
@@ -8580,13 +8580,13 @@
         <v>257</v>
       </c>
       <c r="AL44">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM44">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AN44">
-        <v>2.2</v>
+        <v>1.25</v>
       </c>
       <c r="AO44">
         <v>-1</v>
@@ -8628,10 +8628,10 @@
         <v>0</v>
       </c>
       <c r="BB44">
-        <v>1.47</v>
+        <v>2.06</v>
       </c>
       <c r="BC44">
-        <v>2.74</v>
+        <v>1.93</v>
       </c>
       <c r="BD44" s="3">
         <v>45800.65625</v>
@@ -8645,10 +8645,10 @@
         <v>75</v>
       </c>
       <c r="C45" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D45" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E45" t="s">
         <v>167</v>
@@ -8672,37 +8672,37 @@
         <v>256</v>
       </c>
       <c r="L45">
-        <v>2.5</v>
+        <v>6.5</v>
       </c>
       <c r="M45">
-        <v>3.1</v>
+        <v>4.7</v>
       </c>
       <c r="N45">
-        <v>2.55</v>
+        <v>1.42</v>
       </c>
       <c r="O45">
-        <v>2.06</v>
+        <v>2.65</v>
       </c>
       <c r="P45">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="Q45">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="R45">
-        <v>1.38</v>
+        <v>1.27</v>
       </c>
       <c r="S45">
-        <v>2.8</v>
+        <v>3.45</v>
       </c>
       <c r="T45">
-        <v>2.8</v>
+        <v>2.36</v>
       </c>
       <c r="U45">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="V45">
-        <v>6</v>
+        <v>5.7</v>
       </c>
       <c r="W45">
         <v>1.08</v>
@@ -8711,37 +8711,37 @@
         <v>1.03</v>
       </c>
       <c r="Y45">
-        <v>8.5</v>
+        <v>11</v>
       </c>
       <c r="Z45">
-        <v>1.27</v>
+        <v>1.2</v>
       </c>
       <c r="AA45">
-        <v>3.2</v>
+        <v>4.5</v>
       </c>
       <c r="AB45">
-        <v>1.95</v>
+        <v>1.6</v>
       </c>
       <c r="AC45">
-        <v>1.81</v>
+        <v>2.2</v>
       </c>
       <c r="AD45">
-        <v>3.4</v>
+        <v>2.58</v>
       </c>
       <c r="AE45">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="AF45">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="AG45">
-        <v>1.95</v>
+        <v>2.22</v>
       </c>
       <c r="AH45">
-        <v>6.2</v>
+        <v>4.5</v>
       </c>
       <c r="AI45">
-        <v>1.05</v>
+        <v>1.2</v>
       </c>
       <c r="AJ45" t="s">
         <v>257</v>
@@ -8750,46 +8750,46 @@
         <v>257</v>
       </c>
       <c r="AL45">
-        <v>1.3</v>
+        <v>2.2</v>
       </c>
       <c r="AM45">
-        <v>1.28</v>
+        <v>1.18</v>
       </c>
       <c r="AN45">
-        <v>1.3</v>
+        <v>1.18</v>
       </c>
       <c r="AO45">
         <v>-1</v>
       </c>
       <c r="AP45">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AQ45">
-        <v>0</v>
+        <v>1.64</v>
       </c>
       <c r="AR45">
-        <v>0</v>
+        <v>1.98</v>
       </c>
       <c r="AS45">
-        <v>0</v>
+        <v>2.55</v>
       </c>
       <c r="AT45">
-        <v>0</v>
+        <v>3.3</v>
       </c>
       <c r="AU45">
-        <v>0</v>
+        <v>2.8</v>
       </c>
       <c r="AV45">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AW45">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AX45">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY45">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AZ45">
         <v>0</v>
@@ -8798,10 +8798,10 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>2.06</v>
+        <v>2.65</v>
       </c>
       <c r="BC45">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="BD45" s="3">
         <v>45800.65625</v>
@@ -8815,10 +8815,10 @@
         <v>75</v>
       </c>
       <c r="C46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E46" t="s">
         <v>168</v>
@@ -8842,76 +8842,76 @@
         <v>256</v>
       </c>
       <c r="L46">
-        <v>6.5</v>
+        <v>1.62</v>
       </c>
       <c r="M46">
-        <v>4.7</v>
+        <v>3.45</v>
       </c>
       <c r="N46">
-        <v>1.42</v>
+        <v>4.9</v>
       </c>
       <c r="O46">
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="P46">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="Q46">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="R46">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="S46">
-        <v>3.45</v>
+        <v>2.8</v>
       </c>
       <c r="T46">
-        <v>2.36</v>
+        <v>2.88</v>
       </c>
       <c r="U46">
-        <v>1.53</v>
+        <v>1.37</v>
       </c>
       <c r="V46">
-        <v>5.7</v>
+        <v>7.25</v>
       </c>
       <c r="W46">
         <v>1.08</v>
       </c>
       <c r="X46">
-        <v>1.03</v>
+        <v>1.06</v>
       </c>
       <c r="Y46">
-        <v>11</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="Z46">
-        <v>1.2</v>
+        <v>1.28</v>
       </c>
       <c r="AA46">
-        <v>4.5</v>
+        <v>3.3</v>
       </c>
       <c r="AB46">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="AC46">
-        <v>2.2</v>
+        <v>1.7</v>
       </c>
       <c r="AD46">
-        <v>2.58</v>
+        <v>3.4</v>
       </c>
       <c r="AE46">
-        <v>1.5</v>
+        <v>1.27</v>
       </c>
       <c r="AF46">
-        <v>1.63</v>
+        <v>1.95</v>
       </c>
       <c r="AG46">
-        <v>2.22</v>
+        <v>1.73</v>
       </c>
       <c r="AH46">
-        <v>4.5</v>
+        <v>8</v>
       </c>
       <c r="AI46">
-        <v>1.2</v>
+        <v>1.1</v>
       </c>
       <c r="AJ46" t="s">
         <v>257</v>
@@ -8920,46 +8920,46 @@
         <v>257</v>
       </c>
       <c r="AL46">
-        <v>2.2</v>
+        <v>1.15</v>
       </c>
       <c r="AM46">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AN46">
-        <v>1.18</v>
+        <v>2.05</v>
       </c>
       <c r="AO46">
         <v>-1</v>
       </c>
       <c r="AP46">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="AQ46">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="AR46">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="AS46">
-        <v>2.55</v>
+        <v>2.35</v>
       </c>
       <c r="AT46">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="AU46">
-        <v>2.8</v>
+        <v>3.05</v>
       </c>
       <c r="AV46">
-        <v>2.1</v>
+        <v>2.28</v>
       </c>
       <c r="AW46">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="AX46">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AY46">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -8968,10 +8968,10 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>2.65</v>
+        <v>1.5</v>
       </c>
       <c r="BC46">
-        <v>1.53</v>
+        <v>3.1</v>
       </c>
       <c r="BD46" s="3">
         <v>45800.65625</v>
@@ -9012,76 +9012,76 @@
         <v>256</v>
       </c>
       <c r="L47">
-        <v>1.62</v>
+        <v>2.5</v>
       </c>
       <c r="M47">
-        <v>3.45</v>
+        <v>2.95</v>
       </c>
       <c r="N47">
-        <v>4.9</v>
+        <v>2.7</v>
       </c>
       <c r="O47">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="P47">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Q47">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R47">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="S47">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="T47">
-        <v>2.95</v>
+        <v>3.4</v>
       </c>
       <c r="U47">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="V47">
+        <v>9</v>
+      </c>
+      <c r="W47">
+        <v>1.05</v>
+      </c>
+      <c r="X47">
+        <v>1.05</v>
+      </c>
+      <c r="Y47">
         <v>6.5</v>
       </c>
-      <c r="W47">
-        <v>1.08</v>
-      </c>
-      <c r="X47">
-        <v>1.02</v>
-      </c>
-      <c r="Y47">
-        <v>9.300000000000001</v>
-      </c>
       <c r="Z47">
-        <v>1.28</v>
+        <v>1.4</v>
       </c>
       <c r="AA47">
-        <v>3.2</v>
+        <v>2.7</v>
       </c>
       <c r="AB47">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AC47">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="AD47">
-        <v>3.61</v>
+        <v>4.75</v>
       </c>
       <c r="AE47">
-        <v>1.3</v>
+        <v>1.17</v>
       </c>
       <c r="AF47">
         <v>2</v>
       </c>
       <c r="AG47">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AH47">
-        <v>7.1</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AI47">
-        <v>1.07</v>
+        <v>1.01</v>
       </c>
       <c r="AJ47" t="s">
         <v>257</v>
@@ -9090,43 +9090,43 @@
         <v>257</v>
       </c>
       <c r="AL47">
-        <v>1.25</v>
+        <v>1.4</v>
       </c>
       <c r="AM47">
-        <v>1.22</v>
+        <v>1.35</v>
       </c>
       <c r="AN47">
-        <v>2.25</v>
+        <v>1.44</v>
       </c>
       <c r="AO47">
         <v>-1</v>
       </c>
       <c r="AP47">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AQ47">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="AR47">
-        <v>1.88</v>
+        <v>1.92</v>
       </c>
       <c r="AS47">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AT47">
         <v>3.05</v>
       </c>
       <c r="AU47">
-        <v>3.05</v>
+        <v>2.95</v>
       </c>
       <c r="AV47">
-        <v>2.28</v>
+        <v>2.23</v>
       </c>
       <c r="AW47">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AX47">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
       <c r="AY47">
         <v>1.3</v>
@@ -9138,10 +9138,10 @@
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>1.5</v>
+        <v>1.91</v>
       </c>
       <c r="BC47">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="BD47" s="3">
         <v>45800.65625</v>
@@ -9155,10 +9155,10 @@
         <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D48" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>170</v>
@@ -9182,76 +9182,76 @@
         <v>256</v>
       </c>
       <c r="L48">
-        <v>1.23</v>
+        <v>1.26</v>
       </c>
       <c r="M48">
-        <v>5.2</v>
+        <v>4.9</v>
       </c>
       <c r="N48">
-        <v>9.4</v>
+        <v>14</v>
       </c>
       <c r="O48">
+        <v>1.22</v>
+      </c>
+      <c r="P48">
+        <v>12</v>
+      </c>
+      <c r="Q48">
+        <v>4.5</v>
+      </c>
+      <c r="R48">
         <v>1.24</v>
       </c>
-      <c r="P48">
-        <v>14.25</v>
-      </c>
-      <c r="Q48">
-        <v>4.2</v>
-      </c>
-      <c r="R48">
-        <v>1.31</v>
-      </c>
       <c r="S48">
-        <v>3.2</v>
+        <v>3.54</v>
       </c>
       <c r="T48">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="U48">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="V48">
-        <v>6</v>
+        <v>4.85</v>
       </c>
       <c r="W48">
-        <v>1.12</v>
+        <v>1.13</v>
       </c>
       <c r="X48">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Y48">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="Z48">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="AA48">
-        <v>3.8</v>
+        <v>5.25</v>
       </c>
       <c r="AB48">
-        <v>1.71</v>
+        <v>1.82</v>
       </c>
       <c r="AC48">
-        <v>2.05</v>
+        <v>1.92</v>
       </c>
       <c r="AD48">
-        <v>2.74</v>
+        <v>2.39</v>
       </c>
       <c r="AE48">
-        <v>1.42</v>
+        <v>1.58</v>
       </c>
       <c r="AF48">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="AG48">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AH48">
-        <v>4.9</v>
+        <v>4</v>
       </c>
       <c r="AI48">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AJ48" t="s">
         <v>257</v>
@@ -9260,46 +9260,46 @@
         <v>257</v>
       </c>
       <c r="AL48">
-        <v>1.09</v>
+        <v>1.04</v>
       </c>
       <c r="AM48">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AN48">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO48">
         <v>-1</v>
       </c>
       <c r="AP48">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AQ48">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AR48">
-        <v>0</v>
+        <v>1.68</v>
       </c>
       <c r="AS48">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AT48">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AU48">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AV48">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AW48">
-        <v>0</v>
+        <v>2.04</v>
       </c>
       <c r="AX48">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AY48">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AZ48">
         <v>0</v>
@@ -9308,10 +9308,10 @@
         <v>0</v>
       </c>
       <c r="BB48">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BC48">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BD48" s="3">
         <v>45800.65625</v>
@@ -9325,7 +9325,7 @@
         <v>75</v>
       </c>
       <c r="C49" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
         <v>123</v>
@@ -9352,76 +9352,76 @@
         <v>256</v>
       </c>
       <c r="L49">
-        <v>2.75</v>
+        <v>1.5</v>
       </c>
       <c r="M49">
-        <v>3.3</v>
+        <v>3.95</v>
       </c>
       <c r="N49">
-        <v>2.26</v>
+        <v>5.4</v>
       </c>
       <c r="O49">
-        <v>2.3</v>
+        <v>1.47</v>
       </c>
       <c r="P49">
-        <v>7.75</v>
+        <v>14</v>
       </c>
       <c r="Q49">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
       <c r="R49">
-        <v>1.43</v>
+        <v>1.3</v>
       </c>
       <c r="S49">
-        <v>2.7</v>
+        <v>3.1</v>
       </c>
       <c r="T49">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="U49">
+        <v>1.42</v>
+      </c>
+      <c r="V49">
+        <v>6.1</v>
+      </c>
+      <c r="W49">
+        <v>1.12</v>
+      </c>
+      <c r="X49">
+        <v>1.01</v>
+      </c>
+      <c r="Y49">
+        <v>10</v>
+      </c>
+      <c r="Z49">
+        <v>1.25</v>
+      </c>
+      <c r="AA49">
+        <v>3.58</v>
+      </c>
+      <c r="AB49">
+        <v>1.79</v>
+      </c>
+      <c r="AC49">
+        <v>1.95</v>
+      </c>
+      <c r="AD49">
+        <v>2.85</v>
+      </c>
+      <c r="AE49">
         <v>1.33</v>
       </c>
-      <c r="V49">
-        <v>7.4</v>
-      </c>
-      <c r="W49">
-        <v>1.07</v>
-      </c>
-      <c r="X49">
-        <v>1.07</v>
-      </c>
-      <c r="Y49">
-        <v>6.8</v>
-      </c>
-      <c r="Z49">
-        <v>1.36</v>
-      </c>
-      <c r="AA49">
-        <v>2.9</v>
-      </c>
-      <c r="AB49">
-        <v>2.05</v>
-      </c>
-      <c r="AC49">
-        <v>1.61</v>
-      </c>
-      <c r="AD49">
-        <v>3.72</v>
-      </c>
-      <c r="AE49">
-        <v>1.22</v>
-      </c>
       <c r="AF49">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AG49">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH49">
-        <v>7.1</v>
+        <v>5.25</v>
       </c>
       <c r="AI49">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AJ49" t="s">
         <v>257</v>
@@ -9430,46 +9430,46 @@
         <v>257</v>
       </c>
       <c r="AL49">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AM49">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="AN49">
-        <v>1.33</v>
+        <v>2.15</v>
       </c>
       <c r="AO49">
         <v>-1</v>
       </c>
       <c r="AP49">
-        <v>1.21</v>
+        <v>0</v>
       </c>
       <c r="AQ49">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="AR49">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="AS49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AT49">
-        <v>2.55</v>
+        <v>0</v>
       </c>
       <c r="AU49">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AV49">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AW49">
-        <v>2.08</v>
+        <v>0</v>
       </c>
       <c r="AX49">
-        <v>1.68</v>
+        <v>0</v>
       </c>
       <c r="AY49">
-        <v>1.43</v>
+        <v>0</v>
       </c>
       <c r="AZ49">
         <v>0</v>
@@ -9478,10 +9478,10 @@
         <v>0</v>
       </c>
       <c r="BB49">
-        <v>2.3</v>
+        <v>1.47</v>
       </c>
       <c r="BC49">
-        <v>1.8</v>
+        <v>2.74</v>
       </c>
       <c r="BD49" s="3">
         <v>45800.65625</v>
@@ -9495,10 +9495,10 @@
         <v>75</v>
       </c>
       <c r="C50" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E50" t="s">
         <v>172</v>
@@ -9522,77 +9522,77 @@
         <v>256</v>
       </c>
       <c r="L50">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="M50">
+        <v>5.2</v>
+      </c>
+      <c r="N50">
+        <v>9.4</v>
+      </c>
+      <c r="O50">
+        <v>1.24</v>
+      </c>
+      <c r="P50">
+        <v>14.25</v>
+      </c>
+      <c r="Q50">
+        <v>4.2</v>
+      </c>
+      <c r="R50">
+        <v>1.31</v>
+      </c>
+      <c r="S50">
+        <v>3.28</v>
+      </c>
+      <c r="T50">
+        <v>2.4</v>
+      </c>
+      <c r="U50">
+        <v>1.5</v>
+      </c>
+      <c r="V50">
+        <v>5.75</v>
+      </c>
+      <c r="W50">
+        <v>1.12</v>
+      </c>
+      <c r="X50">
+        <v>1.04</v>
+      </c>
+      <c r="Y50">
+        <v>13</v>
+      </c>
+      <c r="Z50">
+        <v>1.17</v>
+      </c>
+      <c r="AA50">
+        <v>4</v>
+      </c>
+      <c r="AB50">
+        <v>1.7</v>
+      </c>
+      <c r="AC50">
+        <v>2</v>
+      </c>
+      <c r="AD50">
+        <v>2.68</v>
+      </c>
+      <c r="AE50">
+        <v>1.47</v>
+      </c>
+      <c r="AF50">
+        <v>1.97</v>
+      </c>
+      <c r="AG50">
+        <v>1.66</v>
+      </c>
+      <c r="AH50">
         <v>4.9</v>
       </c>
-      <c r="N50">
-        <v>14</v>
-      </c>
-      <c r="O50">
-        <v>1.22</v>
-      </c>
-      <c r="P50">
-        <v>12</v>
-      </c>
-      <c r="Q50">
-        <v>4.5</v>
-      </c>
-      <c r="R50">
-        <v>1.24</v>
-      </c>
-      <c r="S50">
-        <v>3.54</v>
-      </c>
-      <c r="T50">
-        <v>2.25</v>
-      </c>
-      <c r="U50">
-        <v>1.61</v>
-      </c>
-      <c r="V50">
-        <v>4.85</v>
-      </c>
-      <c r="W50">
+      <c r="AI50">
         <v>1.13</v>
       </c>
-      <c r="X50">
-        <v>1.03</v>
-      </c>
-      <c r="Y50">
-        <v>11</v>
-      </c>
-      <c r="Z50">
-        <v>1.15</v>
-      </c>
-      <c r="AA50">
-        <v>5.25</v>
-      </c>
-      <c r="AB50">
-        <v>1.82</v>
-      </c>
-      <c r="AC50">
-        <v>1.92</v>
-      </c>
-      <c r="AD50">
-        <v>2.39</v>
-      </c>
-      <c r="AE50">
-        <v>1.58</v>
-      </c>
-      <c r="AF50">
-        <v>2.21</v>
-      </c>
-      <c r="AG50">
-        <v>1.63</v>
-      </c>
-      <c r="AH50">
-        <v>4</v>
-      </c>
-      <c r="AI50">
-        <v>1.22</v>
-      </c>
       <c r="AJ50" t="s">
         <v>257</v>
       </c>
@@ -9600,58 +9600,58 @@
         <v>257</v>
       </c>
       <c r="AL50">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AM50">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AN50">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO50">
         <v>-1</v>
       </c>
       <c r="AP50">
+        <v>0</v>
+      </c>
+      <c r="AQ50">
+        <v>0</v>
+      </c>
+      <c r="AR50">
+        <v>0</v>
+      </c>
+      <c r="AS50">
+        <v>0</v>
+      </c>
+      <c r="AT50">
+        <v>0</v>
+      </c>
+      <c r="AU50">
+        <v>0</v>
+      </c>
+      <c r="AV50">
+        <v>0</v>
+      </c>
+      <c r="AW50">
+        <v>0</v>
+      </c>
+      <c r="AX50">
+        <v>0</v>
+      </c>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
         <v>1.24</v>
       </c>
-      <c r="AQ50">
-        <v>1.41</v>
-      </c>
-      <c r="AR50">
-        <v>1.68</v>
-      </c>
-      <c r="AS50">
-        <v>2.07</v>
-      </c>
-      <c r="AT50">
-        <v>2.63</v>
-      </c>
-      <c r="AU50">
-        <v>3.55</v>
-      </c>
-      <c r="AV50">
-        <v>2.65</v>
-      </c>
-      <c r="AW50">
-        <v>2.04</v>
-      </c>
-      <c r="AX50">
-        <v>1.66</v>
-      </c>
-      <c r="AY50">
-        <v>1.41</v>
-      </c>
-      <c r="AZ50">
-        <v>0</v>
-      </c>
-      <c r="BA50">
-        <v>0</v>
-      </c>
-      <c r="BB50">
-        <v>1.22</v>
-      </c>
       <c r="BC50">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="BD50" s="3">
         <v>45800.65625</v>
@@ -10053,19 +10053,19 @@
         <v>1.17</v>
       </c>
       <c r="S53">
-        <v>4.3</v>
+        <v>4.5</v>
       </c>
       <c r="T53">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="U53">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="V53">
-        <v>3.5</v>
+        <v>3.58</v>
       </c>
       <c r="W53">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="X53">
         <v>1.01</v>
@@ -10074,16 +10074,16 @@
         <v>21</v>
       </c>
       <c r="Z53">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="AA53">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AB53">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AC53">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="AD53">
         <v>1.67</v>
@@ -10092,16 +10092,16 @@
         <v>2</v>
       </c>
       <c r="AF53">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="AG53">
         <v>3.1</v>
       </c>
       <c r="AH53">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="AI53">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="AJ53" t="s">
         <v>257</v>
@@ -10110,13 +10110,13 @@
         <v>257</v>
       </c>
       <c r="AL53">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="AM53">
         <v>1.17</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AO53">
         <v>-1</v>
@@ -10504,7 +10504,7 @@
         <v>0</v>
       </c>
       <c r="BD55" s="3">
-        <v>45800.75</v>
+        <v>45800.72916666666</v>
       </c>
     </row>
     <row r="56" spans="1:56">
@@ -10560,13 +10560,13 @@
         <v>4.75</v>
       </c>
       <c r="R56">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="S56">
         <v>2.8</v>
       </c>
       <c r="T56">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="U56">
         <v>1.38</v>
@@ -10587,7 +10587,7 @@
         <v>1.28</v>
       </c>
       <c r="AA56">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="AB56">
         <v>2.01</v>
@@ -10596,7 +10596,7 @@
         <v>1.72</v>
       </c>
       <c r="AD56">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AE56">
         <v>1.25</v>
@@ -10608,7 +10608,7 @@
         <v>1.5</v>
       </c>
       <c r="AH56">
-        <v>7.2</v>
+        <v>6.5</v>
       </c>
       <c r="AI56">
         <v>1.08</v>
@@ -10620,7 +10620,7 @@
         <v>257</v>
       </c>
       <c r="AL56">
-        <v>1.2</v>
+        <v>1.16</v>
       </c>
       <c r="AM56">
         <v>1.16</v>
@@ -11535,7 +11535,7 @@
         <v>84</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D62" t="s">
         <v>123</v>
@@ -11562,76 +11562,76 @@
         <v>256</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Q62">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R62">
-        <v>0</v>
+        <v>1.49</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>2.44</v>
       </c>
       <c r="T62">
-        <v>0</v>
+        <v>3.48</v>
       </c>
       <c r="U62">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="V62">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="W62">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="X62">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y62">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z62">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AA62">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AB62">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AC62">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AE62">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AF62">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG62">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH62">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AI62">
-        <v>0</v>
+        <v>1.03</v>
       </c>
       <c r="AJ62" t="s">
         <v>257</v>
@@ -11640,13 +11640,13 @@
         <v>257</v>
       </c>
       <c r="AL62">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AM62">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AN62">
-        <v>0</v>
+        <v>1.62</v>
       </c>
       <c r="AO62">
         <v>-1</v>
@@ -11688,10 +11688,10 @@
         <v>0</v>
       </c>
       <c r="BB62">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BC62">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BD62" s="3">
         <v>45800.89583333334</v>
@@ -11705,7 +11705,7 @@
         <v>84</v>
       </c>
       <c r="C63" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D63" t="s">
         <v>123</v>
@@ -11732,76 +11732,76 @@
         <v>256</v>
       </c>
       <c r="L63">
-        <v>2.06</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>3.17</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>3.13</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>2.4</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>3.48</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="X63">
-        <v>1.03</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="AB63">
-        <v>2.3</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>1.53</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>4.55</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>1.13</v>
+        <v>0</v>
       </c>
       <c r="AF63">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG63">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AH63">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AI63">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="AJ63" t="s">
         <v>257</v>
@@ -11810,13 +11810,13 @@
         <v>257</v>
       </c>
       <c r="AL63">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="AM63">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AN63">
-        <v>1.62</v>
+        <v>0</v>
       </c>
       <c r="AO63">
         <v>-1</v>
@@ -11858,10 +11858,10 @@
         <v>0</v>
       </c>
       <c r="BB63">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="BC63">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BD63" s="3">
         <v>45800.89583333334</v>
@@ -11902,13 +11902,13 @@
         <v>256</v>
       </c>
       <c r="L64">
-        <v>1.72</v>
+        <v>1.67</v>
       </c>
       <c r="M64">
-        <v>3.45</v>
+        <v>3.21</v>
       </c>
       <c r="N64">
-        <v>5.6</v>
+        <v>4.8</v>
       </c>
       <c r="O64">
         <v>1.57</v>
@@ -11923,16 +11923,16 @@
         <v>1.54</v>
       </c>
       <c r="S64">
-        <v>2.38</v>
+        <v>2.35</v>
       </c>
       <c r="T64">
-        <v>3.55</v>
+        <v>3.3</v>
       </c>
       <c r="U64">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="V64">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="W64">
         <v>1.04</v>
@@ -11944,22 +11944,22 @@
         <v>6</v>
       </c>
       <c r="Z64">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AA64">
+        <v>2.37</v>
+      </c>
+      <c r="AB64">
         <v>2.4</v>
       </c>
-      <c r="AB64">
-        <v>2.5</v>
-      </c>
       <c r="AC64">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="AD64">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AE64">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AF64">
         <v>2.4</v>
@@ -11968,10 +11968,10 @@
         <v>1.53</v>
       </c>
       <c r="AH64">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AI64">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AJ64" t="s">
         <v>257</v>
@@ -11980,13 +11980,13 @@
         <v>257</v>
       </c>
       <c r="AL64">
-        <v>1.03</v>
+        <v>1.33</v>
       </c>
       <c r="AM64">
         <v>1.25</v>
       </c>
       <c r="AN64">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="AO64">
         <v>-1</v>
@@ -12001,7 +12001,7 @@
         <v>1.74</v>
       </c>
       <c r="AS64">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="AT64">
         <v>2.7</v>
@@ -12016,7 +12016,7 @@
         <v>1.97</v>
       </c>
       <c r="AX64">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="AY64">
         <v>1.4</v>
@@ -12260,58 +12260,58 @@
         <v>0</v>
       </c>
       <c r="R66">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S66">
-        <v>2.92</v>
+        <v>2.94</v>
       </c>
       <c r="T66">
-        <v>2.61</v>
+        <v>2.5</v>
       </c>
       <c r="U66">
-        <v>1.42</v>
+        <v>1.48</v>
       </c>
       <c r="V66">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="W66">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="X66">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="Y66">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z66">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AA66">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="AB66">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="AC66">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="AD66">
-        <v>2.92</v>
+        <v>2.97</v>
       </c>
       <c r="AE66">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="AF66">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AG66">
-        <v>1.85</v>
+        <v>1.81</v>
       </c>
       <c r="AH66">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="AI66">
-        <v>1.11</v>
+        <v>1.07</v>
       </c>
       <c r="AJ66" t="s">
         <v>257</v>
@@ -12320,13 +12320,13 @@
         <v>257</v>
       </c>
       <c r="AL66">
-        <v>2.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM66">
         <v>0</v>
       </c>
       <c r="AN66">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AO66">
         <v>-1</v>
@@ -12412,13 +12412,13 @@
         <v>256</v>
       </c>
       <c r="L67">
-        <v>2.58</v>
+        <v>2.6</v>
       </c>
       <c r="M67">
-        <v>3.04</v>
+        <v>3.05</v>
       </c>
       <c r="N67">
-        <v>2.54</v>
+        <v>2.55</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -12430,58 +12430,58 @@
         <v>0</v>
       </c>
       <c r="R67">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="S67">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="T67">
-        <v>3.15</v>
+        <v>3.28</v>
       </c>
       <c r="U67">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V67">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W67">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="X67">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="Y67">
-        <v>7.5</v>
+        <v>6.54</v>
       </c>
       <c r="Z67">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="AA67">
-        <v>2.8</v>
+        <v>2.62</v>
       </c>
       <c r="AB67">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="AC67">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="AD67">
-        <v>3.98</v>
+        <v>4.3</v>
       </c>
       <c r="AE67">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="AF67">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AG67">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AH67">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AI67">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AJ67" t="s">
         <v>257</v>
@@ -12490,7 +12490,7 @@
         <v>257</v>
       </c>
       <c r="AL67">
-        <v>1.28</v>
+        <v>1.36</v>
       </c>
       <c r="AM67">
         <v>0</v>

--- a/jogos_2025-05-23.xlsx
+++ b/jogos_2025-05-23.xlsx
@@ -310,12 +310,12 @@
     <t>Finland Veikkausliiga</t>
   </si>
   <si>
+    <t>Belarus Vysheyshaya Liga</t>
+  </si>
+  <si>
     <t>Slovenia PrvaLiga</t>
   </si>
   <si>
-    <t>Belarus Vysheyshaya Liga</t>
-  </si>
-  <si>
     <t>UAE Arabian Gulf League</t>
   </si>
   <si>
@@ -325,12 +325,12 @@
     <t>Serbia SuperLiga</t>
   </si>
   <si>
+    <t>Romania Liga I</t>
+  </si>
+  <si>
     <t>Austria Bundesliga</t>
   </si>
   <si>
-    <t>Romania Liga I</t>
-  </si>
-  <si>
     <t>Bosnia and Herzegovina Premier League of Bosnia</t>
   </si>
   <si>
@@ -367,12 +367,12 @@
     <t>Jamaica Jamaica National Premier League</t>
   </si>
   <si>
+    <t>Chile Primera B</t>
+  </si>
+  <si>
     <t>Chile Primera División</t>
   </si>
   <si>
-    <t>Chile Primera B</t>
-  </si>
-  <si>
     <t>Brazil Serie B</t>
   </si>
   <si>
@@ -394,21 +394,21 @@
     <t>Hoang Anh Gia Lai</t>
   </si>
   <si>
+    <t>Jeju United</t>
+  </si>
+  <si>
     <t>Anyang</t>
   </si>
   <si>
-    <t>Jeju United</t>
+    <t>Persija</t>
+  </si>
+  <si>
+    <t>Dewa United</t>
   </si>
   <si>
     <t>PSM</t>
   </si>
   <si>
-    <t>Dewa United</t>
-  </si>
-  <si>
-    <t>Persija</t>
-  </si>
-  <si>
     <t>Persebaya Surabaya</t>
   </si>
   <si>
@@ -418,12 +418,12 @@
     <t>Ho Chi Minh City</t>
   </si>
   <si>
+    <t>Obolon-Brovar</t>
+  </si>
+  <si>
     <t>Inhulets</t>
   </si>
   <si>
-    <t>Obolon-Brovar</t>
-  </si>
-  <si>
     <t>Bandırmaspor</t>
   </si>
   <si>
@@ -436,28 +436,37 @@
     <t>Radnik Surdulica</t>
   </si>
   <si>
+    <t>Nasaf</t>
+  </si>
+  <si>
     <t>KTP</t>
   </si>
   <si>
-    <t>Nasaf</t>
+    <t>Isloch</t>
   </si>
   <si>
     <t>Radomlje</t>
   </si>
   <si>
-    <t>Isloch</t>
-  </si>
-  <si>
     <t>Al Nasr</t>
   </si>
   <si>
     <t>DAC</t>
   </si>
   <si>
+    <t>Čukarički</t>
+  </si>
+  <si>
     <t>Javor Ivanjica</t>
   </si>
   <si>
-    <t>Čukarički</t>
+    <t>Vitebsk</t>
+  </si>
+  <si>
+    <t>CFR Cluj</t>
+  </si>
+  <si>
+    <t>LASK Linz</t>
   </si>
   <si>
     <t>Wattens</t>
@@ -466,15 +475,6 @@
     <t>Austria Klagenfurt</t>
   </si>
   <si>
-    <t>CFR Cluj</t>
-  </si>
-  <si>
-    <t>Vitebsk</t>
-  </si>
-  <si>
-    <t>LASK Linz</t>
-  </si>
-  <si>
     <t>Sloboda Tuzla</t>
   </si>
   <si>
@@ -484,15 +484,15 @@
     <t>Thun</t>
   </si>
   <si>
+    <t>Paksi SE</t>
+  </si>
+  <si>
+    <t>FC Schaffhausen</t>
+  </si>
+  <si>
     <t>Aarau</t>
   </si>
   <si>
-    <t>FC Schaffhausen</t>
-  </si>
-  <si>
-    <t>Paksi SE</t>
-  </si>
-  <si>
     <t>Stade Lausanne-Ouchy</t>
   </si>
   <si>
@@ -505,19 +505,28 @@
     <t>St Patrick's Athl.</t>
   </si>
   <si>
+    <t>Shelbourne</t>
+  </si>
+  <si>
     <t>Galway United</t>
   </si>
   <si>
     <t>Derry City</t>
   </si>
   <si>
-    <t>Shelbourne</t>
+    <t>Bray Wanderers</t>
+  </si>
+  <si>
+    <t>Finn Harps</t>
   </si>
   <si>
     <t>Athlone Town</t>
   </si>
   <si>
-    <t>Bray Wanderers</t>
+    <t>Dundalk</t>
+  </si>
+  <si>
+    <t>Como</t>
   </si>
   <si>
     <t>Treaty United</t>
@@ -526,15 +535,6 @@
     <t>Napoli</t>
   </si>
   <si>
-    <t>Como</t>
-  </si>
-  <si>
-    <t>Finn Harps</t>
-  </si>
-  <si>
-    <t>Dundalk</t>
-  </si>
-  <si>
     <t>MC Alger</t>
   </si>
   <si>
@@ -550,33 +550,33 @@
     <t>Arnett Gardens</t>
   </si>
   <si>
+    <t>Cobreloa</t>
+  </si>
+  <si>
     <t>Deportes Limache</t>
   </si>
   <si>
-    <t>Cobreloa</t>
+    <t>Toronto II</t>
   </si>
   <si>
     <t>Sporting KC II</t>
   </si>
   <si>
-    <t>Toronto II</t>
-  </si>
-  <si>
     <t>Atlanta United II</t>
   </si>
   <si>
+    <t>Cavalier</t>
+  </si>
+  <si>
     <t>St. Louis City II</t>
   </si>
   <si>
-    <t>Cavalier</t>
+    <t>Austin II</t>
   </si>
   <si>
     <t>San Marcos</t>
   </si>
   <si>
-    <t>Austin II</t>
-  </si>
-  <si>
     <t>Goiás</t>
   </si>
   <si>
@@ -595,21 +595,21 @@
     <t>Da Nang</t>
   </si>
   <si>
+    <t>Jeonbuk Motors</t>
+  </si>
+  <si>
     <t>Pohang Steelers</t>
   </si>
   <si>
-    <t>Jeonbuk Motors</t>
+    <t>Malut United</t>
+  </si>
+  <si>
+    <t>PSBS Biak Numfor</t>
   </si>
   <si>
     <t>Persita</t>
   </si>
   <si>
-    <t>PSBS Biak Numfor</t>
-  </si>
-  <si>
-    <t>Malut United</t>
-  </si>
-  <si>
     <t>Bali United</t>
   </si>
   <si>
@@ -619,12 +619,12 @@
     <t>Binh Duong</t>
   </si>
   <si>
+    <t>Livyi Bereh</t>
+  </si>
+  <si>
     <t>Vorskla</t>
   </si>
   <si>
-    <t>Livyi Bereh</t>
-  </si>
-  <si>
     <t>Boluspor</t>
   </si>
   <si>
@@ -637,28 +637,37 @@
     <t>Borac Čačak</t>
   </si>
   <si>
+    <t>AGMK</t>
+  </si>
+  <si>
     <t>Haka</t>
   </si>
   <si>
-    <t>AGMK</t>
+    <t>Arsenal Dzyarzhynsk</t>
   </si>
   <si>
     <t>Primorje</t>
   </si>
   <si>
-    <t>Arsenal Dzyarzhynsk</t>
-  </si>
-  <si>
     <t>Al Ain</t>
   </si>
   <si>
     <t>Podbrezová</t>
   </si>
   <si>
+    <t>Železničar Pančevo</t>
+  </si>
+  <si>
     <t>Voždovac</t>
   </si>
   <si>
-    <t>Železničar Pančevo</t>
+    <t>Dinamo Brest</t>
+  </si>
+  <si>
+    <t>FCSB</t>
+  </si>
+  <si>
+    <t>Rheindorf Altach</t>
   </si>
   <si>
     <t>Grazer AK</t>
@@ -667,15 +676,6 @@
     <t>Hartberg</t>
   </si>
   <si>
-    <t>FCSB</t>
-  </si>
-  <si>
-    <t>Dinamo Brest</t>
-  </si>
-  <si>
-    <t>Rheindorf Altach</t>
-  </si>
-  <si>
     <t>GOŠK Gabela</t>
   </si>
   <si>
@@ -685,15 +685,15 @@
     <t>Étoile Carouge</t>
   </si>
   <si>
+    <t>Kecskeméti TE</t>
+  </si>
+  <si>
+    <t>Bellinzona</t>
+  </si>
+  <si>
     <t>Stade Nyonnais</t>
   </si>
   <si>
-    <t>Bellinzona</t>
-  </si>
-  <si>
-    <t>Kecskeméti TE</t>
-  </si>
-  <si>
     <t>Vaduz</t>
   </si>
   <si>
@@ -706,19 +706,28 @@
     <t>Waterford</t>
   </si>
   <si>
+    <t>Sligo Rovers</t>
+  </si>
+  <si>
     <t>Cork City</t>
   </si>
   <si>
     <t>Shamrock Rovers</t>
   </si>
   <si>
-    <t>Sligo Rovers</t>
+    <t>Wexford</t>
+  </si>
+  <si>
+    <t>UCD</t>
   </si>
   <si>
     <t>Cobh Ramblers</t>
   </si>
   <si>
-    <t>Wexford</t>
+    <t>Kerry</t>
+  </si>
+  <si>
+    <t>Inter Milan</t>
   </si>
   <si>
     <t>Longford Town</t>
@@ -727,15 +736,6 @@
     <t>Cagliari</t>
   </si>
   <si>
-    <t>Inter Milan</t>
-  </si>
-  <si>
-    <t>UCD</t>
-  </si>
-  <si>
-    <t>Kerry</t>
-  </si>
-  <si>
     <t>USM Alger</t>
   </si>
   <si>
@@ -751,31 +751,31 @@
     <t>Montego Bay United</t>
   </si>
   <si>
+    <t>Deportes Santa Cruz</t>
+  </si>
+  <si>
     <t>Universidad Chile</t>
   </si>
   <si>
-    <t>Deportes Santa Cruz</t>
+    <t>Huntsville City</t>
   </si>
   <si>
     <t>Los Angeles II</t>
   </si>
   <si>
-    <t>Huntsville City</t>
-  </si>
-  <si>
     <t>Orlando City II</t>
   </si>
   <si>
+    <t>Mount Pleasant Academy FC</t>
+  </si>
+  <si>
     <t>Portland Timbers II</t>
   </si>
   <si>
-    <t>Mount Pleasant Academy FC</t>
+    <t>Minnesota United II</t>
   </si>
   <si>
     <t>San Luis</t>
-  </si>
-  <si>
-    <t>Minnesota United II</t>
   </si>
   <si>
     <t>Ferroviária</t>
@@ -1875,22 +1875,22 @@
         <v>257</v>
       </c>
       <c r="L5">
-        <v>2.63</v>
+        <v>3.01</v>
       </c>
       <c r="M5">
-        <v>2.95</v>
+        <v>3.19</v>
       </c>
       <c r="N5">
-        <v>2.5</v>
+        <v>2.11</v>
       </c>
       <c r="O5">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="P5">
         <v>8.5</v>
       </c>
       <c r="Q5">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R5">
         <v>1.4</v>
@@ -1899,16 +1899,16 @@
         <v>2.75</v>
       </c>
       <c r="T5">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="U5">
         <v>1.36</v>
       </c>
       <c r="V5">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="W5">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="X5">
         <v>1.06</v>
@@ -1917,34 +1917,34 @@
         <v>8.5</v>
       </c>
       <c r="Z5">
-        <v>1.33</v>
+        <v>1.35</v>
       </c>
       <c r="AA5">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="AB5">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AC5">
-        <v>1.76</v>
+        <v>1.7</v>
       </c>
       <c r="AD5">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="AE5">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF5">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="AG5">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AH5">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AI5">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="AJ5" t="s">
         <v>258</v>
@@ -1953,47 +1953,47 @@
         <v>258</v>
       </c>
       <c r="AL5">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="AM5">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AN5">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AO5">
         <v>-1</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.38</v>
       </c>
       <c r="AQ5">
-        <v>2</v>
+        <v>1.65</v>
       </c>
       <c r="AR5">
-        <v>2.6</v>
+        <v>2.05</v>
       </c>
       <c r="AS5">
-        <v>3.45</v>
+        <v>2.63</v>
       </c>
       <c r="AT5">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="AU5">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="AV5">
-        <v>1.71</v>
+        <v>2.08</v>
       </c>
       <c r="AW5">
+        <v>1.68</v>
+      </c>
+      <c r="AX5">
         <v>1.43</v>
       </c>
-      <c r="AX5">
+      <c r="AY5">
         <v>1.25</v>
       </c>
-      <c r="AY5">
-        <v>1.15</v>
-      </c>
       <c r="AZ5">
         <v>0</v>
       </c>
@@ -2001,10 +2001,10 @@
         <v>0</v>
       </c>
       <c r="BB5">
-        <v>2.2</v>
+        <v>2.35</v>
       </c>
       <c r="BC5">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="BD5" s="3">
         <v>45800.3125</v>
@@ -2045,22 +2045,22 @@
         <v>257</v>
       </c>
       <c r="L6">
-        <v>3.01</v>
+        <v>2.63</v>
       </c>
       <c r="M6">
-        <v>3.19</v>
+        <v>2.95</v>
       </c>
       <c r="N6">
-        <v>2.11</v>
+        <v>2.5</v>
       </c>
       <c r="O6">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="P6">
         <v>8.5</v>
       </c>
       <c r="Q6">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R6">
         <v>1.4</v>
@@ -2069,16 +2069,16 @@
         <v>2.75</v>
       </c>
       <c r="T6">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="U6">
         <v>1.36</v>
       </c>
       <c r="V6">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="W6">
-        <v>1.02</v>
+        <v>1.08</v>
       </c>
       <c r="X6">
         <v>1.06</v>
@@ -2087,34 +2087,34 @@
         <v>8.5</v>
       </c>
       <c r="Z6">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AA6">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="AB6">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AC6">
-        <v>1.7</v>
+        <v>1.76</v>
       </c>
       <c r="AD6">
-        <v>3.75</v>
+        <v>3.55</v>
       </c>
       <c r="AE6">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AF6">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AG6">
-        <v>1.85</v>
+        <v>2</v>
       </c>
       <c r="AH6">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AI6">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="AJ6" t="s">
         <v>258</v>
@@ -2123,46 +2123,46 @@
         <v>258</v>
       </c>
       <c r="AL6">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="AM6">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AN6">
-        <v>1.3</v>
+        <v>1.42</v>
       </c>
       <c r="AO6">
         <v>-1</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AQ6">
-        <v>1.65</v>
+        <v>2</v>
       </c>
       <c r="AR6">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="AS6">
-        <v>2.63</v>
+        <v>3.45</v>
       </c>
       <c r="AT6">
-        <v>3.4</v>
+        <v>4.6</v>
       </c>
       <c r="AU6">
-        <v>2.7</v>
+        <v>2.17</v>
       </c>
       <c r="AV6">
-        <v>2.08</v>
+        <v>1.71</v>
       </c>
       <c r="AW6">
-        <v>1.68</v>
+        <v>1.43</v>
       </c>
       <c r="AX6">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AY6">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AZ6">
         <v>0</v>
@@ -2171,10 +2171,10 @@
         <v>0</v>
       </c>
       <c r="BB6">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="BC6">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="BD6" s="3">
         <v>45800.3125</v>
@@ -2215,76 +2215,76 @@
         <v>257</v>
       </c>
       <c r="L7">
-        <v>1.44</v>
+        <v>2.65</v>
       </c>
       <c r="M7">
-        <v>3.99</v>
+        <v>3.5</v>
       </c>
       <c r="N7">
-        <v>5.7</v>
+        <v>2.19</v>
       </c>
       <c r="O7">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="P7">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="R7">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="W7">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="X7">
-        <v>1.01</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>1.18</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>3.84</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>1.78</v>
+        <v>1.57</v>
       </c>
       <c r="AC7">
-        <v>1.92</v>
+        <v>2.15</v>
       </c>
       <c r="AD7">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AE7">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AF7">
-        <v>1.91</v>
+        <v>0</v>
       </c>
       <c r="AG7">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AH7">
-        <v>5.65</v>
+        <v>0</v>
       </c>
       <c r="AI7">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="s">
         <v>258</v>
@@ -2293,13 +2293,13 @@
         <v>258</v>
       </c>
       <c r="AL7">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AM7">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AN7">
-        <v>2.62</v>
+        <v>0</v>
       </c>
       <c r="AO7">
         <v>-1</v>
@@ -2341,10 +2341,10 @@
         <v>0</v>
       </c>
       <c r="BB7">
-        <v>1.36</v>
+        <v>2.1</v>
       </c>
       <c r="BC7">
-        <v>3.5</v>
+        <v>1.8</v>
       </c>
       <c r="BD7" s="3">
         <v>45800.375</v>
@@ -2555,76 +2555,76 @@
         <v>257</v>
       </c>
       <c r="L9">
-        <v>2.65</v>
+        <v>1.44</v>
       </c>
       <c r="M9">
+        <v>3.99</v>
+      </c>
+      <c r="N9">
+        <v>5.7</v>
+      </c>
+      <c r="O9">
+        <v>1.36</v>
+      </c>
+      <c r="P9">
+        <v>14</v>
+      </c>
+      <c r="Q9">
         <v>3.5</v>
       </c>
-      <c r="N9">
-        <v>2.19</v>
-      </c>
-      <c r="O9">
-        <v>2.1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>1.8</v>
-      </c>
       <c r="R9">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>1.01</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>3.84</v>
       </c>
       <c r="AB9">
-        <v>1.57</v>
+        <v>1.78</v>
       </c>
       <c r="AC9">
-        <v>2.15</v>
+        <v>1.92</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>5.65</v>
       </c>
       <c r="AI9">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ9" t="s">
         <v>258</v>
@@ -2633,13 +2633,13 @@
         <v>258</v>
       </c>
       <c r="AL9">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AM9">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN9">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AO9">
         <v>-1</v>
@@ -2681,10 +2681,10 @@
         <v>0</v>
       </c>
       <c r="BB9">
-        <v>2.1</v>
+        <v>1.36</v>
       </c>
       <c r="BC9">
-        <v>1.8</v>
+        <v>3.5</v>
       </c>
       <c r="BD9" s="3">
         <v>45800.375</v>
@@ -3235,76 +3235,76 @@
         <v>257</v>
       </c>
       <c r="L13">
-        <v>3.3</v>
+        <v>2.18</v>
       </c>
       <c r="M13">
-        <v>3.25</v>
+        <v>3.16</v>
       </c>
       <c r="N13">
-        <v>2.18</v>
+        <v>3.4</v>
       </c>
       <c r="O13">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="P13">
-        <v>6.1</v>
+        <v>7.2</v>
       </c>
       <c r="Q13">
+        <v>2.4</v>
+      </c>
+      <c r="R13">
+        <v>1.5</v>
+      </c>
+      <c r="S13">
+        <v>2.5</v>
+      </c>
+      <c r="T13">
+        <v>3.4</v>
+      </c>
+      <c r="U13">
+        <v>1.3</v>
+      </c>
+      <c r="V13">
+        <v>8</v>
+      </c>
+      <c r="W13">
+        <v>1.06</v>
+      </c>
+      <c r="X13">
+        <v>1.03</v>
+      </c>
+      <c r="Y13">
+        <v>7.2</v>
+      </c>
+      <c r="Z13">
+        <v>1.7</v>
+      </c>
+      <c r="AA13">
+        <v>2.05</v>
+      </c>
+      <c r="AB13">
+        <v>2.2</v>
+      </c>
+      <c r="AC13">
+        <v>1.55</v>
+      </c>
+      <c r="AD13">
+        <v>3.92</v>
+      </c>
+      <c r="AE13">
+        <v>1.18</v>
+      </c>
+      <c r="AF13">
+        <v>2</v>
+      </c>
+      <c r="AG13">
         <v>1.73</v>
       </c>
-      <c r="R13">
-        <v>1.57</v>
-      </c>
-      <c r="S13">
-        <v>2.25</v>
-      </c>
-      <c r="T13">
-        <v>3.75</v>
-      </c>
-      <c r="U13">
-        <v>1.25</v>
-      </c>
-      <c r="V13">
-        <v>8.5</v>
-      </c>
-      <c r="W13">
-        <v>1.05</v>
-      </c>
-      <c r="X13">
-        <v>1.06</v>
-      </c>
-      <c r="Y13">
-        <v>6.1</v>
-      </c>
-      <c r="Z13">
-        <v>1.48</v>
-      </c>
-      <c r="AA13">
-        <v>2.37</v>
-      </c>
-      <c r="AB13">
-        <v>2.89</v>
-      </c>
-      <c r="AC13">
-        <v>1.36</v>
-      </c>
-      <c r="AD13">
-        <v>4.8</v>
-      </c>
-      <c r="AE13">
-        <v>1.12</v>
-      </c>
-      <c r="AF13">
-        <v>2.25</v>
-      </c>
-      <c r="AG13">
-        <v>1.57</v>
-      </c>
       <c r="AH13">
-        <v>10</v>
+        <v>7.6</v>
       </c>
       <c r="AI13">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="AJ13" t="s">
         <v>258</v>
@@ -3313,46 +3313,46 @@
         <v>258</v>
       </c>
       <c r="AL13">
-        <v>1.69</v>
+        <v>1.35</v>
       </c>
       <c r="AM13">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="AN13">
-        <v>1.27</v>
+        <v>1.59</v>
       </c>
       <c r="AO13">
         <v>-1</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AQ13">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AR13">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AS13">
-        <v>3.7</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU13">
-        <v>2.1</v>
+        <v>0</v>
       </c>
       <c r="AV13">
-        <v>1.67</v>
+        <v>0</v>
       </c>
       <c r="AW13">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AX13">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AY13">
-        <v>1.11</v>
+        <v>0</v>
       </c>
       <c r="AZ13">
         <v>0</v>
@@ -3361,10 +3361,10 @@
         <v>0</v>
       </c>
       <c r="BB13">
-        <v>2.63</v>
+        <v>1.73</v>
       </c>
       <c r="BC13">
-        <v>1.73</v>
+        <v>2.4</v>
       </c>
       <c r="BD13" s="3">
         <v>45800.39583333334</v>
@@ -3405,76 +3405,76 @@
         <v>257</v>
       </c>
       <c r="L14">
+        <v>3.3</v>
+      </c>
+      <c r="M14">
+        <v>3.25</v>
+      </c>
+      <c r="N14">
         <v>2.18</v>
       </c>
-      <c r="M14">
-        <v>3.16</v>
-      </c>
-      <c r="N14">
-        <v>3.4</v>
-      </c>
       <c r="O14">
+        <v>2.63</v>
+      </c>
+      <c r="P14">
+        <v>6.1</v>
+      </c>
+      <c r="Q14">
         <v>1.73</v>
       </c>
-      <c r="P14">
-        <v>7.2</v>
-      </c>
-      <c r="Q14">
-        <v>2.4</v>
-      </c>
       <c r="R14">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="S14">
-        <v>2.5</v>
+        <v>2.25</v>
       </c>
       <c r="T14">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="U14">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V14">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="W14">
+        <v>1.05</v>
+      </c>
+      <c r="X14">
         <v>1.06</v>
       </c>
-      <c r="X14">
-        <v>1.03</v>
-      </c>
       <c r="Y14">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z14">
-        <v>1.7</v>
+        <v>1.48</v>
       </c>
       <c r="AA14">
-        <v>2.05</v>
+        <v>2.37</v>
       </c>
       <c r="AB14">
-        <v>2.2</v>
+        <v>2.89</v>
       </c>
       <c r="AC14">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AD14">
-        <v>3.92</v>
+        <v>4.8</v>
       </c>
       <c r="AE14">
-        <v>1.18</v>
+        <v>1.12</v>
       </c>
       <c r="AF14">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AG14">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="AH14">
-        <v>7.6</v>
+        <v>10</v>
       </c>
       <c r="AI14">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="AJ14" t="s">
         <v>258</v>
@@ -3483,46 +3483,46 @@
         <v>258</v>
       </c>
       <c r="AL14">
+        <v>1.69</v>
+      </c>
+      <c r="AM14">
         <v>1.35</v>
       </c>
-      <c r="AM14">
-        <v>1.33</v>
-      </c>
       <c r="AN14">
-        <v>1.59</v>
+        <v>1.27</v>
       </c>
       <c r="AO14">
         <v>-1</v>
       </c>
       <c r="AP14">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AQ14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AR14">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>3.7</v>
       </c>
       <c r="AT14">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU14">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AV14">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AW14">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AX14">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AY14">
-        <v>0</v>
+        <v>1.11</v>
       </c>
       <c r="AZ14">
         <v>0</v>
@@ -3531,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="BB14">
+        <v>2.63</v>
+      </c>
+      <c r="BC14">
         <v>1.73</v>
-      </c>
-      <c r="BC14">
-        <v>2.4</v>
       </c>
       <c r="BD14" s="3">
         <v>45800.39583333334</v>
@@ -3915,76 +3915,76 @@
         <v>257</v>
       </c>
       <c r="L17">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="M17">
+        <v>3.27</v>
+      </c>
+      <c r="N17">
+        <v>3.15</v>
+      </c>
+      <c r="O17">
+        <v>1.85</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>2.3</v>
+      </c>
+      <c r="R17">
+        <v>1.47</v>
+      </c>
+      <c r="S17">
+        <v>2.45</v>
+      </c>
+      <c r="T17">
         <v>3.1</v>
       </c>
-      <c r="N17">
-        <v>2.95</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
       <c r="U17">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="V17">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="W17">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X17">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="Y17">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="Z17">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AB17">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AC17">
-        <v>1.59</v>
+        <v>1.6</v>
       </c>
       <c r="AD17">
-        <v>0</v>
+        <v>4.1</v>
       </c>
       <c r="AE17">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AF17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG17">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AI17">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="AJ17" t="s">
         <v>258</v>
@@ -3993,13 +3993,13 @@
         <v>258</v>
       </c>
       <c r="AL17">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AM17">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AO17">
         <v>-1</v>
@@ -4041,10 +4041,10 @@
         <v>0</v>
       </c>
       <c r="BB17">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="BC17">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BD17" s="3">
         <v>45800.45833333334</v>
@@ -4228,7 +4228,7 @@
         <v>66</v>
       </c>
       <c r="C19" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D19" t="s">
         <v>122</v>
@@ -4255,76 +4255,76 @@
         <v>257</v>
       </c>
       <c r="L19">
-        <v>2.24</v>
+        <v>1.89</v>
       </c>
       <c r="M19">
-        <v>3.41</v>
+        <v>3.2</v>
       </c>
       <c r="N19">
+        <v>3.85</v>
+      </c>
+      <c r="O19">
+        <v>1.7</v>
+      </c>
+      <c r="P19">
+        <v>7.5</v>
+      </c>
+      <c r="Q19">
         <v>2.62</v>
       </c>
-      <c r="O19">
-        <v>2</v>
-      </c>
-      <c r="P19">
-        <v>18.5</v>
-      </c>
-      <c r="Q19">
-        <v>1.86</v>
-      </c>
       <c r="R19">
+        <v>1.47</v>
+      </c>
+      <c r="S19">
+        <v>2.43</v>
+      </c>
+      <c r="T19">
+        <v>3.1</v>
+      </c>
+      <c r="U19">
         <v>1.3</v>
       </c>
-      <c r="S19">
-        <v>3.2</v>
-      </c>
-      <c r="T19">
-        <v>2.25</v>
-      </c>
-      <c r="U19">
+      <c r="V19">
+        <v>8.5</v>
+      </c>
+      <c r="W19">
+        <v>1.04</v>
+      </c>
+      <c r="X19">
+        <v>1.07</v>
+      </c>
+      <c r="Y19">
+        <v>7</v>
+      </c>
+      <c r="Z19">
+        <v>1.42</v>
+      </c>
+      <c r="AA19">
+        <v>2.65</v>
+      </c>
+      <c r="AB19">
+        <v>2.34</v>
+      </c>
+      <c r="AC19">
         <v>1.55</v>
       </c>
-      <c r="V19">
-        <v>4.8</v>
-      </c>
-      <c r="W19">
-        <v>1.15</v>
-      </c>
-      <c r="X19">
-        <v>1.03</v>
-      </c>
-      <c r="Y19">
-        <v>10</v>
-      </c>
-      <c r="Z19">
-        <v>1.18</v>
-      </c>
-      <c r="AA19">
-        <v>4.5</v>
-      </c>
-      <c r="AB19">
-        <v>1.53</v>
-      </c>
-      <c r="AC19">
-        <v>2.2</v>
-      </c>
       <c r="AD19">
-        <v>2.5</v>
+        <v>4</v>
       </c>
       <c r="AE19">
-        <v>1.44</v>
+        <v>1.2</v>
       </c>
       <c r="AF19">
-        <v>1.5</v>
+        <v>2.01</v>
       </c>
       <c r="AG19">
-        <v>2.4</v>
+        <v>1.68</v>
       </c>
       <c r="AH19">
-        <v>3.9</v>
+        <v>8.5</v>
       </c>
       <c r="AI19">
-        <v>1.2</v>
+        <v>1.04</v>
       </c>
       <c r="AJ19" t="s">
         <v>258</v>
@@ -4333,46 +4333,46 @@
         <v>258</v>
       </c>
       <c r="AL19">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="AM19">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="AN19">
-        <v>1.44</v>
+        <v>1.62</v>
       </c>
       <c r="AO19">
         <v>-1</v>
       </c>
       <c r="AP19">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AQ19">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AR19">
-        <v>1.78</v>
+        <v>0</v>
       </c>
       <c r="AS19">
-        <v>1.97</v>
+        <v>0</v>
       </c>
       <c r="AT19">
-        <v>2.5</v>
+        <v>0</v>
       </c>
       <c r="AU19">
-        <v>3.8</v>
+        <v>0</v>
       </c>
       <c r="AV19">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="AW19">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AX19">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AY19">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AZ19">
         <v>0</v>
@@ -4381,10 +4381,10 @@
         <v>0</v>
       </c>
       <c r="BB19">
-        <v>2</v>
+        <v>1.7</v>
       </c>
       <c r="BC19">
-        <v>1.86</v>
+        <v>2.62</v>
       </c>
       <c r="BD19" s="3">
         <v>45800.5</v>
@@ -4398,7 +4398,7 @@
         <v>66</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D20" t="s">
         <v>122</v>
@@ -4425,76 +4425,76 @@
         <v>257</v>
       </c>
       <c r="L20">
-        <v>1.89</v>
+        <v>2.6</v>
       </c>
       <c r="M20">
-        <v>3.2</v>
+        <v>3.55</v>
       </c>
       <c r="N20">
-        <v>3.85</v>
+        <v>2.34</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="R20">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="T20">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="U20">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>5.2</v>
       </c>
       <c r="W20">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y20">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Z20">
-        <v>0</v>
+        <v>1.15</v>
       </c>
       <c r="AA20">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AB20">
-        <v>2.28</v>
+        <v>1.56</v>
       </c>
       <c r="AC20">
-        <v>1.59</v>
+        <v>2.25</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>4.33</v>
       </c>
       <c r="AI20">
-        <v>0</v>
+        <v>1.18</v>
       </c>
       <c r="AJ20" t="s">
         <v>258</v>
@@ -4503,46 +4503,46 @@
         <v>258</v>
       </c>
       <c r="AL20">
-        <v>0</v>
+        <v>1.24</v>
       </c>
       <c r="AM20">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AN20">
-        <v>0</v>
+        <v>1.39</v>
       </c>
       <c r="AO20">
         <v>-1</v>
       </c>
       <c r="AP20">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AQ20">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AS20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AT20">
-        <v>0</v>
+        <v>2.47</v>
       </c>
       <c r="AU20">
-        <v>0</v>
+        <v>3.8</v>
       </c>
       <c r="AV20">
-        <v>0</v>
+        <v>2.83</v>
       </c>
       <c r="AW20">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="AX20">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AY20">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AZ20">
         <v>0</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="BB20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC20">
-        <v>0</v>
+        <v>1.86</v>
       </c>
       <c r="BD20" s="3">
         <v>45800.5</v>
@@ -4571,7 +4571,7 @@
         <v>98</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E21" t="s">
         <v>142</v>
@@ -4595,76 +4595,76 @@
         <v>257</v>
       </c>
       <c r="L21">
-        <v>2.14</v>
+        <v>1.56</v>
       </c>
       <c r="M21">
-        <v>3.38</v>
+        <v>3.63</v>
       </c>
       <c r="N21">
-        <v>2.81</v>
+        <v>5.5</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>7.8</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="T21">
-        <v>0</v>
+        <v>3.04</v>
       </c>
       <c r="U21">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="V21">
-        <v>0</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>1.02</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>8.5</v>
       </c>
       <c r="Z21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AA21">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="AB21">
-        <v>1.77</v>
+        <v>2.13</v>
       </c>
       <c r="AC21">
-        <v>1.93</v>
+        <v>1.71</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.75</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AI21">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ21" t="s">
         <v>258</v>
@@ -4673,13 +4673,13 @@
         <v>258</v>
       </c>
       <c r="AL21">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AM21">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AN21">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AO21">
         <v>-1</v>
@@ -4721,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="BB21">
-        <v>0</v>
+        <v>1.52</v>
       </c>
       <c r="BC21">
-        <v>0</v>
+        <v>3.26</v>
       </c>
       <c r="BD21" s="3">
         <v>45800.52083333334</v>
@@ -4741,7 +4741,7 @@
         <v>99</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22" t="s">
         <v>143</v>
@@ -4765,76 +4765,76 @@
         <v>257</v>
       </c>
       <c r="L22">
-        <v>1.56</v>
+        <v>2.14</v>
       </c>
       <c r="M22">
-        <v>3.63</v>
+        <v>3.38</v>
       </c>
       <c r="N22">
-        <v>5.5</v>
+        <v>2.81</v>
       </c>
       <c r="O22">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>7.8</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="R22">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="S22">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="T22">
-        <v>3.04</v>
+        <v>0</v>
       </c>
       <c r="U22">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="V22">
-        <v>8.199999999999999</v>
+        <v>0</v>
       </c>
       <c r="W22">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="X22">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="Y22">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AA22">
-        <v>3.2</v>
+        <v>0</v>
       </c>
       <c r="AB22">
-        <v>2.13</v>
+        <v>1.77</v>
       </c>
       <c r="AC22">
-        <v>1.71</v>
+        <v>1.93</v>
       </c>
       <c r="AD22">
-        <v>3.4</v>
+        <v>0</v>
       </c>
       <c r="AE22">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AF22">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG22">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AH22">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AI22">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AJ22" t="s">
         <v>258</v>
@@ -4843,13 +4843,13 @@
         <v>258</v>
       </c>
       <c r="AL22">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="AM22">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AO22">
         <v>-1</v>
@@ -4891,10 +4891,10 @@
         <v>0</v>
       </c>
       <c r="BB22">
-        <v>1.52</v>
+        <v>0</v>
       </c>
       <c r="BC22">
-        <v>3.26</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="3">
         <v>45800.52083333334</v>
@@ -5195,10 +5195,10 @@
         <v>-1</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AR24">
         <v>1.64</v>
@@ -5207,13 +5207,13 @@
         <v>2.03</v>
       </c>
       <c r="AT24">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AU24">
-        <v>0</v>
+        <v>3.92</v>
       </c>
       <c r="AV24">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AW24">
         <v>2.21</v>
@@ -5222,7 +5222,7 @@
         <v>1.76</v>
       </c>
       <c r="AY24">
-        <v>0</v>
+        <v>1.42</v>
       </c>
       <c r="AZ24">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>70</v>
       </c>
       <c r="C25" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
         <v>121</v>
@@ -5275,76 +5275,76 @@
         <v>257</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>3.57</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>3.37</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>2.75</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>3.55</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>1.3</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>6.2</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>1.06</v>
       </c>
       <c r="AJ25" t="s">
         <v>258</v>
@@ -5353,46 +5353,46 @@
         <v>258</v>
       </c>
       <c r="AL25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AM25">
-        <v>0</v>
+        <v>1.22</v>
       </c>
       <c r="AN25">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO25">
         <v>-1</v>
       </c>
       <c r="AP25">
-        <v>0</v>
+        <v>1.45</v>
       </c>
       <c r="AQ25">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AR25">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AS25">
-        <v>0</v>
+        <v>3.28</v>
       </c>
       <c r="AT25">
-        <v>0</v>
+        <v>4.25</v>
       </c>
       <c r="AU25">
-        <v>0</v>
+        <v>2.41</v>
       </c>
       <c r="AV25">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AW25">
-        <v>0</v>
+        <v>1.46</v>
       </c>
       <c r="AX25">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AY25">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AZ25">
         <v>0</v>
@@ -5401,10 +5401,10 @@
         <v>0</v>
       </c>
       <c r="BB25">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="BC25">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BD25" s="3">
         <v>45800.58333333334</v>
@@ -5418,7 +5418,7 @@
         <v>70</v>
       </c>
       <c r="C26" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D26" t="s">
         <v>121</v>
@@ -5445,76 +5445,76 @@
         <v>257</v>
       </c>
       <c r="L26">
-        <v>1.84</v>
+        <v>0</v>
       </c>
       <c r="M26">
-        <v>3.57</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>3.37</v>
+        <v>0</v>
       </c>
       <c r="O26">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="P26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Q26">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="R26">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="S26">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="T26">
-        <v>2.75</v>
+        <v>0</v>
       </c>
       <c r="U26">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="V26">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="W26">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="X26">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="Y26">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>1.28</v>
+        <v>0</v>
       </c>
       <c r="AA26">
-        <v>3.55</v>
+        <v>0</v>
       </c>
       <c r="AB26">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AC26">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AD26">
-        <v>3.25</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>1.3</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>1.73</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>6.2</v>
+        <v>0</v>
       </c>
       <c r="AI26">
-        <v>1.06</v>
+        <v>0</v>
       </c>
       <c r="AJ26" t="s">
         <v>258</v>
@@ -5523,46 +5523,46 @@
         <v>258</v>
       </c>
       <c r="AL26">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AM26">
-        <v>1.22</v>
+        <v>0</v>
       </c>
       <c r="AN26">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AO26">
         <v>-1</v>
       </c>
       <c r="AP26">
-        <v>1.45</v>
+        <v>0</v>
       </c>
       <c r="AQ26">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AR26">
-        <v>2.38</v>
+        <v>0</v>
       </c>
       <c r="AS26">
-        <v>3.28</v>
+        <v>0</v>
       </c>
       <c r="AT26">
-        <v>4.25</v>
+        <v>0</v>
       </c>
       <c r="AU26">
-        <v>2.41</v>
+        <v>0</v>
       </c>
       <c r="AV26">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AW26">
-        <v>1.46</v>
+        <v>0</v>
       </c>
       <c r="AX26">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AY26">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AZ26">
         <v>0</v>
@@ -5571,10 +5571,10 @@
         <v>0</v>
       </c>
       <c r="BB26">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="BC26">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="3">
         <v>45800.58333333334</v>
@@ -5588,10 +5588,10 @@
         <v>71</v>
       </c>
       <c r="C27" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
         <v>148</v>
@@ -5615,37 +5615,37 @@
         <v>257</v>
       </c>
       <c r="L27">
-        <v>2.61</v>
+        <v>3.99</v>
       </c>
       <c r="M27">
-        <v>2.94</v>
+        <v>3.19</v>
       </c>
       <c r="N27">
-        <v>2.52</v>
+        <v>1.87</v>
       </c>
       <c r="O27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="P27">
-        <v>7.5</v>
+        <v>11</v>
       </c>
       <c r="Q27">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="R27">
-        <v>1.38</v>
+        <v>1.45</v>
       </c>
       <c r="S27">
-        <v>2.8</v>
+        <v>2.5</v>
       </c>
       <c r="T27">
-        <v>2.75</v>
+        <v>3.1</v>
       </c>
       <c r="U27">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="V27">
-        <v>6.15</v>
+        <v>9</v>
       </c>
       <c r="W27">
         <v>1.06</v>
@@ -5657,82 +5657,82 @@
         <v>7.5</v>
       </c>
       <c r="Z27">
+        <v>1.4</v>
+      </c>
+      <c r="AA27">
+        <v>2.8</v>
+      </c>
+      <c r="AB27">
+        <v>2.11</v>
+      </c>
+      <c r="AC27">
+        <v>1.65</v>
+      </c>
+      <c r="AD27">
+        <v>4.2</v>
+      </c>
+      <c r="AE27">
+        <v>1.2</v>
+      </c>
+      <c r="AF27">
+        <v>2.1</v>
+      </c>
+      <c r="AG27">
+        <v>1.7</v>
+      </c>
+      <c r="AH27">
+        <v>9.5</v>
+      </c>
+      <c r="AI27">
+        <v>1.06</v>
+      </c>
+      <c r="AJ27" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL27">
+        <v>1.95</v>
+      </c>
+      <c r="AM27">
         <v>1.33</v>
       </c>
-      <c r="AA27">
-        <v>3.25</v>
-      </c>
-      <c r="AB27">
-        <v>2.02</v>
-      </c>
-      <c r="AC27">
-        <v>1.7</v>
-      </c>
-      <c r="AD27">
-        <v>3.35</v>
-      </c>
-      <c r="AE27">
-        <v>1.3</v>
-      </c>
-      <c r="AF27">
-        <v>1.67</v>
-      </c>
-      <c r="AG27">
-        <v>2.05</v>
-      </c>
-      <c r="AH27">
-        <v>6.5</v>
-      </c>
-      <c r="AI27">
-        <v>1.09</v>
-      </c>
-      <c r="AJ27" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK27" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL27">
-        <v>1.35</v>
-      </c>
-      <c r="AM27">
-        <v>1.38</v>
-      </c>
       <c r="AN27">
-        <v>1.45</v>
+        <v>1.17</v>
       </c>
       <c r="AO27">
         <v>-1</v>
       </c>
       <c r="AP27">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AQ27">
-        <v>1.65</v>
+        <v>0</v>
       </c>
       <c r="AR27">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AS27">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="AT27">
-        <v>3.45</v>
+        <v>0</v>
       </c>
       <c r="AU27">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="AV27">
-        <v>2.07</v>
+        <v>0</v>
       </c>
       <c r="AW27">
-        <v>1.66</v>
+        <v>0</v>
       </c>
       <c r="AX27">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="AY27">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AZ27">
         <v>0</v>
@@ -5741,10 +5741,10 @@
         <v>0</v>
       </c>
       <c r="BB27">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="BC27">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="BD27" s="3">
         <v>45800.60416666666</v>
@@ -5785,124 +5785,124 @@
         <v>257</v>
       </c>
       <c r="L28">
-        <v>2.47</v>
+        <v>1.8</v>
       </c>
       <c r="M28">
-        <v>3.19</v>
+        <v>3.06</v>
       </c>
       <c r="N28">
-        <v>2.49</v>
+        <v>4.2</v>
       </c>
       <c r="O28">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="P28">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q28">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="R28">
+        <v>1.4</v>
+      </c>
+      <c r="S28">
+        <v>2.75</v>
+      </c>
+      <c r="T28">
+        <v>2.75</v>
+      </c>
+      <c r="U28">
+        <v>1.4</v>
+      </c>
+      <c r="V28">
+        <v>6.15</v>
+      </c>
+      <c r="W28">
+        <v>1.09</v>
+      </c>
+      <c r="X28">
+        <v>1.06</v>
+      </c>
+      <c r="Y28">
+        <v>8</v>
+      </c>
+      <c r="Z28">
         <v>1.3</v>
       </c>
-      <c r="S28">
-        <v>3.2</v>
-      </c>
-      <c r="T28">
-        <v>2.45</v>
-      </c>
-      <c r="U28">
-        <v>1.48</v>
-      </c>
-      <c r="V28">
-        <v>5.55</v>
-      </c>
-      <c r="W28">
-        <v>1.08</v>
-      </c>
-      <c r="X28">
-        <v>1.04</v>
-      </c>
-      <c r="Y28">
-        <v>10</v>
-      </c>
-      <c r="Z28">
-        <v>1.22</v>
-      </c>
       <c r="AA28">
-        <v>4.2</v>
+        <v>3.25</v>
       </c>
       <c r="AB28">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AC28">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="AD28">
-        <v>2.8</v>
+        <v>3.35</v>
       </c>
       <c r="AE28">
-        <v>1.42</v>
+        <v>1.3</v>
       </c>
       <c r="AF28">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AG28">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="AH28">
-        <v>5.25</v>
+        <v>5.85</v>
       </c>
       <c r="AI28">
+        <v>1.1</v>
+      </c>
+      <c r="AJ28" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL28">
         <v>1.15</v>
       </c>
-      <c r="AJ28" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK28" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL28">
-        <v>1.17</v>
-      </c>
       <c r="AM28">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AN28">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AO28">
         <v>-1</v>
       </c>
       <c r="AP28">
-        <v>1.34</v>
+        <v>1.3</v>
       </c>
       <c r="AQ28">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AR28">
-        <v>1.94</v>
+        <v>1.88</v>
       </c>
       <c r="AS28">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="AT28">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AU28">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="AV28">
-        <v>2.18</v>
+        <v>2.28</v>
       </c>
       <c r="AW28">
-        <v>1.76</v>
+        <v>1.78</v>
       </c>
       <c r="AX28">
         <v>1.48</v>
       </c>
       <c r="AY28">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="AZ28">
         <v>0</v>
@@ -5911,10 +5911,10 @@
         <v>0</v>
       </c>
       <c r="BB28">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BC28">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="BD28" s="3">
         <v>45800.60416666666</v>
@@ -5955,58 +5955,58 @@
         <v>257</v>
       </c>
       <c r="L29">
+        <v>1.82</v>
+      </c>
+      <c r="M29">
+        <v>3.26</v>
+      </c>
+      <c r="N29">
+        <v>3.79</v>
+      </c>
+      <c r="O29">
+        <v>2.05</v>
+      </c>
+      <c r="P29">
+        <v>9.5</v>
+      </c>
+      <c r="Q29">
+        <v>1.95</v>
+      </c>
+      <c r="R29">
+        <v>1.38</v>
+      </c>
+      <c r="S29">
+        <v>2.8</v>
+      </c>
+      <c r="T29">
+        <v>2.8</v>
+      </c>
+      <c r="U29">
+        <v>1.38</v>
+      </c>
+      <c r="V29">
+        <v>7.4</v>
+      </c>
+      <c r="W29">
+        <v>1.03</v>
+      </c>
+      <c r="X29">
+        <v>1.05</v>
+      </c>
+      <c r="Y29">
+        <v>9.5</v>
+      </c>
+      <c r="Z29">
+        <v>1.28</v>
+      </c>
+      <c r="AA29">
+        <v>3.55</v>
+      </c>
+      <c r="AB29">
+        <v>1.9</v>
+      </c>
+      <c r="AC29">
         <v>1.8</v>
-      </c>
-      <c r="M29">
-        <v>3.06</v>
-      </c>
-      <c r="N29">
-        <v>4.2</v>
-      </c>
-      <c r="O29">
-        <v>1.67</v>
-      </c>
-      <c r="P29">
-        <v>8</v>
-      </c>
-      <c r="Q29">
-        <v>2.65</v>
-      </c>
-      <c r="R29">
-        <v>1.4</v>
-      </c>
-      <c r="S29">
-        <v>2.75</v>
-      </c>
-      <c r="T29">
-        <v>2.75</v>
-      </c>
-      <c r="U29">
-        <v>1.4</v>
-      </c>
-      <c r="V29">
-        <v>6.15</v>
-      </c>
-      <c r="W29">
-        <v>1.09</v>
-      </c>
-      <c r="X29">
-        <v>1.06</v>
-      </c>
-      <c r="Y29">
-        <v>8</v>
-      </c>
-      <c r="Z29">
-        <v>1.3</v>
-      </c>
-      <c r="AA29">
-        <v>3.25</v>
-      </c>
-      <c r="AB29">
-        <v>1.95</v>
-      </c>
-      <c r="AC29">
-        <v>1.75</v>
       </c>
       <c r="AD29">
         <v>3.35</v>
@@ -6015,13 +6015,13 @@
         <v>1.3</v>
       </c>
       <c r="AF29">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AG29">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="AH29">
-        <v>5.85</v>
+        <v>6.5</v>
       </c>
       <c r="AI29">
         <v>1.1</v>
@@ -6033,46 +6033,46 @@
         <v>258</v>
       </c>
       <c r="AL29">
-        <v>1.15</v>
+        <v>1.53</v>
       </c>
       <c r="AM29">
-        <v>1.28</v>
+        <v>1.22</v>
       </c>
       <c r="AN29">
-        <v>1.8</v>
+        <v>1.48</v>
       </c>
       <c r="AO29">
         <v>-1</v>
       </c>
       <c r="AP29">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="AQ29">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AR29">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AS29">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="AT29">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="AU29">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="AV29">
-        <v>2.28</v>
+        <v>2.2</v>
       </c>
       <c r="AW29">
-        <v>1.78</v>
+        <v>1.76</v>
       </c>
       <c r="AX29">
         <v>1.48</v>
       </c>
       <c r="AY29">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AZ29">
         <v>0</v>
@@ -6081,10 +6081,10 @@
         <v>0</v>
       </c>
       <c r="BB29">
-        <v>1.67</v>
+        <v>2.05</v>
       </c>
       <c r="BC29">
-        <v>2.65</v>
+        <v>1.95</v>
       </c>
       <c r="BD29" s="3">
         <v>45800.60416666666</v>
@@ -6098,10 +6098,10 @@
         <v>71</v>
       </c>
       <c r="C30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30" t="s">
         <v>151</v>
@@ -6125,37 +6125,37 @@
         <v>257</v>
       </c>
       <c r="L30">
-        <v>3.99</v>
+        <v>2.61</v>
       </c>
       <c r="M30">
-        <v>3.19</v>
+        <v>2.94</v>
       </c>
       <c r="N30">
-        <v>1.87</v>
+        <v>2.52</v>
       </c>
       <c r="O30">
+        <v>2</v>
+      </c>
+      <c r="P30">
+        <v>7.5</v>
+      </c>
+      <c r="Q30">
         <v>2.2</v>
       </c>
-      <c r="P30">
-        <v>11</v>
-      </c>
-      <c r="Q30">
-        <v>1.83</v>
-      </c>
       <c r="R30">
-        <v>1.45</v>
+        <v>1.38</v>
       </c>
       <c r="S30">
-        <v>2.5</v>
+        <v>2.8</v>
       </c>
       <c r="T30">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="U30">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="V30">
-        <v>9</v>
+        <v>6.15</v>
       </c>
       <c r="W30">
         <v>1.06</v>
@@ -6167,34 +6167,34 @@
         <v>7.5</v>
       </c>
       <c r="Z30">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AA30">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="AB30">
-        <v>2.11</v>
+        <v>2.02</v>
       </c>
       <c r="AC30">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="AD30">
-        <v>4.2</v>
+        <v>3.35</v>
       </c>
       <c r="AE30">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="AF30">
-        <v>2.1</v>
+        <v>1.67</v>
       </c>
       <c r="AG30">
-        <v>1.7</v>
+        <v>2.05</v>
       </c>
       <c r="AH30">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AI30">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="AJ30" t="s">
         <v>258</v>
@@ -6203,46 +6203,46 @@
         <v>258</v>
       </c>
       <c r="AL30">
-        <v>1.95</v>
+        <v>1.35</v>
       </c>
       <c r="AM30">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="AN30">
-        <v>1.17</v>
+        <v>1.45</v>
       </c>
       <c r="AO30">
         <v>-1</v>
       </c>
       <c r="AP30">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AQ30">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AR30">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AS30">
-        <v>0</v>
+        <v>2.65</v>
       </c>
       <c r="AT30">
-        <v>0</v>
+        <v>3.45</v>
       </c>
       <c r="AU30">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AV30">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AW30">
-        <v>0</v>
+        <v>1.66</v>
       </c>
       <c r="AX30">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="AY30">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AZ30">
         <v>0</v>
@@ -6251,10 +6251,10 @@
         <v>0</v>
       </c>
       <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
         <v>2.2</v>
-      </c>
-      <c r="BC30">
-        <v>1.83</v>
       </c>
       <c r="BD30" s="3">
         <v>45800.60416666666</v>
@@ -6268,7 +6268,7 @@
         <v>71</v>
       </c>
       <c r="C31" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D31" t="s">
         <v>121</v>
@@ -6295,76 +6295,76 @@
         <v>257</v>
       </c>
       <c r="L31">
-        <v>1.82</v>
+        <v>2.47</v>
       </c>
       <c r="M31">
-        <v>3.26</v>
+        <v>3.19</v>
       </c>
       <c r="N31">
-        <v>3.79</v>
+        <v>2.49</v>
       </c>
       <c r="O31">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="P31">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Q31">
+        <v>2.85</v>
+      </c>
+      <c r="R31">
+        <v>1.3</v>
+      </c>
+      <c r="S31">
+        <v>3.2</v>
+      </c>
+      <c r="T31">
+        <v>2.45</v>
+      </c>
+      <c r="U31">
+        <v>1.48</v>
+      </c>
+      <c r="V31">
+        <v>5.55</v>
+      </c>
+      <c r="W31">
+        <v>1.08</v>
+      </c>
+      <c r="X31">
+        <v>1.04</v>
+      </c>
+      <c r="Y31">
+        <v>10</v>
+      </c>
+      <c r="Z31">
+        <v>1.22</v>
+      </c>
+      <c r="AA31">
+        <v>4.2</v>
+      </c>
+      <c r="AB31">
+        <v>1.87</v>
+      </c>
+      <c r="AC31">
+        <v>1.83</v>
+      </c>
+      <c r="AD31">
+        <v>2.8</v>
+      </c>
+      <c r="AE31">
+        <v>1.42</v>
+      </c>
+      <c r="AF31">
+        <v>1.73</v>
+      </c>
+      <c r="AG31">
         <v>1.95</v>
       </c>
-      <c r="R31">
-        <v>1.38</v>
-      </c>
-      <c r="S31">
-        <v>2.8</v>
-      </c>
-      <c r="T31">
-        <v>2.8</v>
-      </c>
-      <c r="U31">
-        <v>1.38</v>
-      </c>
-      <c r="V31">
-        <v>7.4</v>
-      </c>
-      <c r="W31">
-        <v>1.03</v>
-      </c>
-      <c r="X31">
-        <v>1.05</v>
-      </c>
-      <c r="Y31">
-        <v>9.5</v>
-      </c>
-      <c r="Z31">
-        <v>1.28</v>
-      </c>
-      <c r="AA31">
-        <v>3.55</v>
-      </c>
-      <c r="AB31">
-        <v>1.9</v>
-      </c>
-      <c r="AC31">
-        <v>1.8</v>
-      </c>
-      <c r="AD31">
-        <v>3.35</v>
-      </c>
-      <c r="AE31">
-        <v>1.3</v>
-      </c>
-      <c r="AF31">
-        <v>1.7</v>
-      </c>
-      <c r="AG31">
-        <v>2</v>
-      </c>
       <c r="AH31">
-        <v>6.5</v>
+        <v>5.25</v>
       </c>
       <c r="AI31">
-        <v>1.1</v>
+        <v>1.15</v>
       </c>
       <c r="AJ31" t="s">
         <v>258</v>
@@ -6373,13 +6373,13 @@
         <v>258</v>
       </c>
       <c r="AL31">
-        <v>1.53</v>
+        <v>1.17</v>
       </c>
       <c r="AM31">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AN31">
-        <v>1.48</v>
+        <v>2.25</v>
       </c>
       <c r="AO31">
         <v>-1</v>
@@ -6391,7 +6391,7 @@
         <v>1.58</v>
       </c>
       <c r="AR31">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AS31">
         <v>2.43</v>
@@ -6403,7 +6403,7 @@
         <v>2.9</v>
       </c>
       <c r="AV31">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="AW31">
         <v>1.76</v>
@@ -6421,10 +6421,10 @@
         <v>0</v>
       </c>
       <c r="BB31">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="BC31">
-        <v>1.95</v>
+        <v>2.85</v>
       </c>
       <c r="BD31" s="3">
         <v>45800.60416666666</v>
@@ -6948,7 +6948,7 @@
         <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D35" t="s">
         <v>121</v>
@@ -6975,77 +6975,77 @@
         <v>257</v>
       </c>
       <c r="L35">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="M35">
-        <v>4.4</v>
+        <v>3.98</v>
       </c>
       <c r="N35">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="O35">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="P35">
-        <v>20.5</v>
+        <v>13.5</v>
       </c>
       <c r="Q35">
         <v>2.88</v>
       </c>
       <c r="R35">
-        <v>1.2</v>
+        <v>1.25</v>
       </c>
       <c r="S35">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T35">
-        <v>2.06</v>
+        <v>2.2</v>
       </c>
       <c r="U35">
-        <v>1.74</v>
+        <v>1.62</v>
       </c>
       <c r="V35">
-        <v>4.1</v>
+        <v>5</v>
       </c>
       <c r="W35">
+        <v>1.17</v>
+      </c>
+      <c r="X35">
+        <v>1.01</v>
+      </c>
+      <c r="Y35">
+        <v>15</v>
+      </c>
+      <c r="Z35">
+        <v>1.15</v>
+      </c>
+      <c r="AA35">
+        <v>5</v>
+      </c>
+      <c r="AB35">
+        <v>1.42</v>
+      </c>
+      <c r="AC35">
+        <v>2.65</v>
+      </c>
+      <c r="AD35">
+        <v>2.2</v>
+      </c>
+      <c r="AE35">
+        <v>1.55</v>
+      </c>
+      <c r="AF35">
+        <v>1.62</v>
+      </c>
+      <c r="AG35">
+        <v>2.2</v>
+      </c>
+      <c r="AH35">
+        <v>3.85</v>
+      </c>
+      <c r="AI35">
         <v>1.22</v>
       </c>
-      <c r="X35">
-        <v>1.02</v>
-      </c>
-      <c r="Y35">
-        <v>17</v>
-      </c>
-      <c r="Z35">
-        <v>1.13</v>
-      </c>
-      <c r="AA35">
-        <v>6</v>
-      </c>
-      <c r="AB35">
-        <v>1.38</v>
-      </c>
-      <c r="AC35">
-        <v>2.81</v>
-      </c>
-      <c r="AD35">
-        <v>1.94</v>
-      </c>
-      <c r="AE35">
-        <v>1.76</v>
-      </c>
-      <c r="AF35">
-        <v>1.5</v>
-      </c>
-      <c r="AG35">
-        <v>2.4</v>
-      </c>
-      <c r="AH35">
-        <v>3.05</v>
-      </c>
-      <c r="AI35">
-        <v>1.33</v>
-      </c>
       <c r="AJ35" t="s">
         <v>258</v>
       </c>
@@ -7053,46 +7053,46 @@
         <v>258</v>
       </c>
       <c r="AL35">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AM35">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AN35">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AO35">
         <v>-1</v>
       </c>
       <c r="AP35">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>1.5</v>
       </c>
       <c r="AR35">
-        <v>2.24</v>
+        <v>1.82</v>
       </c>
       <c r="AS35">
-        <v>2.43</v>
+        <v>2.3</v>
       </c>
       <c r="AT35">
-        <v>3.28</v>
+        <v>2.9</v>
       </c>
       <c r="AU35">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="AV35">
-        <v>2.28</v>
+        <v>2.38</v>
       </c>
       <c r="AW35">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="AX35">
-        <v>1.44</v>
+        <v>1.54</v>
       </c>
       <c r="AY35">
-        <v>1.25</v>
+        <v>1.34</v>
       </c>
       <c r="AZ35">
         <v>0</v>
@@ -7101,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="BB35">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="BC35">
         <v>2.88</v>
@@ -7288,7 +7288,7 @@
         <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D37" t="s">
         <v>121</v>
@@ -7315,124 +7315,124 @@
         <v>257</v>
       </c>
       <c r="L37">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="M37">
-        <v>3.98</v>
+        <v>4.4</v>
       </c>
       <c r="N37">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="O37">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="P37">
-        <v>13.5</v>
+        <v>20.5</v>
       </c>
       <c r="Q37">
         <v>2.88</v>
       </c>
       <c r="R37">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="S37">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T37">
-        <v>2.2</v>
+        <v>2.06</v>
       </c>
       <c r="U37">
-        <v>1.62</v>
+        <v>1.74</v>
       </c>
       <c r="V37">
-        <v>5</v>
+        <v>4.1</v>
       </c>
       <c r="W37">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="X37">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="Y37">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z37">
+        <v>1.13</v>
+      </c>
+      <c r="AA37">
+        <v>6</v>
+      </c>
+      <c r="AB37">
+        <v>1.38</v>
+      </c>
+      <c r="AC37">
+        <v>2.81</v>
+      </c>
+      <c r="AD37">
+        <v>1.94</v>
+      </c>
+      <c r="AE37">
+        <v>1.76</v>
+      </c>
+      <c r="AF37">
+        <v>1.5</v>
+      </c>
+      <c r="AG37">
+        <v>2.4</v>
+      </c>
+      <c r="AH37">
+        <v>3.05</v>
+      </c>
+      <c r="AI37">
+        <v>1.33</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL37">
+        <v>1.2</v>
+      </c>
+      <c r="AM37">
         <v>1.15</v>
       </c>
-      <c r="AA37">
-        <v>5</v>
-      </c>
-      <c r="AB37">
-        <v>1.42</v>
-      </c>
-      <c r="AC37">
-        <v>2.65</v>
-      </c>
-      <c r="AD37">
-        <v>2.2</v>
-      </c>
-      <c r="AE37">
-        <v>1.55</v>
-      </c>
-      <c r="AF37">
-        <v>1.62</v>
-      </c>
-      <c r="AG37">
-        <v>2.2</v>
-      </c>
-      <c r="AH37">
-        <v>3.85</v>
-      </c>
-      <c r="AI37">
-        <v>1.22</v>
-      </c>
-      <c r="AJ37" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK37" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL37">
-        <v>1.17</v>
-      </c>
-      <c r="AM37">
-        <v>1.22</v>
-      </c>
       <c r="AN37">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AO37">
         <v>-1</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
       </c>
       <c r="AR37">
-        <v>1.82</v>
+        <v>2.24</v>
       </c>
       <c r="AS37">
-        <v>2.3</v>
+        <v>2.43</v>
       </c>
       <c r="AT37">
-        <v>2.9</v>
+        <v>3.28</v>
       </c>
       <c r="AU37">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="AV37">
-        <v>2.38</v>
+        <v>2.28</v>
       </c>
       <c r="AW37">
-        <v>1.86</v>
+        <v>1.78</v>
       </c>
       <c r="AX37">
-        <v>1.54</v>
+        <v>1.44</v>
       </c>
       <c r="AY37">
-        <v>1.34</v>
+        <v>1.25</v>
       </c>
       <c r="AZ37">
         <v>0</v>
@@ -7441,7 +7441,7 @@
         <v>0</v>
       </c>
       <c r="BB37">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="BC37">
         <v>2.88</v>
@@ -8165,40 +8165,40 @@
         <v>257</v>
       </c>
       <c r="L42">
-        <v>1.57</v>
+        <v>1.48</v>
       </c>
       <c r="M42">
-        <v>3.7</v>
+        <v>3.94</v>
       </c>
       <c r="N42">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="O42">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="P42">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="Q42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="R42">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S42">
-        <v>2.93</v>
+        <v>2.9</v>
       </c>
       <c r="T42">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="U42">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="V42">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="W42">
-        <v>1.05</v>
+        <v>1.09</v>
       </c>
       <c r="X42">
         <v>1.01</v>
@@ -8207,16 +8207,16 @@
         <v>10.5</v>
       </c>
       <c r="Z42">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="AA42">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB42">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AC42">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AD42">
         <v>3.2</v>
@@ -8228,13 +8228,13 @@
         <v>1.95</v>
       </c>
       <c r="AG42">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AH42">
-        <v>6.75</v>
+        <v>6.5</v>
       </c>
       <c r="AI42">
-        <v>1.04</v>
+        <v>1.11</v>
       </c>
       <c r="AJ42" t="s">
         <v>258</v>
@@ -8246,55 +8246,55 @@
         <v>1.25</v>
       </c>
       <c r="AM42">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AN42">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="AO42">
         <v>-1</v>
       </c>
       <c r="AP42">
-        <v>1.19</v>
+        <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AR42">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS42">
-        <v>1.96</v>
+        <v>2.25</v>
       </c>
       <c r="AT42">
-        <v>2.65</v>
+        <v>2.88</v>
       </c>
       <c r="AU42">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="AV42">
-        <v>2.83</v>
+        <v>2.5</v>
       </c>
       <c r="AW42">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="AX42">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="AY42">
+        <v>1.36</v>
+      </c>
+      <c r="AZ42">
+        <v>0</v>
+      </c>
+      <c r="BA42">
+        <v>0</v>
+      </c>
+      <c r="BB42">
         <v>1.4</v>
       </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
-      <c r="BB42">
-        <v>1.5</v>
-      </c>
       <c r="BC42">
-        <v>3.1</v>
+        <v>3.4</v>
       </c>
       <c r="BD42" s="3">
         <v>45800.65625</v>
@@ -8335,77 +8335,77 @@
         <v>257</v>
       </c>
       <c r="L43">
-        <v>2.54</v>
+        <v>1.57</v>
       </c>
       <c r="M43">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="N43">
-        <v>2.76</v>
+        <v>5.2</v>
       </c>
       <c r="O43">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="P43">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="Q43">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="R43">
-        <v>1.52</v>
+        <v>1.39</v>
       </c>
       <c r="S43">
-        <v>2.35</v>
+        <v>2.93</v>
       </c>
       <c r="T43">
-        <v>3.55</v>
+        <v>2.8</v>
       </c>
       <c r="U43">
-        <v>1.27</v>
+        <v>1.37</v>
       </c>
       <c r="V43">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="W43">
+        <v>1.05</v>
+      </c>
+      <c r="X43">
+        <v>1.01</v>
+      </c>
+      <c r="Y43">
+        <v>10.5</v>
+      </c>
+      <c r="Z43">
+        <v>1.28</v>
+      </c>
+      <c r="AA43">
+        <v>3.2</v>
+      </c>
+      <c r="AB43">
+        <v>1.93</v>
+      </c>
+      <c r="AC43">
+        <v>1.77</v>
+      </c>
+      <c r="AD43">
+        <v>3.2</v>
+      </c>
+      <c r="AE43">
+        <v>1.3</v>
+      </c>
+      <c r="AF43">
+        <v>1.95</v>
+      </c>
+      <c r="AG43">
+        <v>1.83</v>
+      </c>
+      <c r="AH43">
+        <v>6.75</v>
+      </c>
+      <c r="AI43">
         <v>1.04</v>
       </c>
-      <c r="X43">
-        <v>1.07</v>
-      </c>
-      <c r="Y43">
-        <v>6.5</v>
-      </c>
-      <c r="Z43">
-        <v>1.4</v>
-      </c>
-      <c r="AA43">
-        <v>2.7</v>
-      </c>
-      <c r="AB43">
-        <v>2.1</v>
-      </c>
-      <c r="AC43">
-        <v>1.6</v>
-      </c>
-      <c r="AD43">
-        <v>4.2</v>
-      </c>
-      <c r="AE43">
-        <v>1.17</v>
-      </c>
-      <c r="AF43">
-        <v>2.05</v>
-      </c>
-      <c r="AG43">
-        <v>1.75</v>
-      </c>
-      <c r="AH43">
-        <v>11</v>
-      </c>
-      <c r="AI43">
-        <v>1.05</v>
-      </c>
       <c r="AJ43" t="s">
         <v>258</v>
       </c>
@@ -8413,46 +8413,46 @@
         <v>258</v>
       </c>
       <c r="AL43">
-        <v>1.4</v>
+        <v>1.25</v>
       </c>
       <c r="AM43">
-        <v>1.35</v>
+        <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1.44</v>
+        <v>2.25</v>
       </c>
       <c r="AO43">
         <v>-1</v>
       </c>
       <c r="AP43">
-        <v>1.34</v>
+        <v>1.19</v>
       </c>
       <c r="AQ43">
-        <v>1.72</v>
+        <v>1.37</v>
       </c>
       <c r="AR43">
-        <v>2.19</v>
+        <v>1.78</v>
       </c>
       <c r="AS43">
-        <v>2.75</v>
+        <v>1.96</v>
       </c>
       <c r="AT43">
-        <v>3.2</v>
+        <v>2.65</v>
       </c>
       <c r="AU43">
-        <v>2.65</v>
+        <v>3.45</v>
       </c>
       <c r="AV43">
-        <v>2.05</v>
+        <v>2.83</v>
       </c>
       <c r="AW43">
-        <v>1.65</v>
+        <v>2.2</v>
       </c>
       <c r="AX43">
-        <v>1.39</v>
+        <v>1.76</v>
       </c>
       <c r="AY43">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="AZ43">
         <v>0</v>
@@ -8461,10 +8461,10 @@
         <v>0</v>
       </c>
       <c r="BB43">
-        <v>1.91</v>
+        <v>1.5</v>
       </c>
       <c r="BC43">
-        <v>2.2</v>
+        <v>3.1</v>
       </c>
       <c r="BD43" s="3">
         <v>45800.65625</v>
@@ -8505,124 +8505,124 @@
         <v>257</v>
       </c>
       <c r="L44">
-        <v>1.48</v>
+        <v>2.54</v>
       </c>
       <c r="M44">
-        <v>3.94</v>
+        <v>2.9</v>
       </c>
       <c r="N44">
-        <v>5.9</v>
+        <v>2.76</v>
       </c>
       <c r="O44">
+        <v>1.91</v>
+      </c>
+      <c r="P44">
+        <v>7</v>
+      </c>
+      <c r="Q44">
+        <v>2.2</v>
+      </c>
+      <c r="R44">
+        <v>1.52</v>
+      </c>
+      <c r="S44">
+        <v>2.35</v>
+      </c>
+      <c r="T44">
+        <v>3.55</v>
+      </c>
+      <c r="U44">
+        <v>1.27</v>
+      </c>
+      <c r="V44">
+        <v>10</v>
+      </c>
+      <c r="W44">
+        <v>1.04</v>
+      </c>
+      <c r="X44">
+        <v>1.07</v>
+      </c>
+      <c r="Y44">
+        <v>6.5</v>
+      </c>
+      <c r="Z44">
         <v>1.4</v>
       </c>
-      <c r="P44">
-        <v>9.25</v>
-      </c>
-      <c r="Q44">
-        <v>3.4</v>
-      </c>
-      <c r="R44">
+      <c r="AA44">
+        <v>2.7</v>
+      </c>
+      <c r="AB44">
+        <v>2.1</v>
+      </c>
+      <c r="AC44">
+        <v>1.6</v>
+      </c>
+      <c r="AD44">
+        <v>4.2</v>
+      </c>
+      <c r="AE44">
+        <v>1.17</v>
+      </c>
+      <c r="AF44">
+        <v>2.05</v>
+      </c>
+      <c r="AG44">
+        <v>1.75</v>
+      </c>
+      <c r="AH44">
+        <v>11</v>
+      </c>
+      <c r="AI44">
+        <v>1.05</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>258</v>
+      </c>
+      <c r="AK44" t="s">
+        <v>258</v>
+      </c>
+      <c r="AL44">
+        <v>1.4</v>
+      </c>
+      <c r="AM44">
         <v>1.35</v>
       </c>
-      <c r="S44">
-        <v>2.9</v>
-      </c>
-      <c r="T44">
-        <v>2.7</v>
-      </c>
-      <c r="U44">
-        <v>1.4</v>
-      </c>
-      <c r="V44">
-        <v>6.5</v>
-      </c>
-      <c r="W44">
-        <v>1.09</v>
-      </c>
-      <c r="X44">
-        <v>1.01</v>
-      </c>
-      <c r="Y44">
-        <v>10.5</v>
-      </c>
-      <c r="Z44">
-        <v>1.29</v>
-      </c>
-      <c r="AA44">
-        <v>3.4</v>
-      </c>
-      <c r="AB44">
-        <v>1.88</v>
-      </c>
-      <c r="AC44">
-        <v>1.82</v>
-      </c>
-      <c r="AD44">
-        <v>3.2</v>
-      </c>
-      <c r="AE44">
-        <v>1.3</v>
-      </c>
-      <c r="AF44">
-        <v>1.95</v>
-      </c>
-      <c r="AG44">
-        <v>1.8</v>
-      </c>
-      <c r="AH44">
-        <v>6.5</v>
-      </c>
-      <c r="AI44">
-        <v>1.11</v>
-      </c>
-      <c r="AJ44" t="s">
-        <v>258</v>
-      </c>
-      <c r="AK44" t="s">
-        <v>258</v>
-      </c>
-      <c r="AL44">
-        <v>1.25</v>
-      </c>
-      <c r="AM44">
-        <v>1.24</v>
-      </c>
       <c r="AN44">
-        <v>2.45</v>
+        <v>1.44</v>
       </c>
       <c r="AO44">
         <v>-1</v>
       </c>
       <c r="AP44">
-        <v>1.29</v>
+        <v>1.34</v>
       </c>
       <c r="AQ44">
-        <v>1.47</v>
+        <v>1.72</v>
       </c>
       <c r="AR44">
-        <v>1.8</v>
+        <v>2.19</v>
       </c>
       <c r="AS44">
-        <v>2.25</v>
+        <v>2.75</v>
       </c>
       <c r="AT44">
-        <v>2.88</v>
+        <v>3.2</v>
       </c>
       <c r="AU44">
-        <v>3.3</v>
+        <v>2.65</v>
       </c>
       <c r="AV44">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="AW44">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AX44">
-        <v>1.57</v>
+        <v>1.39</v>
       </c>
       <c r="AY44">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AZ44">
         <v>0</v>
@@ -8631,10 +8631,10 @@
         <v>0</v>
       </c>
       <c r="BB44">
-        <v>1.4</v>
+        <v>1.91</v>
       </c>
       <c r="BC44">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="BD44" s="3">
         <v>45800.65625</v>
@@ -8675,73 +8675,73 @@
         <v>257</v>
       </c>
       <c r="L45">
-        <v>3.45</v>
+        <v>2.09</v>
       </c>
       <c r="M45">
-        <v>3.39</v>
+        <v>3.55</v>
       </c>
       <c r="N45">
-        <v>1.95</v>
+        <v>2.95</v>
       </c>
       <c r="O45">
-        <v>2.33</v>
+        <v>1.73</v>
       </c>
       <c r="P45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Q45">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="R45">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
       <c r="S45">
         <v>3.1</v>
       </c>
       <c r="T45">
-        <v>2.65</v>
+        <v>2.72</v>
       </c>
       <c r="U45">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V45">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="W45">
         <v>1.09</v>
       </c>
       <c r="X45">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="Y45">
-        <v>9.199999999999999</v>
+        <v>9</v>
       </c>
       <c r="Z45">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="AA45">
-        <v>3.42</v>
+        <v>3.6</v>
       </c>
       <c r="AB45">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AC45">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AD45">
-        <v>3.07</v>
+        <v>3.1</v>
       </c>
       <c r="AE45">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="AF45">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AG45">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="AH45">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AI45">
         <v>1.13</v>
@@ -8753,46 +8753,46 @@
         <v>258</v>
       </c>
       <c r="AL45">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM45">
-        <v>1.26</v>
+        <v>1.28</v>
       </c>
       <c r="AN45">
-        <v>1.3</v>
+        <v>1.67</v>
       </c>
       <c r="AO45">
         <v>-1</v>
       </c>
       <c r="AP45">
-        <v>1.29</v>
+        <v>1.26</v>
       </c>
       <c r="AQ45">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="AR45">
-        <v>2.16</v>
+        <v>1.91</v>
       </c>
       <c r="AS45">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="AT45">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AU45">
-        <v>3.12</v>
+        <v>3.22</v>
       </c>
       <c r="AV45">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AW45">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AX45">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="AY45">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="AZ45">
         <v>0</v>
@@ -8801,10 +8801,10 @@
         <v>0</v>
       </c>
       <c r="BB45">
-        <v>2.33</v>
+        <v>1.73</v>
       </c>
       <c r="BC45">
-        <v>1.74</v>
+        <v>2.25</v>
       </c>
       <c r="BD45" s="3">
         <v>45800.65625</v>
@@ -8845,76 +8845,76 @@
         <v>257</v>
       </c>
       <c r="L46">
-        <v>2.09</v>
+        <v>2.78</v>
       </c>
       <c r="M46">
-        <v>3.55</v>
+        <v>3.34</v>
       </c>
       <c r="N46">
-        <v>2.95</v>
+        <v>2.27</v>
       </c>
       <c r="O46">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="P46">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Q46">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="R46">
+        <v>1.39</v>
+      </c>
+      <c r="S46">
+        <v>2.8</v>
+      </c>
+      <c r="T46">
+        <v>2.88</v>
+      </c>
+      <c r="U46">
+        <v>1.33</v>
+      </c>
+      <c r="V46">
+        <v>7.5</v>
+      </c>
+      <c r="W46">
+        <v>1.08</v>
+      </c>
+      <c r="X46">
+        <v>1.06</v>
+      </c>
+      <c r="Y46">
+        <v>9.5</v>
+      </c>
+      <c r="Z46">
         <v>1.34</v>
       </c>
-      <c r="S46">
-        <v>3.1</v>
-      </c>
-      <c r="T46">
-        <v>2.72</v>
-      </c>
-      <c r="U46">
-        <v>1.44</v>
-      </c>
-      <c r="V46">
-        <v>6.2</v>
-      </c>
-      <c r="W46">
-        <v>1.09</v>
-      </c>
-      <c r="X46">
-        <v>1.02</v>
-      </c>
-      <c r="Y46">
-        <v>9</v>
-      </c>
-      <c r="Z46">
-        <v>1.25</v>
-      </c>
       <c r="AA46">
-        <v>3.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB46">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AC46">
-        <v>1.9</v>
+        <v>1.77</v>
       </c>
       <c r="AD46">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="AE46">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AF46">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AG46">
-        <v>2.15</v>
+        <v>2.06</v>
       </c>
       <c r="AH46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AI46">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="AJ46" t="s">
         <v>258</v>
@@ -8929,40 +8929,40 @@
         <v>1.28</v>
       </c>
       <c r="AN46">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AO46">
         <v>-1</v>
       </c>
       <c r="AP46">
-        <v>1.26</v>
+        <v>1.36</v>
       </c>
       <c r="AQ46">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="AR46">
-        <v>1.91</v>
+        <v>2.04</v>
       </c>
       <c r="AS46">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="AT46">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="AU46">
-        <v>3.22</v>
+        <v>2.88</v>
       </c>
       <c r="AV46">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="AW46">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AX46">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AY46">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="AZ46">
         <v>0</v>
@@ -8971,10 +8971,10 @@
         <v>0</v>
       </c>
       <c r="BB46">
-        <v>1.73</v>
+        <v>2.06</v>
       </c>
       <c r="BC46">
-        <v>2.25</v>
+        <v>1.93</v>
       </c>
       <c r="BD46" s="3">
         <v>45800.65625</v>
@@ -9015,22 +9015,22 @@
         <v>257</v>
       </c>
       <c r="L47">
-        <v>1.62</v>
+        <v>3.45</v>
       </c>
       <c r="M47">
-        <v>3.75</v>
+        <v>3.39</v>
       </c>
       <c r="N47">
-        <v>4.6</v>
+        <v>1.95</v>
       </c>
       <c r="O47">
-        <v>1.47</v>
+        <v>2.33</v>
       </c>
       <c r="P47">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q47">
-        <v>2.74</v>
+        <v>1.74</v>
       </c>
       <c r="R47">
         <v>1.3</v>
@@ -9039,52 +9039,52 @@
         <v>3.1</v>
       </c>
       <c r="T47">
-        <v>2.5</v>
+        <v>2.65</v>
       </c>
       <c r="U47">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="V47">
-        <v>6.1</v>
+        <v>5.8</v>
       </c>
       <c r="W47">
         <v>1.09</v>
       </c>
       <c r="X47">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="Y47">
-        <v>10.9</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="Z47">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="AA47">
-        <v>3.58</v>
+        <v>3.42</v>
       </c>
       <c r="AB47">
-        <v>1.77</v>
+        <v>1.82</v>
       </c>
       <c r="AC47">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AD47">
-        <v>2.83</v>
+        <v>3.07</v>
       </c>
       <c r="AE47">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="AF47">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="AG47">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="AH47">
-        <v>5.52</v>
+        <v>5</v>
       </c>
       <c r="AI47">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="AJ47" t="s">
         <v>258</v>
@@ -9093,13 +9093,13 @@
         <v>258</v>
       </c>
       <c r="AL47">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="AM47">
-        <v>1.2</v>
+        <v>1.26</v>
       </c>
       <c r="AN47">
-        <v>2.15</v>
+        <v>1.3</v>
       </c>
       <c r="AO47">
         <v>-1</v>
@@ -9108,31 +9108,31 @@
         <v>1.29</v>
       </c>
       <c r="AQ47">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AR47">
-        <v>1.78</v>
+        <v>2.16</v>
       </c>
       <c r="AS47">
-        <v>2.24</v>
+        <v>2.37</v>
       </c>
       <c r="AT47">
-        <v>2.82</v>
+        <v>3.15</v>
       </c>
       <c r="AU47">
-        <v>3.4</v>
+        <v>3.12</v>
       </c>
       <c r="AV47">
-        <v>2.5</v>
+        <v>2.36</v>
       </c>
       <c r="AW47">
-        <v>1.96</v>
+        <v>1.85</v>
       </c>
       <c r="AX47">
-        <v>1.61</v>
+        <v>1.52</v>
       </c>
       <c r="AY47">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="AZ47">
         <v>0</v>
@@ -9141,10 +9141,10 @@
         <v>0</v>
       </c>
       <c r="BB47">
-        <v>1.47</v>
+        <v>2.33</v>
       </c>
       <c r="BC47">
-        <v>2.74</v>
+        <v>1.74</v>
       </c>
       <c r="BD47" s="3">
         <v>45800.65625</v>
@@ -9158,10 +9158,10 @@
         <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E48" t="s">
         <v>169</v>
@@ -9185,77 +9185,77 @@
         <v>257</v>
       </c>
       <c r="L48">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="M48">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="N48">
-        <v>14</v>
+        <v>8.5</v>
       </c>
       <c r="O48">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="P48">
+        <v>14.25</v>
+      </c>
+      <c r="Q48">
+        <v>4.2</v>
+      </c>
+      <c r="R48">
+        <v>1.27</v>
+      </c>
+      <c r="S48">
+        <v>3.2</v>
+      </c>
+      <c r="T48">
+        <v>2.35</v>
+      </c>
+      <c r="U48">
+        <v>1.5</v>
+      </c>
+      <c r="V48">
+        <v>5.75</v>
+      </c>
+      <c r="W48">
+        <v>1.11</v>
+      </c>
+      <c r="X48">
+        <v>1.01</v>
+      </c>
+      <c r="Y48">
         <v>12</v>
       </c>
-      <c r="Q48">
-        <v>4.5</v>
-      </c>
-      <c r="R48">
-        <v>1.24</v>
-      </c>
-      <c r="S48">
-        <v>3.54</v>
-      </c>
-      <c r="T48">
-        <v>2.25</v>
-      </c>
-      <c r="U48">
-        <v>1.61</v>
-      </c>
-      <c r="V48">
-        <v>4.85</v>
-      </c>
-      <c r="W48">
-        <v>1.13</v>
-      </c>
-      <c r="X48">
-        <v>1.03</v>
-      </c>
-      <c r="Y48">
-        <v>11</v>
-      </c>
       <c r="Z48">
+        <v>1.16</v>
+      </c>
+      <c r="AA48">
+        <v>3.95</v>
+      </c>
+      <c r="AB48">
+        <v>1.67</v>
+      </c>
+      <c r="AC48">
+        <v>2</v>
+      </c>
+      <c r="AD48">
+        <v>2.63</v>
+      </c>
+      <c r="AE48">
+        <v>1.4</v>
+      </c>
+      <c r="AF48">
+        <v>2.05</v>
+      </c>
+      <c r="AG48">
+        <v>1.73</v>
+      </c>
+      <c r="AH48">
+        <v>4.75</v>
+      </c>
+      <c r="AI48">
         <v>1.15</v>
       </c>
-      <c r="AA48">
-        <v>5.25</v>
-      </c>
-      <c r="AB48">
-        <v>1.82</v>
-      </c>
-      <c r="AC48">
-        <v>1.92</v>
-      </c>
-      <c r="AD48">
-        <v>2.39</v>
-      </c>
-      <c r="AE48">
-        <v>1.58</v>
-      </c>
-      <c r="AF48">
-        <v>2.21</v>
-      </c>
-      <c r="AG48">
-        <v>1.63</v>
-      </c>
-      <c r="AH48">
-        <v>4</v>
-      </c>
-      <c r="AI48">
-        <v>1.22</v>
-      </c>
       <c r="AJ48" t="s">
         <v>258</v>
       </c>
@@ -9263,58 +9263,58 @@
         <v>258</v>
       </c>
       <c r="AL48">
-        <v>1.04</v>
+        <v>1.17</v>
       </c>
       <c r="AM48">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="AN48">
-        <v>4.33</v>
+        <v>3.4</v>
       </c>
       <c r="AO48">
         <v>-1</v>
       </c>
       <c r="AP48">
+        <v>1.2</v>
+      </c>
+      <c r="AQ48">
+        <v>1.36</v>
+      </c>
+      <c r="AR48">
+        <v>1.73</v>
+      </c>
+      <c r="AS48">
+        <v>1.91</v>
+      </c>
+      <c r="AT48">
+        <v>2.4</v>
+      </c>
+      <c r="AU48">
+        <v>4</v>
+      </c>
+      <c r="AV48">
+        <v>2.9</v>
+      </c>
+      <c r="AW48">
+        <v>2.25</v>
+      </c>
+      <c r="AX48">
+        <v>1.8</v>
+      </c>
+      <c r="AY48">
+        <v>1.5</v>
+      </c>
+      <c r="AZ48">
+        <v>0</v>
+      </c>
+      <c r="BA48">
+        <v>0</v>
+      </c>
+      <c r="BB48">
         <v>1.24</v>
       </c>
-      <c r="AQ48">
-        <v>1.41</v>
-      </c>
-      <c r="AR48">
-        <v>1.68</v>
-      </c>
-      <c r="AS48">
-        <v>2.07</v>
-      </c>
-      <c r="AT48">
-        <v>2.63</v>
-      </c>
-      <c r="AU48">
-        <v>3.55</v>
-      </c>
-      <c r="AV48">
-        <v>2.65</v>
-      </c>
-      <c r="AW48">
-        <v>2.04</v>
-      </c>
-      <c r="AX48">
-        <v>1.66</v>
-      </c>
-      <c r="AY48">
-        <v>1.41</v>
-      </c>
-      <c r="AZ48">
-        <v>0</v>
-      </c>
-      <c r="BA48">
-        <v>0</v>
-      </c>
-      <c r="BB48">
-        <v>1.22</v>
-      </c>
       <c r="BC48">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="BD48" s="3">
         <v>45800.65625</v>
@@ -9525,76 +9525,76 @@
         <v>257</v>
       </c>
       <c r="L50">
-        <v>2.78</v>
+        <v>1.62</v>
       </c>
       <c r="M50">
-        <v>3.34</v>
+        <v>3.75</v>
       </c>
       <c r="N50">
-        <v>2.27</v>
+        <v>4.6</v>
       </c>
       <c r="O50">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="P50">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="Q50">
+        <v>2.74</v>
+      </c>
+      <c r="R50">
+        <v>1.3</v>
+      </c>
+      <c r="S50">
+        <v>3.1</v>
+      </c>
+      <c r="T50">
+        <v>2.5</v>
+      </c>
+      <c r="U50">
+        <v>1.45</v>
+      </c>
+      <c r="V50">
+        <v>6.1</v>
+      </c>
+      <c r="W50">
+        <v>1.09</v>
+      </c>
+      <c r="X50">
+        <v>1.05</v>
+      </c>
+      <c r="Y50">
+        <v>10.9</v>
+      </c>
+      <c r="Z50">
+        <v>1.25</v>
+      </c>
+      <c r="AA50">
+        <v>3.58</v>
+      </c>
+      <c r="AB50">
+        <v>1.77</v>
+      </c>
+      <c r="AC50">
         <v>1.93</v>
       </c>
-      <c r="R50">
-        <v>1.39</v>
-      </c>
-      <c r="S50">
-        <v>2.8</v>
-      </c>
-      <c r="T50">
-        <v>2.88</v>
-      </c>
-      <c r="U50">
+      <c r="AD50">
+        <v>2.83</v>
+      </c>
+      <c r="AE50">
         <v>1.33</v>
       </c>
-      <c r="V50">
-        <v>7.5</v>
-      </c>
-      <c r="W50">
-        <v>1.08</v>
-      </c>
-      <c r="X50">
-        <v>1.06</v>
-      </c>
-      <c r="Y50">
-        <v>9.5</v>
-      </c>
-      <c r="Z50">
-        <v>1.34</v>
-      </c>
-      <c r="AA50">
-        <v>3.3</v>
-      </c>
-      <c r="AB50">
-        <v>1.93</v>
-      </c>
-      <c r="AC50">
-        <v>1.77</v>
-      </c>
-      <c r="AD50">
-        <v>3.5</v>
-      </c>
-      <c r="AE50">
-        <v>1.3</v>
-      </c>
       <c r="AF50">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AG50">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="AH50">
-        <v>7</v>
+        <v>5.52</v>
       </c>
       <c r="AI50">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="AJ50" t="s">
         <v>258</v>
@@ -9603,46 +9603,46 @@
         <v>258</v>
       </c>
       <c r="AL50">
-        <v>1.33</v>
+        <v>1.25</v>
       </c>
       <c r="AM50">
-        <v>1.28</v>
+        <v>1.2</v>
       </c>
       <c r="AN50">
-        <v>1.4</v>
+        <v>2.15</v>
       </c>
       <c r="AO50">
         <v>-1</v>
       </c>
       <c r="AP50">
-        <v>1.36</v>
+        <v>1.29</v>
       </c>
       <c r="AQ50">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="AR50">
-        <v>2.04</v>
+        <v>1.78</v>
       </c>
       <c r="AS50">
-        <v>2.6</v>
+        <v>2.24</v>
       </c>
       <c r="AT50">
-        <v>3.3</v>
+        <v>2.82</v>
       </c>
       <c r="AU50">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="AV50">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="AW50">
-        <v>1.73</v>
+        <v>1.96</v>
       </c>
       <c r="AX50">
-        <v>1.44</v>
+        <v>1.61</v>
       </c>
       <c r="AY50">
-        <v>1.29</v>
+        <v>1.38</v>
       </c>
       <c r="AZ50">
         <v>0</v>
@@ -9651,10 +9651,10 @@
         <v>0</v>
       </c>
       <c r="BB50">
-        <v>2.06</v>
+        <v>1.47</v>
       </c>
       <c r="BC50">
-        <v>1.93</v>
+        <v>2.74</v>
       </c>
       <c r="BD50" s="3">
         <v>45800.65625</v>
@@ -9668,10 +9668,10 @@
         <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51" t="s">
         <v>172</v>
@@ -9695,76 +9695,76 @@
         <v>257</v>
       </c>
       <c r="L51">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="M51">
-        <v>5.1</v>
+        <v>4.9</v>
       </c>
       <c r="N51">
-        <v>8.5</v>
+        <v>14</v>
       </c>
       <c r="O51">
+        <v>1.22</v>
+      </c>
+      <c r="P51">
+        <v>12</v>
+      </c>
+      <c r="Q51">
+        <v>4.5</v>
+      </c>
+      <c r="R51">
         <v>1.24</v>
       </c>
-      <c r="P51">
-        <v>14.25</v>
-      </c>
-      <c r="Q51">
-        <v>4.2</v>
-      </c>
-      <c r="R51">
-        <v>1.27</v>
-      </c>
       <c r="S51">
-        <v>3.2</v>
+        <v>3.54</v>
       </c>
       <c r="T51">
-        <v>2.35</v>
+        <v>2.25</v>
       </c>
       <c r="U51">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="V51">
-        <v>5.75</v>
+        <v>4.85</v>
       </c>
       <c r="W51">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="X51">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="Y51">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z51">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AA51">
-        <v>3.95</v>
+        <v>5.25</v>
       </c>
       <c r="AB51">
-        <v>1.67</v>
+        <v>1.82</v>
       </c>
       <c r="AC51">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AD51">
-        <v>2.63</v>
+        <v>2.39</v>
       </c>
       <c r="AE51">
-        <v>1.4</v>
+        <v>1.58</v>
       </c>
       <c r="AF51">
-        <v>2.05</v>
+        <v>2.21</v>
       </c>
       <c r="AG51">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AH51">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AI51">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AJ51" t="s">
         <v>258</v>
@@ -9773,46 +9773,46 @@
         <v>258</v>
       </c>
       <c r="AL51">
-        <v>1.17</v>
+        <v>1.04</v>
       </c>
       <c r="AM51">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="AN51">
-        <v>3.4</v>
+        <v>4.33</v>
       </c>
       <c r="AO51">
         <v>-1</v>
       </c>
       <c r="AP51">
-        <v>1.2</v>
+        <v>1.24</v>
       </c>
       <c r="AQ51">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AR51">
-        <v>1.73</v>
+        <v>1.68</v>
       </c>
       <c r="AS51">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="AT51">
-        <v>2.4</v>
+        <v>2.63</v>
       </c>
       <c r="AU51">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="AV51">
-        <v>2.9</v>
+        <v>2.65</v>
       </c>
       <c r="AW51">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="AX51">
-        <v>1.8</v>
+        <v>1.66</v>
       </c>
       <c r="AY51">
-        <v>1.5</v>
+        <v>1.41</v>
       </c>
       <c r="AZ51">
         <v>0</v>
@@ -9821,10 +9821,10 @@
         <v>0</v>
       </c>
       <c r="BB51">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="BC51">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="BD51" s="3">
         <v>45800.65625</v>
@@ -10375,22 +10375,22 @@
         <v>257</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>3.25</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P55">
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R55">
         <v>0</v>
@@ -10423,10 +10423,10 @@
         <v>0</v>
       </c>
       <c r="AB55">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD55">
         <v>0</v>
@@ -10501,10 +10501,10 @@
         <v>0</v>
       </c>
       <c r="BB55">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC55">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BD55" s="3">
         <v>45800.70833333334</v>
@@ -10715,77 +10715,77 @@
         <v>257</v>
       </c>
       <c r="L57">
-        <v>5</v>
+        <v>1.36</v>
       </c>
       <c r="M57">
-        <v>3.75</v>
+        <v>4.2</v>
       </c>
       <c r="N57">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="O57">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="P57">
-        <v>9</v>
+        <v>10.5</v>
       </c>
       <c r="Q57">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="R57">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="S57">
-        <v>2.95</v>
+        <v>2.77</v>
       </c>
       <c r="T57">
-        <v>2.62</v>
+        <v>3.1</v>
       </c>
       <c r="U57">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="V57">
-        <v>7.1</v>
+        <v>6.5</v>
       </c>
       <c r="W57">
         <v>1.04</v>
       </c>
       <c r="X57">
+        <v>1.02</v>
+      </c>
+      <c r="Y57">
+        <v>9.1</v>
+      </c>
+      <c r="Z57">
+        <v>1.27</v>
+      </c>
+      <c r="AA57">
+        <v>3.3</v>
+      </c>
+      <c r="AB57">
+        <v>1.95</v>
+      </c>
+      <c r="AC57">
+        <v>1.75</v>
+      </c>
+      <c r="AD57">
+        <v>3.55</v>
+      </c>
+      <c r="AE57">
+        <v>1.24</v>
+      </c>
+      <c r="AF57">
+        <v>2.18</v>
+      </c>
+      <c r="AG57">
+        <v>1.7</v>
+      </c>
+      <c r="AH57">
+        <v>7.1</v>
+      </c>
+      <c r="AI57">
         <v>1.04</v>
       </c>
-      <c r="Y57">
-        <v>9</v>
-      </c>
-      <c r="Z57">
-        <v>1.25</v>
-      </c>
-      <c r="AA57">
-        <v>3.6</v>
-      </c>
-      <c r="AB57">
-        <v>1.83</v>
-      </c>
-      <c r="AC57">
-        <v>1.91</v>
-      </c>
-      <c r="AD57">
-        <v>3.1</v>
-      </c>
-      <c r="AE57">
-        <v>1.33</v>
-      </c>
-      <c r="AF57">
-        <v>1.8</v>
-      </c>
-      <c r="AG57">
-        <v>1.85</v>
-      </c>
-      <c r="AH57">
-        <v>6.1</v>
-      </c>
-      <c r="AI57">
-        <v>1.06</v>
-      </c>
       <c r="AJ57" t="s">
         <v>258</v>
       </c>
@@ -10793,46 +10793,46 @@
         <v>258</v>
       </c>
       <c r="AL57">
+        <v>1.26</v>
+      </c>
+      <c r="AM57">
+        <v>1.16</v>
+      </c>
+      <c r="AN57">
         <v>2.25</v>
-      </c>
-      <c r="AM57">
-        <v>1.2</v>
-      </c>
-      <c r="AN57">
-        <v>1.12</v>
       </c>
       <c r="AO57">
         <v>-1</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>0</v>
       </c>
       <c r="AQ57">
-        <v>1.57</v>
+        <v>0</v>
       </c>
       <c r="AR57">
-        <v>1.93</v>
+        <v>0</v>
       </c>
       <c r="AS57">
-        <v>2.45</v>
+        <v>0</v>
       </c>
       <c r="AT57">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="AU57">
-        <v>2.88</v>
+        <v>0</v>
       </c>
       <c r="AV57">
-        <v>2.15</v>
+        <v>0</v>
       </c>
       <c r="AW57">
-        <v>1.72</v>
+        <v>0</v>
       </c>
       <c r="AX57">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AY57">
-        <v>1.27</v>
+        <v>0</v>
       </c>
       <c r="AZ57">
         <v>0</v>
@@ -10841,10 +10841,10 @@
         <v>0</v>
       </c>
       <c r="BB57">
-        <v>3</v>
+        <v>1.29</v>
       </c>
       <c r="BC57">
-        <v>1.5</v>
+        <v>4.75</v>
       </c>
       <c r="BD57" s="3">
         <v>45800.79166666666</v>
@@ -10885,76 +10885,76 @@
         <v>257</v>
       </c>
       <c r="L58">
-        <v>1.36</v>
+        <v>5</v>
       </c>
       <c r="M58">
-        <v>4.2</v>
+        <v>3.75</v>
       </c>
       <c r="N58">
-        <v>6.8</v>
+        <v>1.6</v>
       </c>
       <c r="O58">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="P58">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="Q58">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="R58">
-        <v>1.39</v>
+        <v>1.35</v>
       </c>
       <c r="S58">
-        <v>2.77</v>
+        <v>2.95</v>
       </c>
       <c r="T58">
-        <v>3.1</v>
+        <v>2.62</v>
       </c>
       <c r="U58">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="V58">
-        <v>6.5</v>
+        <v>7.1</v>
       </c>
       <c r="W58">
         <v>1.04</v>
       </c>
       <c r="X58">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="Y58">
-        <v>9.1</v>
+        <v>9</v>
       </c>
       <c r="Z58">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AA58">
-        <v>3.3</v>
+        <v>3.6</v>
       </c>
       <c r="AB58">
-        <v>1.95</v>
+        <v>1.83</v>
       </c>
       <c r="AC58">
-        <v>1.75</v>
+        <v>1.91</v>
       </c>
       <c r="AD58">
-        <v>3.55</v>
+        <v>3.1</v>
       </c>
       <c r="AE58">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AF58">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="AG58">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="AH58">
-        <v>7.1</v>
+        <v>6.1</v>
       </c>
       <c r="AI58">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="AJ58" t="s">
         <v>258</v>
@@ -10963,46 +10963,46 @@
         <v>258</v>
       </c>
       <c r="AL58">
-        <v>1.26</v>
+        <v>2.25</v>
       </c>
       <c r="AM58">
-        <v>1.16</v>
+        <v>1.2</v>
       </c>
       <c r="AN58">
-        <v>2.25</v>
+        <v>1.12</v>
       </c>
       <c r="AO58">
         <v>-1</v>
       </c>
       <c r="AP58">
-        <v>0</v>
+        <v>1.33</v>
       </c>
       <c r="AQ58">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AR58">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AS58">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AT58">
-        <v>0</v>
+        <v>3.15</v>
       </c>
       <c r="AU58">
-        <v>0</v>
+        <v>2.88</v>
       </c>
       <c r="AV58">
-        <v>0</v>
+        <v>2.15</v>
       </c>
       <c r="AW58">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AX58">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AY58">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="AZ58">
         <v>0</v>
@@ -11011,10 +11011,10 @@
         <v>0</v>
       </c>
       <c r="BB58">
-        <v>1.29</v>
+        <v>3</v>
       </c>
       <c r="BC58">
-        <v>4.75</v>
+        <v>1.5</v>
       </c>
       <c r="BD58" s="3">
         <v>45800.79166666666</v>
@@ -11055,40 +11055,40 @@
         <v>257</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>2.05</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="P59">
         <v>0</v>
       </c>
       <c r="Q59">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="R59">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>2.25</v>
       </c>
       <c r="U59">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="V59">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="W59">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="X59">
         <v>0</v>
@@ -11097,34 +11097,34 @@
         <v>0</v>
       </c>
       <c r="Z59">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AA59">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="AB59">
-        <v>0</v>
+        <v>1.55</v>
       </c>
       <c r="AC59">
-        <v>0</v>
+        <v>2.33</v>
       </c>
       <c r="AD59">
-        <v>0</v>
+        <v>2.38</v>
       </c>
       <c r="AE59">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF59">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AG59">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI59">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AJ59" t="s">
         <v>258</v>
@@ -11133,13 +11133,13 @@
         <v>258</v>
       </c>
       <c r="AL59">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM59">
         <v>0</v>
       </c>
       <c r="AN59">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AO59">
         <v>-1</v>
@@ -11181,10 +11181,10 @@
         <v>0</v>
       </c>
       <c r="BB59">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="BC59">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="BD59" s="3">
         <v>45800.83333333334</v>
@@ -11225,22 +11225,22 @@
         <v>257</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>2.2</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>3.5</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P60">
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="R60">
         <v>0</v>
@@ -11273,16 +11273,16 @@
         <v>0</v>
       </c>
       <c r="AB60">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC60">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD60">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AE60">
-        <v>0</v>
+        <v>1.72</v>
       </c>
       <c r="AF60">
         <v>0</v>
@@ -11351,10 +11351,10 @@
         <v>0</v>
       </c>
       <c r="BB60">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BC60">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="BD60" s="3">
         <v>45800.83333333334</v>
@@ -11395,22 +11395,22 @@
         <v>257</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>1.84</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>3.75</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>3.33</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="P61">
         <v>0</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -11443,10 +11443,10 @@
         <v>0</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>2.62</v>
       </c>
       <c r="AD61">
         <v>0</v>
@@ -11521,10 +11521,10 @@
         <v>0</v>
       </c>
       <c r="BB61">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="BC61">
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="BD61" s="3">
         <v>45800.85416666666</v>
@@ -11538,10 +11538,10 @@
         <v>83</v>
       </c>
       <c r="C62" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62" t="s">
         <v>183</v>
@@ -11565,13 +11565,13 @@
         <v>257</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="O62">
         <v>0</v>
@@ -11708,10 +11708,10 @@
         <v>83</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E63" t="s">
         <v>184</v>
@@ -11735,23 +11735,23 @@
         <v>257</v>
       </c>
       <c r="L63">
+        <v>1.48</v>
+      </c>
+      <c r="M63">
+        <v>4.33</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63">
+        <v>1.36</v>
+      </c>
+      <c r="P63">
+        <v>0</v>
+      </c>
+      <c r="Q63">
         <v>3</v>
       </c>
-      <c r="M63">
-        <v>3.1</v>
-      </c>
-      <c r="N63">
-        <v>2.24</v>
-      </c>
-      <c r="O63">
-        <v>0</v>
-      </c>
-      <c r="P63">
-        <v>0</v>
-      </c>
-      <c r="Q63">
-        <v>0</v>
-      </c>
       <c r="R63">
         <v>0</v>
       </c>
@@ -11783,10 +11783,10 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AC63">
-        <v>0</v>
+        <v>2.63</v>
       </c>
       <c r="AD63">
         <v>0</v>
@@ -11861,10 +11861,10 @@
         <v>0</v>
       </c>
       <c r="BB63">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="BC63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BD63" s="3">
         <v>45800.875</v>
@@ -11878,7 +11878,7 @@
         <v>84</v>
       </c>
       <c r="C64" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D64" t="s">
         <v>122</v>
@@ -11905,76 +11905,76 @@
         <v>257</v>
       </c>
       <c r="L64">
-        <v>2.06</v>
+        <v>2.58</v>
       </c>
       <c r="M64">
-        <v>3.17</v>
+        <v>3.37</v>
       </c>
       <c r="N64">
-        <v>3.13</v>
+        <v>2.36</v>
       </c>
       <c r="O64">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="P64">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="Q64">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="R64">
-        <v>1.41</v>
+        <v>0</v>
       </c>
       <c r="S64">
-        <v>2.7</v>
+        <v>0</v>
       </c>
       <c r="T64">
-        <v>3.1</v>
+        <v>0</v>
       </c>
       <c r="U64">
-        <v>1.35</v>
+        <v>0</v>
       </c>
       <c r="V64">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="W64">
-        <v>1.04</v>
+        <v>0</v>
       </c>
       <c r="X64">
-        <v>1.05</v>
+        <v>0</v>
       </c>
       <c r="Y64">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="Z64">
-        <v>1.36</v>
+        <v>0</v>
       </c>
       <c r="AA64">
-        <v>3.06</v>
+        <v>0</v>
       </c>
       <c r="AB64">
-        <v>2.3</v>
+        <v>1.7</v>
       </c>
       <c r="AC64">
-        <v>1.5</v>
+        <v>2.1</v>
       </c>
       <c r="AD64">
-        <v>4.4</v>
+        <v>0</v>
       </c>
       <c r="AE64">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="AF64">
-        <v>1.83</v>
+        <v>0</v>
       </c>
       <c r="AG64">
-        <v>1.77</v>
+        <v>0</v>
       </c>
       <c r="AH64">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="AI64">
-        <v>1.08</v>
+        <v>0</v>
       </c>
       <c r="AJ64" t="s">
         <v>258</v>
@@ -11983,13 +11983,13 @@
         <v>258</v>
       </c>
       <c r="AL64">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AM64">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="AN64">
-        <v>1.85</v>
+        <v>0</v>
       </c>
       <c r="AO64">
         <v>-1</v>
@@ -12031,10 +12031,10 @@
         <v>0</v>
       </c>
       <c r="BB64">
-        <v>1.73</v>
+        <v>2.05</v>
       </c>
       <c r="BC64">
-        <v>2.6</v>
+        <v>1.8</v>
       </c>
       <c r="BD64" s="3">
         <v>45800.89583333334</v>
@@ -12048,7 +12048,7 @@
         <v>84</v>
       </c>
       <c r="C65" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D65" t="s">
         <v>122</v>
@@ -12075,76 +12075,76 @@
         <v>257</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>3.13</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>7.4</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>1.41</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>3.1</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="X65">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>1.36</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>3.06</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>4.4</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>1.16</v>
       </c>
       <c r="AF65">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="AG65">
-        <v>0</v>
+        <v>1.77</v>
       </c>
       <c r="AH65">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="AI65">
-        <v>0</v>
+        <v>1.08</v>
       </c>
       <c r="AJ65" t="s">
         <v>258</v>
@@ -12153,13 +12153,13 @@
         <v>258</v>
       </c>
       <c r="AL65">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AM65">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AN65">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AO65">
         <v>-1</v>
@@ -12201,10 +12201,10 @@
         <v>0</v>
       </c>
       <c r="BB65">
-        <v>0</v>
+        <v>1.73</v>
       </c>
       <c r="BC65">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BD65" s="3">
         <v>45800.89583333334</v>
@@ -12415,34 +12415,34 @@
         <v>257</v>
       </c>
       <c r="L67">
-        <v>5.4</v>
+        <v>5</v>
       </c>
       <c r="M67">
-        <v>3.9</v>
+        <v>3.99</v>
       </c>
       <c r="N67">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="P67">
         <v>0</v>
       </c>
       <c r="Q67">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="R67">
         <v>1.3</v>
       </c>
       <c r="S67">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="T67">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="U67">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="V67">
         <v>5.7</v>
@@ -12454,34 +12454,34 @@
         <v>1.02</v>
       </c>
       <c r="Y67">
-        <v>9.5</v>
+        <v>12</v>
       </c>
       <c r="Z67">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AA67">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="AB67">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AC67">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="AD67">
-        <v>2.7</v>
+        <v>2.82</v>
       </c>
       <c r="AE67">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AF67">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AG67">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AH67">
-        <v>4.8</v>
+        <v>4.75</v>
       </c>
       <c r="AI67">
         <v>1.15</v>
@@ -12493,13 +12493,13 @@
         <v>258</v>
       </c>
       <c r="AL67">
-        <v>2.29</v>
+        <v>1.18</v>
       </c>
       <c r="AM67">
         <v>0</v>
       </c>
       <c r="AN67">
-        <v>1.08</v>
+        <v>1.02</v>
       </c>
       <c r="AO67">
         <v>-1</v>
@@ -12541,10 +12541,10 @@
         <v>0</v>
       </c>
       <c r="BB67">
-        <v>0</v>
+        <v>3.2</v>
       </c>
       <c r="BC67">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="BD67" s="3">
         <v>45800.9375</v>
@@ -12585,37 +12585,37 @@
         <v>257</v>
       </c>
       <c r="L68">
-        <v>2.66</v>
+        <v>2.87</v>
       </c>
       <c r="M68">
         <v>3.02</v>
       </c>
       <c r="N68">
-        <v>2.48</v>
+        <v>2.42</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="P68">
         <v>0</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="R68">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="S68">
-        <v>2.45</v>
+        <v>2.49</v>
       </c>
       <c r="T68">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="U68">
         <v>1.3</v>
       </c>
       <c r="V68">
-        <v>8.300000000000001</v>
+        <v>8.5</v>
       </c>
       <c r="W68">
         <v>1.04</v>
@@ -12624,19 +12624,19 @@
         <v>1.07</v>
       </c>
       <c r="Y68">
-        <v>7</v>
+        <v>6.86</v>
       </c>
       <c r="Z68">
         <v>1.4</v>
       </c>
       <c r="AA68">
-        <v>2.62</v>
+        <v>2.75</v>
       </c>
       <c r="AB68">
-        <v>2.25</v>
+        <v>2.24</v>
       </c>
       <c r="AC68">
-        <v>1.57</v>
+        <v>1.59</v>
       </c>
       <c r="AD68">
         <v>4</v>
@@ -12645,13 +12645,13 @@
         <v>1.2</v>
       </c>
       <c r="AF68">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AG68">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AH68">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AI68">
         <v>1.05</v>
@@ -12663,13 +12663,13 @@
         <v>258</v>
       </c>
       <c r="AL68">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AM68">
         <v>0</v>
       </c>
       <c r="AN68">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AO68">
         <v>-1</v>
@@ -12711,10 +12711,10 @@
         <v>0</v>
       </c>
       <c r="BB68">
-        <v>0</v>
+        <v>2.3</v>
       </c>
       <c r="BC68">
-        <v>0</v>
+        <v>1.83</v>
       </c>
       <c r="BD68" s="3">
         <v>45800.95833333334</v>
